--- a/cfb_weather_backtest.xlsx
+++ b/cfb_weather_backtest.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a4d62a6c9a4ac20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckin\Dropbox\MS Docs\Work\Sublime_Misc\football_weather_repo\football_weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66566051-9458-4156-A71D-3EEE79FE586E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB5E902-1526-4322-80CD-7345A09F789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
+    <workbookView xWindow="33015" yWindow="4410" windowWidth="18945" windowHeight="15345" activeTab="1" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtesting" sheetId="1" r:id="rId1"/>
+    <sheet name="Stadiums" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Stadiums!$A$1:$D$114</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="358">
   <si>
     <t>Sport</t>
   </si>
@@ -138,6 +142,1005 @@
   </si>
   <si>
     <t>NFL</t>
+  </si>
+  <si>
+    <t>AT&amp;T Stadium</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Acrisure Stadium</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Aggie Memorial Stadium</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>Alamodome</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Albertsons Stadium</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>Allegacy Federal Credit Union Stadium</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Allegiant Stadium</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Allen E. Paulson Stadium</t>
+  </si>
+  <si>
+    <t>Georgia Southern</t>
+  </si>
+  <si>
+    <t>Alumni Stadium (Boston)</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Amon G. Carter Stadium</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Arizona Stadium</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arrowhead Stadium</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Autzen Stadium</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Aviva Stadium</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Beaver Stadium</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Ben Hill Griffin Stadium</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Bill Snyder Family Football Stadium</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Bobby Dodd Stadium</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Bobcat Stadium (Texas)</t>
+  </si>
+  <si>
+    <t>Texas State</t>
+  </si>
+  <si>
+    <t>Boone Pickens Stadium</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Braly Municipal Stadium</t>
+  </si>
+  <si>
+    <t>North Alabama</t>
+  </si>
+  <si>
+    <t>Bridgeforth Stadium</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>Brooks Stadium</t>
+  </si>
+  <si>
+    <t>Coastal Carolina</t>
+  </si>
+  <si>
+    <t>CEFCU Stadium</t>
+  </si>
+  <si>
+    <t>San Jose State</t>
+  </si>
+  <si>
+    <t>Cajun Field</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>California Memorial Stadium</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Camp Randall Stadium</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Canvas Stadium</t>
+  </si>
+  <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
+    <t>Carter-Finley Stadium</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Centennial Bank Stadium</t>
+  </si>
+  <si>
+    <t>Arkansas State</t>
+  </si>
+  <si>
+    <t>Center Parc Stadium</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>DATCU Stadium</t>
+  </si>
+  <si>
+    <t>Darrell K Royal Texas Memorial Stadium</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>David Booth Kansas Memorial Stadium</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Davis Wade Stadium</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>Dix Stadium</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Doak Campbell Stadium</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Dowdy-Ficklen Stadium</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>Doyt L. Perry Stadium</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>FBC Mortgage Stadium</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>FIU Stadium</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>Falcon Stadium</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Faurot Field at Memorial Stadium</t>
+  </si>
+  <si>
+    <t>FirstBank Stadium</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Floyd Stadium</t>
+  </si>
+  <si>
+    <t>Middle Tennessee</t>
+  </si>
+  <si>
+    <t>Frank Broyles Field</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Gaylord Family Oklahoma Memorial Stadium</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Gerald J. Ford Stadium</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Glass Bowl Stadium</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Hancock Whitney Stadium</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>Houchens Industries-L. T. Smith Stadium</t>
+  </si>
+  <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
+    <t>Howard Schnellenberger Field</t>
+  </si>
+  <si>
+    <t>Florida Atlantic</t>
+  </si>
+  <si>
+    <t>Huntington Bank Stadium</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Huskie Stadium</t>
+  </si>
+  <si>
+    <t>Northern Illinois</t>
+  </si>
+  <si>
+    <t>Husky Stadium (Washington)</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Indiana University Memorial Stadium</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>InfoCision Stadium-Summa Field</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>JMA Wireless Dome</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Jack Trice Stadium</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Jones AT&amp;T Stadium</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Jordan-Hare Stadium</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Kelly/Shorts Stadium</t>
+  </si>
+  <si>
+    <t>Central Michigan</t>
+  </si>
+  <si>
+    <t>Kinnick Stadium</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kroger Field</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Kyle Field</t>
+  </si>
+  <si>
+    <t>L&amp;N Federal Credit Union Stadium</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>LA Memorial Coliseum</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Lincoln Financial Field</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>McGuirk Alumni Stadium</t>
+  </si>
+  <si>
+    <t>UMass</t>
+  </si>
+  <si>
+    <t>Memorial Stadium (Lincoln)</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Michigan Stadium</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Navy-Marine Corps Memorial Stadium</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Neyland Stadium</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Nippert Stadium</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Notre Dame Stadium</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Pratt &amp; Whitney Stadium at Rentschler Field</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>Protective Stadium</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Ross-Ade Stadium</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Ryan Field</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Rynearson Stadium</t>
+  </si>
+  <si>
+    <t>Eastern Michigan</t>
+  </si>
+  <si>
+    <t>S.B. Ballard Stadium</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>SECU Stadium</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>SHI Stadium</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Sam Boyd Stadium</t>
+  </si>
+  <si>
+    <t>Sanford Stadium</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Scheumann Stadium</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>Scott Stadium</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Simmons Bank Liberty Stadium</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Skelly Field at H. A. Chapman Stadium</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Snapdragon Stadium</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Soldier Field</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Spartan Stadium</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Stanford Stadium</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Sun Bowl Stadium</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>TDECU Stadium</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>TIAA Bank Field</t>
+  </si>
+  <si>
+    <t>Tiger Stadium</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Toyota Stadium</t>
+  </si>
+  <si>
+    <t>UB Stadium</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>University Stadium</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>University of Illinois Memorial Stadium</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Valley Children's Stadium</t>
+  </si>
+  <si>
+    <t>Fresno State</t>
+  </si>
+  <si>
+    <t>Vaught Hemingway Stadium</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Veterans Memorial Stadium</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Waldo Stadium</t>
+  </si>
+  <si>
+    <t>Western Michigan</t>
+  </si>
+  <si>
+    <t>Wallace Wade Stadium</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>War Memorial Stadium</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Williams Stadium</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Williams-Brice Stadium</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Wrigley Field</t>
+  </si>
+  <si>
+    <t>Yager Stadium</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>Yankee Stadium</t>
+  </si>
+  <si>
+    <t>Yulman Stadium</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Stadium</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>15-17-1</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>2-6-1</t>
+  </si>
+  <si>
+    <t>20-13-0</t>
+  </si>
+  <si>
+    <t>9-8-2</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>1-0-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>20-11-1</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>19-19-0</t>
+  </si>
+  <si>
+    <t>19-12-1</t>
+  </si>
+  <si>
+    <t>6-3-1</t>
+  </si>
+  <si>
+    <t>8-13-0</t>
+  </si>
+  <si>
+    <t>4-1-1</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>21-10-2</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>19-5-0</t>
+  </si>
+  <si>
+    <t>21-13-0</t>
+  </si>
+  <si>
+    <t>10-10-0</t>
+  </si>
+  <si>
+    <t>8-9-1</t>
+  </si>
+  <si>
+    <t>16-9-0</t>
+  </si>
+  <si>
+    <t>13-12-0</t>
+  </si>
+  <si>
+    <t>12-8-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>12-14-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>23-13-2</t>
+  </si>
+  <si>
+    <t>11-11-0</t>
+  </si>
+  <si>
+    <t>31-16-1</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>12-9-1</t>
+  </si>
+  <si>
+    <t>8-12-0</t>
+  </si>
+  <si>
+    <t>10-9-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>13-6-0</t>
+  </si>
+  <si>
+    <t>19-21-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>18-21-2</t>
+  </si>
+  <si>
+    <t>24-15-0</t>
+  </si>
+  <si>
+    <t>23-11-1</t>
+  </si>
+  <si>
+    <t>13-15-1</t>
+  </si>
+  <si>
+    <t>22-12-0</t>
+  </si>
+  <si>
+    <t>22-10-0</t>
+  </si>
+  <si>
+    <t>27-15-0</t>
+  </si>
+  <si>
+    <t>17-20-0</t>
+  </si>
+  <si>
+    <t>7-6-1</t>
+  </si>
+  <si>
+    <t>21-20-0</t>
+  </si>
+  <si>
+    <t>38-23-2</t>
+  </si>
+  <si>
+    <t>13-10-0</t>
+  </si>
+  <si>
+    <t>15-7-1</t>
+  </si>
+  <si>
+    <t>9-10-0</t>
+  </si>
+  <si>
+    <t>22-15-1</t>
+  </si>
+  <si>
+    <t>7-6-2</t>
+  </si>
+  <si>
+    <t>27-19-0</t>
+  </si>
+  <si>
+    <t>17-19-0</t>
+  </si>
+  <si>
+    <t>19-13-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>15-10-1</t>
+  </si>
+  <si>
+    <t>27-12-0</t>
+  </si>
+  <si>
+    <t>20-14-0</t>
+  </si>
+  <si>
+    <t>27-26-2</t>
+  </si>
+  <si>
+    <t>31-21-0</t>
+  </si>
+  <si>
+    <t>25-23-2</t>
+  </si>
+  <si>
+    <t>16-6-0</t>
+  </si>
+  <si>
+    <t>14-15-1</t>
+  </si>
+  <si>
+    <t>15-10-0</t>
+  </si>
+  <si>
+    <t>0-1-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>24-23-2</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>9-12-0</t>
+  </si>
+  <si>
+    <t>10-8-1</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>21-17-1</t>
+  </si>
+  <si>
+    <t>8-11-0</t>
+  </si>
+  <si>
+    <t>5-11-1</t>
+  </si>
+  <si>
+    <t>3-1-1</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>33-22-2</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>10-11-0</t>
+  </si>
+  <si>
+    <t>22-19-3</t>
+  </si>
+  <si>
+    <t>0-0-1</t>
+  </si>
+  <si>
+    <t>6-8-1</t>
+  </si>
+  <si>
+    <t>21-13-2</t>
+  </si>
+  <si>
+    <t>8-11-1</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>McLane Stadium</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Lane Stadium</t>
+  </si>
+  <si>
+    <t>15-8-0</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Peden Stadium</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Folsom Field</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
   </si>
 </sst>
 </file>
@@ -147,7 +1150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +1164,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,6 +1300,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,30 +1656,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F9FFD-20B7-4014-BC22-21054032984A}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="2"/>
-    <col min="14" max="14" width="8.7265625" style="3"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="87.453125" customWidth="1"/>
-    <col min="17" max="17" width="122.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="2"/>
+    <col min="14" max="14" width="8.7109375" style="3"/>
+    <col min="15" max="15" width="8.7109375" style="2"/>
+    <col min="16" max="16" width="87.42578125" customWidth="1"/>
+    <col min="17" max="17" width="122.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +1732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -783,7 +1782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -827,7 +1826,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
@@ -871,7 +1870,7 @@
       <c r="N4" s="19"/>
       <c r="O4" s="20"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -918,7 +1917,7 @@
         <v>0.51826086956521744</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -962,7 +1961,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -1006,7 +2005,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +2052,7 @@
         <v>0.48324022346368717</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +2096,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
@@ -1141,7 +2140,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1188,7 +2187,7 @@
         <v>0.50485436893203883</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1232,7 +2231,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
@@ -1276,7 +2275,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1324,7 +2323,7 @@
         <v>0.4894894894894895</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1368,7 +2367,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
@@ -1412,7 +2411,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1460,7 +2459,7 @@
         <v>0.55633802816901412</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -1504,7 +2503,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +2547,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="20"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1596,7 +2595,7 @@
         <v>0.4573643410852713</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +2639,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>17</v>
       </c>
@@ -1684,7 +2683,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -1731,7 +2730,7 @@
         <v>0.47191011235955055</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +2774,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>17</v>
       </c>
@@ -1819,7 +2818,7 @@
       <c r="N25" s="19"/>
       <c r="O25" s="20"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -1867,7 +2866,7 @@
         <v>0.51031894934333955</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +2911,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>17</v>
       </c>
@@ -1957,7 +2956,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +3005,7 @@
         <v>0.51258278145695368</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>17</v>
       </c>
@@ -2050,7 +3049,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>17</v>
       </c>
@@ -2095,7 +3094,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -2143,7 +3142,7 @@
         <v>0.49791666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>17</v>
       </c>
@@ -2188,7 +3187,7 @@
       <c r="N33" s="13"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>17</v>
       </c>
@@ -2233,7 +3232,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
@@ -2281,7 +3280,7 @@
         <v>0.47280334728033474</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>17</v>
       </c>
@@ -2325,7 +3324,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>17</v>
       </c>
@@ -2374,7 +3373,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +3421,7 @@
         <v>0.61702127659574468</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>17</v>
       </c>
@@ -2466,7 +3465,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>17</v>
       </c>
@@ -2510,7 +3509,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="20"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
@@ -2558,7 +3557,7 @@
         <v>0.69117647058823528</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>17</v>
       </c>
@@ -2602,7 +3601,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>17</v>
       </c>
@@ -2646,7 +3645,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="20"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>17</v>
       </c>
@@ -2694,7 +3693,7 @@
         <v>0.74468085106382975</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>17</v>
       </c>
@@ -2738,7 +3737,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>17</v>
       </c>
@@ -2782,7 +3781,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="20"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>17</v>
       </c>
@@ -2830,7 +3829,7 @@
         <v>0.67741935483870963</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>17</v>
       </c>
@@ -2874,7 +3873,7 @@
       <c r="N48" s="13"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +3914,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="20"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
@@ -2963,7 +3962,7 @@
         <v>0.66386554621848737</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>17</v>
       </c>
@@ -3007,7 +4006,7 @@
       <c r="N51" s="13"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>17</v>
       </c>
@@ -3051,7 +4050,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="20"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>17</v>
       </c>
@@ -3099,7 +4098,7 @@
         <v>0.67484662576687116</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>17</v>
       </c>
@@ -3143,7 +4142,7 @@
       <c r="N54" s="13"/>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>17</v>
       </c>
@@ -3187,7 +4186,7 @@
       <c r="N55" s="19"/>
       <c r="O55" s="20"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>17</v>
       </c>
@@ -3234,7 +4233,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>17</v>
       </c>
@@ -3278,7 +4277,7 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>17</v>
       </c>
@@ -3322,7 +4321,7 @@
       <c r="N58" s="19"/>
       <c r="O58" s="20"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
@@ -3370,7 +4369,7 @@
         <v>0.71165644171779141</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>17</v>
       </c>
@@ -3414,7 +4413,7 @@
       <c r="N60" s="13"/>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>17</v>
       </c>
@@ -3458,7 +4457,7 @@
       <c r="N61" s="19"/>
       <c r="O61" s="20"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>17</v>
       </c>
@@ -3506,7 +4505,7 @@
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>17</v>
       </c>
@@ -3550,7 +4549,7 @@
       <c r="N63" s="13"/>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>17</v>
       </c>
@@ -3594,7 +4593,7 @@
       <c r="N64" s="19"/>
       <c r="O64" s="20"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>17</v>
       </c>
@@ -3642,7 +4641,7 @@
         <v>0.67326732673267331</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>17</v>
       </c>
@@ -3674,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K158" si="8">SUM(H66:J66)</f>
+        <f t="shared" ref="K66:K103" si="8">SUM(H66:J66)</f>
         <v>68</v>
       </c>
       <c r="L66" s="11">
@@ -3686,7 +4685,7 @@
       <c r="N66" s="13"/>
       <c r="O66" s="14"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>17</v>
       </c>
@@ -3730,7 +4729,7 @@
       <c r="N67" s="19"/>
       <c r="O67" s="20"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>17</v>
       </c>
@@ -3778,7 +4777,7 @@
         <v>0.60396039603960394</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>17</v>
       </c>
@@ -3822,7 +4821,7 @@
       <c r="N69" s="13"/>
       <c r="O69" s="14"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>17</v>
       </c>
@@ -3866,7 +4865,7 @@
       <c r="N70" s="19"/>
       <c r="O70" s="20"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>17</v>
       </c>
@@ -3916,7 +4915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>17</v>
       </c>
@@ -3960,7 +4959,7 @@
       <c r="N72" s="13"/>
       <c r="O72" s="14"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>17</v>
       </c>
@@ -4004,7 +5003,7 @@
       <c r="N73" s="19"/>
       <c r="O73" s="20"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>24</v>
       </c>
@@ -4054,7 +5053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>24</v>
       </c>
@@ -4098,7 +5097,7 @@
       <c r="N75" s="13"/>
       <c r="O75" s="14"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>24</v>
       </c>
@@ -4142,7 +5141,7 @@
       <c r="N76" s="19"/>
       <c r="O76" s="20"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>24</v>
       </c>
@@ -4189,7 +5188,7 @@
         <v>0.52338530066815148</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>24</v>
       </c>
@@ -4233,7 +5232,7 @@
       <c r="N78" s="13"/>
       <c r="O78" s="14"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>24</v>
       </c>
@@ -4277,7 +5276,7 @@
       <c r="N79" s="19"/>
       <c r="O79" s="20"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
@@ -4324,7 +5323,7 @@
         <v>0.57009345794392519</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>24</v>
       </c>
@@ -4368,7 +5367,7 @@
       <c r="N81" s="13"/>
       <c r="O81" s="14"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>24</v>
       </c>
@@ -4412,7 +5411,7 @@
       <c r="N82" s="19"/>
       <c r="O82" s="20"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>24</v>
       </c>
@@ -4459,7 +5458,7 @@
         <v>0.60526315789473684</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>24</v>
       </c>
@@ -4503,7 +5502,7 @@
       <c r="N84" s="13"/>
       <c r="O84" s="14"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>24</v>
       </c>
@@ -4547,7 +5546,7 @@
       <c r="N85" s="19"/>
       <c r="O85" s="20"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>24</v>
       </c>
@@ -4594,7 +5593,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>24</v>
       </c>
@@ -4638,7 +5637,7 @@
       <c r="N87" s="13"/>
       <c r="O87" s="14"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>24</v>
       </c>
@@ -4682,7 +5681,7 @@
       <c r="N88" s="19"/>
       <c r="O88" s="20"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>24</v>
       </c>
@@ -4729,7 +5728,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>24</v>
       </c>
@@ -4773,7 +5772,7 @@
       <c r="N90" s="13"/>
       <c r="O90" s="14"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>24</v>
       </c>
@@ -4817,7 +5816,7 @@
       <c r="N91" s="19"/>
       <c r="O91" s="20"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>24</v>
       </c>
@@ -4864,7 +5863,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>24</v>
       </c>
@@ -4908,7 +5907,7 @@
       <c r="N93" s="13"/>
       <c r="O93" s="14"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>24</v>
       </c>
@@ -4952,7 +5951,7 @@
       <c r="N94" s="19"/>
       <c r="O94" s="20"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>24</v>
       </c>
@@ -4999,7 +5998,7 @@
         <v>0.74137931034482762</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>24</v>
       </c>
@@ -5043,7 +6042,7 @@
       <c r="N96" s="13"/>
       <c r="O96" s="14"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>24</v>
       </c>
@@ -5086,7 +6085,7 @@
       <c r="N97" s="19"/>
       <c r="O97" s="20"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>24</v>
       </c>
@@ -5133,7 +6132,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>24</v>
       </c>
@@ -5177,7 +6176,7 @@
       <c r="N99" s="13"/>
       <c r="O99" s="14"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>24</v>
       </c>
@@ -5221,7 +6220,7 @@
       <c r="N100" s="19"/>
       <c r="O100" s="20"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -5268,7 +6267,7 @@
         <v>0.59552238805970148</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -5307,7 +6306,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -5346,7 +6345,7 @@
         <v>-9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>17</v>
       </c>
@@ -5393,7 +6392,7 @@
         <v>0.48596491228070177</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>17</v>
       </c>
@@ -5437,7 +6436,7 @@
       <c r="N106" s="13"/>
       <c r="O106" s="14"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>17</v>
       </c>
@@ -5481,7 +6480,7 @@
       <c r="N107" s="19"/>
       <c r="O107" s="20"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>17</v>
       </c>
@@ -5528,7 +6527,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>17</v>
       </c>
@@ -5572,7 +6571,7 @@
       <c r="N109" s="13"/>
       <c r="O109" s="14"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>17</v>
       </c>
@@ -5616,7 +6615,7 @@
       <c r="N110" s="19"/>
       <c r="O110" s="20"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>17</v>
       </c>
@@ -5664,7 +6663,7 @@
         <v>2.103448275862069</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>17</v>
       </c>
@@ -5708,7 +6707,7 @@
       <c r="N112" s="13"/>
       <c r="O112" s="14"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>17</v>
       </c>
@@ -5752,7 +6751,7 @@
       <c r="N113" s="19"/>
       <c r="O113" s="20"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>17</v>
       </c>
@@ -5799,7 +6798,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>17</v>
       </c>
@@ -5843,7 +6842,7 @@
       <c r="N115" s="13"/>
       <c r="O115" s="14"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>17</v>
       </c>
@@ -5887,7 +6886,7 @@
       <c r="N116" s="19"/>
       <c r="O116" s="20"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>17</v>
       </c>
@@ -5937,7 +6936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>17</v>
       </c>
@@ -5981,7 +6980,7 @@
       <c r="N118" s="13"/>
       <c r="O118" s="14"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>17</v>
       </c>
@@ -6061,4 +7060,1689 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DDF12B-BF75-4B96-8514-449138EF37C1}">
+  <dimension ref="A1:D118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="24">
+        <v>-0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="24">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="24">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="24">
+        <v>-0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="24">
+        <v>-0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="24">
+        <v>-0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="24">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="24">
+        <v>-0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="24">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="24">
+        <v>-0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="24">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="24">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="24">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="24">
+        <v>-0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" s="24">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="24">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="24">
+        <v>-0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" s="24">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="24">
+        <v>-0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="24">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="24">
+        <v>-9.4E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="24">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>294</v>
+      </c>
+      <c r="D53" s="24">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="24">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" s="24">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" s="24">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" s="24">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60" s="24">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="24">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="24">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" s="24">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" s="24">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" s="24">
+        <v>-0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="s">
+        <v>307</v>
+      </c>
+      <c r="D67" s="24">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" s="24">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>309</v>
+      </c>
+      <c r="D69" s="24">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>310</v>
+      </c>
+      <c r="D70" s="24">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" t="s">
+        <v>311</v>
+      </c>
+      <c r="D71" s="24">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" s="24">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D73" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" t="s">
+        <v>314</v>
+      </c>
+      <c r="D74" s="24">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" t="s">
+        <v>316</v>
+      </c>
+      <c r="D76" s="24">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" s="24">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" s="24">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="24">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" t="s">
+        <v>319</v>
+      </c>
+      <c r="D80" s="24">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>320</v>
+      </c>
+      <c r="D81" s="24">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="24">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" t="s">
+        <v>322</v>
+      </c>
+      <c r="D83" s="24">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" t="s">
+        <v>323</v>
+      </c>
+      <c r="D84" s="24">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" t="s">
+        <v>324</v>
+      </c>
+      <c r="D85" s="24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="24">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="24">
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="s">
+        <v>327</v>
+      </c>
+      <c r="D88" s="24">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>328</v>
+      </c>
+      <c r="D89" s="24">
+        <v>-0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="24">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" t="s">
+        <v>330</v>
+      </c>
+      <c r="D91" s="24">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>202</v>
+      </c>
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" t="s">
+        <v>331</v>
+      </c>
+      <c r="D92" s="24">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" t="s">
+        <v>332</v>
+      </c>
+      <c r="D93" s="24">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>206</v>
+      </c>
+      <c r="B94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" s="24">
+        <v>-0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>333</v>
+      </c>
+      <c r="D95" s="24">
+        <v>-0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" t="s">
+        <v>334</v>
+      </c>
+      <c r="D96" s="24">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" t="s">
+        <v>335</v>
+      </c>
+      <c r="D97" s="24">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="24">
+        <v>-0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="24">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" s="24">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" s="24">
+        <v>-0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
+        <v>338</v>
+      </c>
+      <c r="D102" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" t="s">
+        <v>339</v>
+      </c>
+      <c r="D103" s="24">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="24">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" t="s">
+        <v>290</v>
+      </c>
+      <c r="D105" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" t="s">
+        <v>297</v>
+      </c>
+      <c r="D106" s="24">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" t="s">
+        <v>340</v>
+      </c>
+      <c r="D107" s="24">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" t="s">
+        <v>341</v>
+      </c>
+      <c r="D108" s="24">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" t="s">
+        <v>342</v>
+      </c>
+      <c r="D109" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" t="s">
+        <v>343</v>
+      </c>
+      <c r="D110" s="24">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>179</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" t="s">
+        <v>258</v>
+      </c>
+      <c r="D111" s="24">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" t="s">
+        <v>344</v>
+      </c>
+      <c r="D112" s="24">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" t="s">
+        <v>258</v>
+      </c>
+      <c r="D113" s="24">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" t="s">
+        <v>345</v>
+      </c>
+      <c r="D114" s="24">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>346</v>
+      </c>
+      <c r="B115" t="s">
+        <v>347</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D115" s="24">
+        <v>-0.214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>350</v>
+      </c>
+      <c r="B116" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" t="s">
+        <v>352</v>
+      </c>
+      <c r="D116" s="24">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>353</v>
+      </c>
+      <c r="B117" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" t="s">
+        <v>292</v>
+      </c>
+      <c r="D117" s="24">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>355</v>
+      </c>
+      <c r="B118" t="s">
+        <v>356</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D118" s="24">
+        <v>0.193</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D118">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cfb_weather_backtest.xlsx
+++ b/cfb_weather_backtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckin\Dropbox\MS Docs\Work\Sublime_Misc\football_weather_repo\football_weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB5E902-1526-4322-80CD-7345A09F789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0FAF65-03E3-44A3-86F0-6D33687AC655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="4410" windowWidth="18945" windowHeight="15345" activeTab="1" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtesting" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="368">
   <si>
     <t>Sport</t>
   </si>
@@ -1141,6 +1141,36 @@
   </si>
   <si>
     <t>5-3-0</t>
+  </si>
+  <si>
+    <t>Appalachian State</t>
+  </si>
+  <si>
+    <t>Kidd Brewer Stadium</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>Kennesaw State</t>
+  </si>
+  <si>
+    <t>Fifth Third Stadium</t>
+  </si>
+  <si>
+    <t>0-0-0</t>
+  </si>
+  <si>
+    <t>Jacksonville State</t>
+  </si>
+  <si>
+    <t>AmFirst Stadium</t>
+  </si>
+  <si>
+    <t>Aloha Stadium</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
   </si>
 </sst>
 </file>
@@ -7064,10 +7094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DDF12B-BF75-4B96-8514-449138EF37C1}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8730,8 +8760,64 @@
         <v>0.193</v>
       </c>
     </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" t="s">
+        <v>359</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D119" s="24">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>361</v>
+      </c>
+      <c r="B120" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D120" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>364</v>
+      </c>
+      <c r="B121" t="s">
+        <v>365</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D121" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>367</v>
+      </c>
+      <c r="B122" t="s">
+        <v>366</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D122" s="24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D118">
+  <conditionalFormatting sqref="D2:D122">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/cfb_weather_backtest.xlsx
+++ b/cfb_weather_backtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckin\Dropbox\MS Docs\Work\Sublime_Misc\football_weather_repo\football_weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0FAF65-03E3-44A3-86F0-6D33687AC655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE24DF1-FBE2-46B4-A91B-39280DBF0DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="386">
   <si>
     <t>Sport</t>
   </si>
@@ -1171,6 +1171,60 @@
   </si>
   <si>
     <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Bank of America Stadium</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Memorial Stadium (Clemson)</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Rice Stadium</t>
+  </si>
+  <si>
+    <t>11-13-0</t>
+  </si>
+  <si>
+    <t>Sam Houston State</t>
+  </si>
+  <si>
+    <t>Elliot Bowers Stadium</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Mackay Stadium</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Michie Stadium</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>Hard Rock Stadium</t>
+  </si>
+  <si>
+    <t>1-4-2</t>
   </si>
 </sst>
 </file>
@@ -7094,17 +7148,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DDF12B-BF75-4B96-8514-449138EF37C1}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8816,8 +8870,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>368</v>
+      </c>
+      <c r="B123" t="s">
+        <v>369</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D123" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>370</v>
+      </c>
+      <c r="B124" t="s">
+        <v>371</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D124" s="24">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>373</v>
+      </c>
+      <c r="B125" t="s">
+        <v>374</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125" s="24">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>376</v>
+      </c>
+      <c r="B126" t="s">
+        <v>377</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="24">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>378</v>
+      </c>
+      <c r="B127" t="s">
+        <v>379</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D127" s="24">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>381</v>
+      </c>
+      <c r="B128" t="s">
+        <v>382</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="24">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>383</v>
+      </c>
+      <c r="B129" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" s="24">
+        <v>-0.442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D130" s="24">
+        <v>0.16899999999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D122">
+  <conditionalFormatting sqref="D2:D130">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/cfb_weather_backtest.xlsx
+++ b/cfb_weather_backtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckin\Dropbox\MS Docs\Work\Sublime_Misc\football_weather_repo\football_weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE24DF1-FBE2-46B4-A91B-39280DBF0DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D6BE69-EF86-4E62-B1D7-72FF12711342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
+    <workbookView xWindow="45300" yWindow="0" windowWidth="31605" windowHeight="20985" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtesting" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={DB6C032D-A0E3-487F-806E-40033A1DF9E2}</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5171B53E-4775-438F-9331-E87481AC1435}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{5171B53E-4775-438F-9331-E87481AC1435}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="386">
   <si>
     <t>Sport</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Temp Below</t>
   </si>
   <si>
-    <t>Opening spread less than</t>
-  </si>
-  <si>
     <t>CLV from Open</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>&gt;10 and &lt;20</t>
-  </si>
-  <si>
     <t>Seems like market overrates the impact that cold will have on the total. Games between -5 and 32 degrees only 47% win rate to under</t>
   </si>
   <si>
@@ -1225,6 +1219,12 @@
   </si>
   <si>
     <t>1-4-2</t>
+  </si>
+  <si>
+    <t>Spread_l</t>
+  </si>
+  <si>
+    <t>Spread_h</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1727,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G1" dT="2024-10-17T16:02:53.43" personId="{77A3C7BD-C3B1-4D05-BD09-F60106B1BBCF}" id="{5171B53E-4775-438F-9331-E87481AC1435}">
+  <threadedComment ref="H1" dT="2024-10-17T16:02:53.43" personId="{77A3C7BD-C3B1-4D05-BD09-F60106B1BBCF}" id="{5171B53E-4775-438F-9331-E87481AC1435}">
     <text>Negative includes 0</text>
   </threadedComment>
   <threadedComment ref="A103" dT="2024-10-10T14:32:48.36" personId="{77A3C7BD-C3B1-4D05-BD09-F60106B1BBCF}" id="{DB6C032D-A0E3-487F-806E-40033A1DF9E2}">
@@ -1738,13 +1738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F9FFD-20B7-4014-BC22-21054032984A}">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,16 +1754,17 @@
     <col min="3" max="3" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="2"/>
-    <col min="14" max="14" width="8.7109375" style="3"/>
-    <col min="15" max="15" width="8.7109375" style="2"/>
-    <col min="16" max="16" width="87.42578125" customWidth="1"/>
-    <col min="17" max="17" width="122.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="2"/>
+    <col min="15" max="15" width="8.7109375" style="3"/>
+    <col min="16" max="16" width="8.7109375" style="2"/>
+    <col min="17" max="17" width="87.42578125" customWidth="1"/>
+    <col min="18" max="18" width="122.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1780,45 +1781,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>8</v>
@@ -1832,43 +1836,44 @@
       <c r="E2" s="6">
         <v>100</v>
       </c>
-      <c r="F2" s="5">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6">
         <v>420</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>403</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>12</v>
       </c>
-      <c r="K2" s="6">
-        <f t="shared" ref="K2:K65" si="0">SUM(H2:J2)</f>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:L65" si="0">SUM(I2:K2)</f>
         <v>835</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>-1.32</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="N2" s="8">
+      <c r="O2" s="8">
         <v>417</v>
       </c>
-      <c r="O2" s="9">
-        <f>N2/K2</f>
+      <c r="P2" s="9">
+        <f>O2/L2</f>
         <v>0.4994011976047904</v>
       </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11">
         <v>8</v>
@@ -1882,37 +1887,37 @@
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="11">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="11">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11">
         <v>215</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="11">
         <v>197</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="11">
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f t="shared" si="0"/>
         <v>417</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.78</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="16">
         <v>8</v>
@@ -1926,37 +1931,38 @@
       <c r="E4" s="17">
         <v>100</v>
       </c>
-      <c r="F4" s="16">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="F4" s="17"/>
+      <c r="G4" s="16">
+        <v>20</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="17">
         <v>205</v>
       </c>
-      <c r="I4" s="17">
+      <c r="J4" s="17">
         <v>206</v>
       </c>
-      <c r="J4" s="17">
+      <c r="K4" s="17">
         <v>7</v>
       </c>
-      <c r="K4" s="17">
+      <c r="L4" s="17">
         <f t="shared" si="0"/>
         <v>418</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="17">
         <v>-1.92</v>
       </c>
-      <c r="M4" s="18">
+      <c r="N4" s="18">
         <v>-4.7E-2</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
         <v>8</v>
@@ -1970,40 +1976,41 @@
       <c r="E5" s="6">
         <v>75</v>
       </c>
-      <c r="F5" s="5">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
         <v>631</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>505</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>14</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>0.06</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>596</v>
       </c>
-      <c r="O5" s="9">
-        <f>N5/K5</f>
+      <c r="P5" s="9">
+        <f>O5/L5</f>
         <v>0.51826086956521744</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11">
         <v>8</v>
@@ -2017,37 +2024,37 @@
       <c r="E6">
         <v>75</v>
       </c>
-      <c r="F6" s="11">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="11">
+        <v>20</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11">
         <v>320</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>270</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K6" s="11">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.78</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="16">
         <v>8</v>
@@ -2061,37 +2068,38 @@
       <c r="E7" s="17">
         <v>75</v>
       </c>
-      <c r="F7" s="16">
-        <v>20</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="F7" s="17"/>
+      <c r="G7" s="16">
+        <v>20</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="17">
         <v>311</v>
       </c>
-      <c r="I7" s="17">
+      <c r="J7" s="17">
         <v>235</v>
       </c>
-      <c r="J7" s="17">
+      <c r="K7" s="17">
         <v>8</v>
       </c>
-      <c r="K7" s="17">
+      <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>554</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>1.08</v>
       </c>
-      <c r="M7" s="18">
+      <c r="N7" s="18">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
         <v>8</v>
@@ -2105,40 +2113,41 @@
       <c r="E8" s="6">
         <v>60</v>
       </c>
-      <c r="F8" s="5">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6">
         <v>399</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>309</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>8</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <f t="shared" si="0"/>
         <v>716</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>346</v>
       </c>
-      <c r="O8" s="9">
-        <f>N8/K8</f>
+      <c r="P8" s="9">
+        <f>O8/L8</f>
         <v>0.48324022346368717</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="11">
         <v>8</v>
@@ -2152,37 +2161,37 @@
       <c r="E9">
         <v>60</v>
       </c>
-      <c r="F9" s="11">
-        <v>20</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="11">
+        <v>20</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="11">
         <v>200</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="11">
         <v>142</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="11">
         <v>4</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.17</v>
       </c>
-      <c r="M9" s="12">
+      <c r="N9" s="12">
         <v>0.115</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="16">
         <v>8</v>
@@ -2196,37 +2205,38 @@
       <c r="E10" s="17">
         <v>60</v>
       </c>
-      <c r="F10" s="16">
-        <v>20</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="F10" s="17"/>
+      <c r="G10" s="16">
+        <v>20</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="17">
         <v>199</v>
       </c>
-      <c r="I10" s="17">
+      <c r="J10" s="17">
         <v>167</v>
       </c>
-      <c r="J10" s="17">
+      <c r="K10" s="17">
         <v>4</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="L10" s="17">
+      <c r="M10" s="17">
         <v>-0.02</v>
       </c>
-      <c r="M10" s="18">
+      <c r="N10" s="18">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5">
         <v>8</v>
@@ -2235,45 +2245,46 @@
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6">
         <v>50</v>
       </c>
-      <c r="F11" s="5">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6">
+      <c r="F11" s="6"/>
+      <c r="G11" s="5">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6">
         <v>388</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>327</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>6</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <f t="shared" si="0"/>
         <v>721</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>0.59</v>
       </c>
-      <c r="M11" s="7">
+      <c r="N11" s="7">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>364</v>
       </c>
-      <c r="O11" s="9">
-        <f>N11/K11</f>
+      <c r="P11" s="9">
+        <f>O11/L11</f>
         <v>0.50485436893203883</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="11">
         <v>8</v>
@@ -2282,42 +2293,42 @@
         <v>15</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
-      <c r="F12" s="11">
-        <v>20</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G12" s="11">
+        <v>20</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
         <v>204</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="11">
         <v>158</v>
       </c>
-      <c r="J12" s="11">
+      <c r="K12" s="11">
         <v>2</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1.64</v>
       </c>
-      <c r="M12" s="12">
+      <c r="N12" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="16">
         <v>8</v>
@@ -2326,42 +2337,43 @@
         <v>15</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17">
         <v>50</v>
       </c>
-      <c r="F13" s="16">
-        <v>20</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="F13" s="17"/>
+      <c r="G13" s="16">
+        <v>20</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="17">
         <v>184</v>
       </c>
-      <c r="I13" s="17">
+      <c r="J13" s="17">
         <v>169</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="17">
         <v>4</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="17">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>-0.48</v>
       </c>
-      <c r="M13" s="18">
+      <c r="N13" s="18">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5">
         <v>8</v>
@@ -2375,41 +2387,44 @@
       <c r="E14" s="6">
         <v>100</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6">
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <v>20</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6">
         <v>165</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>162</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>6</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>-2.08</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="N14" s="8">
-        <f>SUM(H15:J15)</f>
+      <c r="O14" s="8">
+        <f>SUM(I15:K15)</f>
         <v>163</v>
       </c>
-      <c r="O14" s="9">
-        <f>N14/K14</f>
+      <c r="P14" s="9">
+        <f>O14/L14</f>
         <v>0.4894894894894895</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="11">
         <v>8</v>
@@ -2423,37 +2438,40 @@
       <c r="E15">
         <v>100</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11">
+        <v>20</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11">
         <v>74</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>86</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>3</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>-2.94</v>
       </c>
-      <c r="M15" s="12">
+      <c r="N15" s="12">
         <v>-0.115</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
@@ -2467,37 +2485,40 @@
       <c r="E16" s="17">
         <v>100</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="F16" s="17">
+        <v>10</v>
+      </c>
+      <c r="G16" s="16">
+        <v>20</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="17">
         <v>91</v>
       </c>
-      <c r="I16" s="17">
+      <c r="J16" s="17">
         <v>76</v>
       </c>
-      <c r="J16" s="17">
+      <c r="K16" s="17">
         <v>3</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="17">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="L16" s="17">
+      <c r="M16" s="17">
         <v>-1.25</v>
       </c>
-      <c r="M16" s="18">
+      <c r="N16" s="18">
         <v>0.04</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>8</v>
@@ -2511,41 +2532,44 @@
       <c r="E17" s="6">
         <v>75</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6">
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <v>20</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6">
         <v>230</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>190</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <f t="shared" si="0"/>
         <v>426</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M17" s="7">
+      <c r="N17" s="7">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N17" s="8">
-        <f>SUM(H18:J18)</f>
+      <c r="O17" s="8">
+        <f>SUM(I18:K18)</f>
         <v>237</v>
       </c>
-      <c r="O17" s="9">
-        <f>N17/K17</f>
+      <c r="P17" s="9">
+        <f>O17/L17</f>
         <v>0.55633802816901412</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11">
         <v>8</v>
@@ -2559,37 +2583,40 @@
       <c r="E18">
         <v>75</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11">
+        <v>20</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11">
         <v>119</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>113</v>
       </c>
-      <c r="J18" s="11">
+      <c r="K18" s="11">
         <v>5</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="L18" s="11">
+      <c r="M18" s="11">
         <v>-0.53</v>
       </c>
-      <c r="M18" s="12">
+      <c r="N18" s="12">
         <v>-0.02</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="13"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="16">
         <v>8</v>
@@ -2603,37 +2630,40 @@
       <c r="E19" s="17">
         <v>75</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="17">
+      <c r="F19" s="17">
+        <v>10</v>
+      </c>
+      <c r="G19" s="16">
+        <v>20</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="17">
         <v>111</v>
       </c>
-      <c r="I19" s="17">
+      <c r="J19" s="17">
         <v>77</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="17">
         <v>3</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M19" s="17">
         <v>1.89</v>
       </c>
-      <c r="M19" s="18">
+      <c r="N19" s="18">
         <v>0.125</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5">
         <v>8</v>
@@ -2647,41 +2677,44 @@
       <c r="E20" s="6">
         <v>60</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6">
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>20</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6">
         <v>148</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>106</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>4</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M20" s="7">
+      <c r="N20" s="7">
         <v>0.111</v>
       </c>
-      <c r="N20" s="8">
-        <f>SUM(H21:J21)</f>
+      <c r="O20" s="8">
+        <f>SUM(I21:K21)</f>
         <v>118</v>
       </c>
-      <c r="O20" s="9">
-        <f>N20/K20</f>
+      <c r="P20" s="9">
+        <f>O20/L20</f>
         <v>0.4573643410852713</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="11">
         <v>8</v>
@@ -2695,37 +2728,40 @@
       <c r="E21">
         <v>60</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11">
+        <v>20</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
         <v>75</v>
       </c>
-      <c r="I21" s="11">
+      <c r="J21" s="11">
         <v>42</v>
       </c>
-      <c r="J21" s="11">
+      <c r="K21" s="11">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="L21" s="11">
+      <c r="M21" s="11">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M21" s="12">
+      <c r="N21" s="12">
         <v>0.222</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="16">
         <v>8</v>
@@ -2739,37 +2775,40 @@
       <c r="E22" s="17">
         <v>60</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="17">
+      <c r="F22" s="17">
+        <v>10</v>
+      </c>
+      <c r="G22" s="16">
+        <v>20</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="17">
         <v>76</v>
       </c>
-      <c r="I22" s="17">
+      <c r="J22" s="17">
         <v>64</v>
       </c>
-      <c r="J22" s="17">
+      <c r="K22" s="17">
         <v>3</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="L22" s="17">
+      <c r="M22" s="17">
         <v>0.04</v>
       </c>
-      <c r="M22" s="18">
+      <c r="N22" s="18">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5">
         <v>8</v>
@@ -2778,45 +2817,48 @@
         <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="6">
         <v>50</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6">
+      <c r="F23" s="6">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5">
+        <v>20</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6">
         <v>144</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>121</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>2</v>
       </c>
-      <c r="K23" s="6">
-        <f>SUM(H23:J23)</f>
+      <c r="L23" s="6">
+        <f>SUM(I23:K23)</f>
         <v>267</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>0.46</v>
       </c>
-      <c r="M23" s="7">
+      <c r="N23" s="7">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="N23" s="8">
+      <c r="O23" s="8">
         <v>126</v>
       </c>
-      <c r="O23" s="9">
-        <f>N23/K23</f>
+      <c r="P23" s="9">
+        <f>O23/L23</f>
         <v>0.47191011235955055</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="11">
         <v>8</v>
@@ -2825,42 +2867,45 @@
         <v>15</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>50</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24">
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11">
+        <v>20</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
         <v>79</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>46</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="K24">
-        <f>SUM(H24:J24)</f>
+      <c r="L24">
+        <f>SUM(I24:K24)</f>
         <v>126</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2.79</v>
       </c>
-      <c r="M24" s="12">
+      <c r="N24" s="12">
         <v>0.20499999999999999</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="13"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="16">
         <v>8</v>
@@ -2869,42 +2914,45 @@
         <v>15</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="17">
         <v>50</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="17">
+      <c r="F25" s="17">
+        <v>10</v>
+      </c>
+      <c r="G25" s="16">
+        <v>20</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="17">
         <v>65</v>
       </c>
-      <c r="I25" s="17">
+      <c r="J25" s="17">
         <v>75</v>
       </c>
-      <c r="J25" s="17">
+      <c r="K25" s="17">
         <v>1</v>
       </c>
-      <c r="K25" s="17">
-        <f t="shared" ref="K25:K48" si="1">SUM(H25:J25)</f>
+      <c r="L25" s="17">
+        <f t="shared" ref="L25:L48" si="1">SUM(I25:K25)</f>
         <v>141</v>
       </c>
-      <c r="L25" s="17">
+      <c r="M25" s="17">
         <v>-1.62</v>
       </c>
-      <c r="M25" s="18">
+      <c r="N25" s="18">
         <v>-0.113</v>
       </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="19"/>
+      <c r="P25" s="20"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="5">
         <v>8</v>
@@ -2918,41 +2966,42 @@
       <c r="E26" s="6">
         <v>100</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6"/>
+      <c r="G26" s="5">
         <v>10</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6">
+      <c r="H26" s="5"/>
+      <c r="I26" s="6">
         <v>264</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>263</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>6</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <f t="shared" si="0"/>
         <v>533</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <v>-1.27</v>
       </c>
-      <c r="M26" s="7">
+      <c r="N26" s="7">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="N26" s="8">
-        <f>SUM(H27:J27)</f>
+      <c r="O26" s="8">
+        <f>SUM(I27:K27)</f>
         <v>272</v>
       </c>
-      <c r="O26" s="9">
-        <f>N26/K26</f>
+      <c r="P26" s="9">
+        <f>O26/L26</f>
         <v>0.51031894934333955</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="11">
         <v>8</v>
@@ -2966,38 +3015,38 @@
       <c r="E27">
         <v>100</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>10</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="H27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="11">
         <v>147</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <v>123</v>
       </c>
-      <c r="J27" s="11">
-        <f t="shared" ref="J27:J28" si="2">J3-J15</f>
+      <c r="K27" s="11">
+        <f t="shared" ref="K27:K28" si="2">K3-K15</f>
         <v>2</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M27" s="12">
+      <c r="N27" s="12">
         <v>3.9E-2</v>
       </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="13"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="16">
         <v>8</v>
@@ -3011,38 +3060,39 @@
       <c r="E28" s="17">
         <v>100</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="17"/>
+      <c r="G28" s="16">
         <v>10</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="17">
         <v>117</v>
       </c>
-      <c r="I28" s="17">
+      <c r="J28" s="17">
         <v>140</v>
       </c>
-      <c r="J28" s="17">
+      <c r="K28" s="17">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="L28" s="17">
+      <c r="M28" s="17">
         <v>-2.89</v>
       </c>
-      <c r="M28" s="18">
+      <c r="N28" s="18">
         <v>-0.129</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="5">
         <v>8</v>
@@ -3056,42 +3106,43 @@
       <c r="E29" s="6">
         <v>75</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="6"/>
+      <c r="G29" s="5">
         <v>10</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6">
+      <c r="H29" s="5"/>
+      <c r="I29" s="6">
         <v>419</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <v>328</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <v>8</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <f t="shared" si="0"/>
         <v>755</v>
       </c>
-      <c r="L29" s="6">
-        <f t="shared" ref="L29" si="3">L5-L17</f>
+      <c r="M29" s="6">
+        <f t="shared" ref="M29" si="3">M5-M17</f>
         <v>0</v>
       </c>
-      <c r="M29" s="7">
+      <c r="N29" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N29" s="8">
-        <f>SUM(H30:J30)</f>
+      <c r="O29" s="8">
+        <f>SUM(I30:K30)</f>
         <v>387</v>
       </c>
-      <c r="O29" s="9">
-        <f>N29/K29</f>
+      <c r="P29" s="9">
+        <f>O29/L29</f>
         <v>0.51258278145695368</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="11">
         <v>8</v>
@@ -3105,37 +3156,37 @@
       <c r="E30">
         <v>75</v>
       </c>
-      <c r="F30" s="11">
+      <c r="G30" s="11">
         <v>10</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="H30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="11">
         <v>217</v>
       </c>
-      <c r="I30" s="11">
+      <c r="J30" s="11">
         <v>167</v>
       </c>
-      <c r="J30" s="11">
+      <c r="K30" s="11">
         <v>3</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f t="shared" si="0"/>
         <v>387</v>
       </c>
-      <c r="L30" s="11">
+      <c r="M30" s="11">
         <v>0.5</v>
       </c>
-      <c r="M30" s="12">
+      <c r="N30" s="12">
         <v>7.8E-2</v>
       </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="16">
         <v>8</v>
@@ -3149,38 +3200,39 @@
       <c r="E31" s="17">
         <v>75</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="17"/>
+      <c r="G31" s="16">
         <v>10</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="17">
+      <c r="H31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="17">
         <v>202</v>
       </c>
-      <c r="I31" s="17">
+      <c r="J31" s="17">
         <v>161</v>
       </c>
-      <c r="J31" s="17">
-        <f t="shared" ref="J31" si="4">J7-J19</f>
+      <c r="K31" s="17">
+        <f t="shared" ref="K31" si="4">K7-K19</f>
         <v>5</v>
       </c>
-      <c r="K31" s="17">
+      <c r="L31" s="17">
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M31" s="17">
         <v>0.69</v>
       </c>
-      <c r="M31" s="18">
+      <c r="N31" s="18">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="5">
         <v>8</v>
@@ -3194,41 +3246,42 @@
       <c r="E32" s="6">
         <v>60</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="6"/>
+      <c r="G32" s="5">
         <v>10</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6">
+      <c r="H32" s="5"/>
+      <c r="I32" s="6">
         <v>265</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <v>211</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <v>4</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="6">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <v>0.2</v>
       </c>
-      <c r="M32" s="7">
+      <c r="N32" s="7">
         <v>6.2E-2</v>
       </c>
-      <c r="N32" s="8">
-        <f>SUM(H33:J33)</f>
+      <c r="O32" s="8">
+        <f>SUM(I33:K33)</f>
         <v>239</v>
       </c>
-      <c r="O32" s="9">
-        <f>N32/K32</f>
+      <c r="P32" s="9">
+        <f>O32/L32</f>
         <v>0.49791666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="11">
         <v>8</v>
@@ -3242,38 +3295,38 @@
       <c r="E33">
         <v>60</v>
       </c>
-      <c r="F33" s="11">
+      <c r="G33" s="11">
         <v>10</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="11">
+      <c r="H33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="11">
         <v>134</v>
       </c>
-      <c r="I33" s="11">
+      <c r="J33" s="11">
         <v>102</v>
       </c>
-      <c r="J33" s="11">
-        <f t="shared" ref="J33:J34" si="5">J9-J21</f>
+      <c r="K33" s="11">
+        <f t="shared" ref="K33:K34" si="5">K9-K21</f>
         <v>3</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
-      <c r="L33" s="11">
+      <c r="M33" s="11">
         <v>0.68</v>
       </c>
-      <c r="M33" s="12">
+      <c r="N33" s="12">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="13"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="16">
         <v>8</v>
@@ -3287,38 +3340,39 @@
       <c r="E34" s="17">
         <v>60</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="17"/>
+      <c r="G34" s="16">
         <v>10</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="17">
         <v>131</v>
       </c>
-      <c r="I34" s="17">
+      <c r="J34" s="17">
         <v>109</v>
       </c>
-      <c r="J34" s="17">
+      <c r="K34" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
-      <c r="L34" s="17">
+      <c r="M34" s="17">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="M34" s="18">
+      <c r="N34" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="5">
         <v>8</v>
@@ -3327,46 +3381,47 @@
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="6">
         <v>50</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="6"/>
+      <c r="G35" s="5">
         <v>10</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6">
+      <c r="H35" s="5"/>
+      <c r="I35" s="6">
         <v>261</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J35" s="6">
         <v>213</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <v>4</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <f t="shared" si="0"/>
         <v>478</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <v>0.93</v>
       </c>
-      <c r="M35" s="7">
+      <c r="N35" s="7">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N35" s="8">
-        <f>SUM(H36:J36)</f>
+      <c r="O35" s="8">
+        <f>SUM(I36:K36)</f>
         <v>226</v>
       </c>
-      <c r="O35" s="9">
-        <f>N35/K35</f>
+      <c r="P35" s="9">
+        <f>O35/L35</f>
         <v>0.47280334728033474</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="11">
         <v>8</v>
@@ -3375,42 +3430,42 @@
         <v>15</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>50</v>
       </c>
-      <c r="F36" s="11">
+      <c r="G36" s="11">
         <v>10</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36">
+      <c r="H36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36">
         <v>125</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>98</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>3</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0.46</v>
       </c>
-      <c r="M36" s="12">
+      <c r="N36" s="12">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="14"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="13"/>
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="16">
         <v>8</v>
@@ -3419,53 +3474,54 @@
         <v>15</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="17">
         <v>50</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="17"/>
+      <c r="G37" s="16">
         <v>10</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="17">
-        <f t="shared" ref="H37:M37" si="6">H13-H25</f>
+      <c r="H37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" ref="I37:N37" si="6">I13-I25</f>
         <v>119</v>
       </c>
-      <c r="I37" s="17">
+      <c r="J37" s="17">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
-      <c r="J37" s="17">
+      <c r="K37" s="17">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="K37" s="17">
+      <c r="L37" s="17">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="L37" s="17">
+      <c r="M37" s="17">
         <f t="shared" si="6"/>
         <v>1.1400000000000001</v>
       </c>
-      <c r="M37" s="18">
+      <c r="N37" s="18">
         <f t="shared" si="6"/>
         <v>0.108</v>
       </c>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="19"/>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="5">
         <v>15</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5">
         <v>75</v>
@@ -3473,47 +3529,50 @@
       <c r="E38" s="6">
         <v>100</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="6">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5">
+        <v>20</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6">
         <v>22</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6">
-        <v>22</v>
-      </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <v>25</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <v>0</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <v>-1.86</v>
       </c>
-      <c r="M38" s="7">
+      <c r="N38" s="7">
         <v>-0.106</v>
       </c>
-      <c r="N38" s="8">
-        <f>SUM(H39:J39)</f>
+      <c r="O38" s="8">
+        <f>SUM(I39:K39)</f>
         <v>29</v>
       </c>
-      <c r="O38" s="9">
-        <f>N38/K38</f>
+      <c r="P38" s="9">
+        <f>O38/L38</f>
         <v>0.61702127659574468</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="11">
         <v>15</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="11">
         <v>75</v>
@@ -3521,43 +3580,46 @@
       <c r="E39">
         <v>100</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="11">
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" s="11">
+        <v>20</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11">
         <v>14</v>
       </c>
-      <c r="I39" s="11">
-        <v>15</v>
-      </c>
       <c r="J39" s="11">
+        <v>15</v>
+      </c>
+      <c r="K39" s="11">
         <v>0</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="L39" s="11">
+      <c r="M39" s="11">
         <v>-1.86</v>
       </c>
-      <c r="M39" s="12">
+      <c r="N39" s="12">
         <v>-0.106</v>
       </c>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="13"/>
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="16">
         <v>15</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="16">
         <v>75</v>
@@ -3565,43 +3627,46 @@
       <c r="E40" s="17">
         <v>100</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="17">
+      <c r="F40" s="17">
+        <v>10</v>
+      </c>
+      <c r="G40" s="16">
+        <v>20</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="17">
         <v>8</v>
       </c>
-      <c r="I40" s="17">
+      <c r="J40" s="17">
         <v>10</v>
       </c>
-      <c r="J40" s="17">
+      <c r="K40" s="17">
         <v>0</v>
       </c>
-      <c r="K40" s="17">
+      <c r="L40" s="17">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L40" s="17">
+      <c r="M40" s="17">
         <v>-2.17</v>
       </c>
-      <c r="M40" s="18">
+      <c r="N40" s="18">
         <v>-0.152</v>
       </c>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="19"/>
+      <c r="P40" s="20"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="5">
         <v>15</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="5">
         <v>60</v>
@@ -3609,47 +3674,50 @@
       <c r="E41" s="6">
         <v>75</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6">
+      <c r="F41" s="6">
+        <v>10</v>
+      </c>
+      <c r="G41" s="5">
+        <v>20</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6">
         <v>33</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <v>31</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <v>4</v>
       </c>
-      <c r="K41" s="6">
+      <c r="L41" s="6">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <v>-1.27</v>
       </c>
-      <c r="M41" s="7">
+      <c r="N41" s="7">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="N41" s="8">
-        <f>SUM(H42:J42)</f>
+      <c r="O41" s="8">
+        <f>SUM(I42:K42)</f>
         <v>47</v>
       </c>
-      <c r="O41" s="9">
-        <f>N41/K41</f>
+      <c r="P41" s="9">
+        <f>O41/L41</f>
         <v>0.69117647058823528</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="11">
         <v>15</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="11">
         <v>60</v>
@@ -3657,43 +3725,46 @@
       <c r="E42">
         <v>75</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="11">
-        <v>20</v>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" s="11">
+        <v>20</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I42" s="11">
+        <v>20</v>
+      </c>
+      <c r="J42" s="11">
         <v>23</v>
       </c>
-      <c r="J42" s="11">
+      <c r="K42" s="11">
         <v>4</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="L42" s="11">
+      <c r="M42" s="11">
         <v>-2.59</v>
       </c>
-      <c r="M42" s="12">
+      <c r="N42" s="12">
         <v>-0.10299999999999999</v>
       </c>
-      <c r="N42" s="13"/>
-      <c r="O42" s="14"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="13"/>
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="16">
         <v>15</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="16">
         <v>60</v>
@@ -3701,43 +3772,46 @@
       <c r="E43" s="17">
         <v>75</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="17">
+      <c r="F43" s="17">
+        <v>10</v>
+      </c>
+      <c r="G43" s="16">
+        <v>20</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="17">
         <v>13</v>
       </c>
-      <c r="I43" s="17">
+      <c r="J43" s="17">
         <v>8</v>
       </c>
-      <c r="J43" s="17">
+      <c r="K43" s="17">
         <v>0</v>
       </c>
-      <c r="K43" s="17">
+      <c r="L43" s="17">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L43" s="17">
+      <c r="M43" s="17">
         <v>1.67</v>
       </c>
-      <c r="M43" s="18">
+      <c r="N43" s="18">
         <v>0.182</v>
       </c>
-      <c r="N43" s="19"/>
-      <c r="O43" s="20"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="19"/>
+      <c r="P43" s="20"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="5">
         <v>15</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="5">
         <v>50</v>
@@ -3745,47 +3819,50 @@
       <c r="E44" s="6">
         <v>60</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="6">
+      <c r="F44" s="6">
+        <v>10</v>
+      </c>
+      <c r="G44" s="5">
+        <v>20</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6">
         <v>21</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <v>25</v>
       </c>
-      <c r="J44" s="6">
+      <c r="K44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="6">
+      <c r="L44" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="6">
         <v>-0.65</v>
       </c>
-      <c r="M44" s="7">
+      <c r="N44" s="7">
         <v>-0.126</v>
       </c>
-      <c r="N44" s="8">
-        <f>SUM(H45:J45)</f>
+      <c r="O44" s="8">
+        <f>SUM(I45:K45)</f>
         <v>35</v>
       </c>
-      <c r="O44" s="9">
-        <f>N44/K44</f>
+      <c r="P44" s="9">
+        <f>O44/L44</f>
         <v>0.74468085106382975</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="11">
         <v>15</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="11">
         <v>50</v>
@@ -3793,43 +3870,46 @@
       <c r="E45">
         <v>60</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="11" t="s">
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45" s="11">
+        <v>20</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="11">
+        <v>16</v>
+      </c>
+      <c r="J45" s="11">
         <v>19</v>
       </c>
-      <c r="H45" s="11">
-        <v>16</v>
-      </c>
-      <c r="I45" s="11">
-        <v>19</v>
-      </c>
-      <c r="J45" s="11">
+      <c r="K45" s="11">
         <v>0</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="L45" s="11">
+      <c r="M45" s="11">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="M45" s="12">
+      <c r="N45" s="12">
         <v>-0.127</v>
       </c>
-      <c r="N45" s="13"/>
-      <c r="O45" s="14"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="13"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="16">
         <v>15</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="16">
         <v>50</v>
@@ -3837,176 +3917,188 @@
       <c r="E46" s="17">
         <v>60</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="17">
+      <c r="F46" s="17">
+        <v>10</v>
+      </c>
+      <c r="G46" s="16">
+        <v>20</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="17">
         <v>5</v>
       </c>
-      <c r="I46" s="17">
+      <c r="J46" s="17">
         <v>6</v>
       </c>
-      <c r="J46" s="17">
+      <c r="K46" s="17">
         <v>1</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L46" s="17">
+      <c r="M46" s="17">
         <v>-2.33</v>
       </c>
-      <c r="M46" s="18">
+      <c r="N46" s="18">
         <v>-0.121</v>
       </c>
-      <c r="N46" s="19"/>
-      <c r="O46" s="20"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="19"/>
+      <c r="P46" s="20"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="5">
         <v>15</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="6">
         <v>50</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="6">
+      <c r="F47" s="6">
+        <v>10</v>
+      </c>
+      <c r="G47" s="5">
+        <v>20</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6">
         <v>34</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>28</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>0</v>
       </c>
-      <c r="K47" s="6">
+      <c r="L47" s="6">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="L47" s="6">
+      <c r="M47" s="6">
         <v>-1.94</v>
       </c>
-      <c r="M47" s="7">
+      <c r="N47" s="7">
         <v>4.7E-2</v>
       </c>
-      <c r="N47" s="8">
-        <f>SUM(H48:J48)</f>
+      <c r="O47" s="8">
+        <f>SUM(I48:K48)</f>
         <v>42</v>
       </c>
-      <c r="O47" s="9">
-        <f>N47/K47</f>
+      <c r="P47" s="9">
+        <f>O47/L47</f>
         <v>0.67741935483870963</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="11">
         <v>15</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>50</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48">
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" s="11">
+        <v>20</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48">
         <v>25</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>17</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>1.06</v>
       </c>
-      <c r="M48" s="12">
+      <c r="N48" s="12">
         <v>0.13600000000000001</v>
       </c>
-      <c r="N48" s="13"/>
-      <c r="O48" s="14"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="13"/>
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="16">
         <v>15</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="17">
         <v>50</v>
       </c>
-      <c r="F49" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="17">
+      <c r="F49" s="17">
+        <v>10</v>
+      </c>
+      <c r="G49" s="16">
+        <v>20</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="17">
         <v>9</v>
       </c>
-      <c r="I49" s="17">
+      <c r="J49" s="17">
         <v>11</v>
       </c>
-      <c r="J49" s="17">
+      <c r="K49" s="17">
         <v>0</v>
       </c>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17">
+      <c r="L49" s="17"/>
+      <c r="M49" s="17">
         <v>-8.25</v>
       </c>
-      <c r="M49" s="18">
+      <c r="N49" s="18">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="N49" s="19"/>
-      <c r="O49" s="20"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="19"/>
+      <c r="P49" s="20"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="5">
         <v>15</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="5">
         <v>75</v>
@@ -4014,47 +4106,48 @@
       <c r="E50" s="6">
         <v>100</v>
       </c>
-      <c r="F50" s="5">
-        <v>20</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="6">
+      <c r="F50" s="6"/>
+      <c r="G50" s="5">
+        <v>20</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6">
         <v>56</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>63</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <v>0</v>
       </c>
-      <c r="K50" s="6">
-        <f t="shared" ref="K50:K52" si="7">SUM(H50:J50)</f>
+      <c r="L50" s="6">
+        <f t="shared" ref="L50:L52" si="7">SUM(I50:K50)</f>
         <v>119</v>
       </c>
-      <c r="L50" s="6">
+      <c r="M50" s="6">
         <v>-1.81</v>
       </c>
-      <c r="M50" s="21">
+      <c r="N50" s="21">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="N50" s="8">
-        <f>SUM(H51:J51)</f>
+      <c r="O50" s="8">
+        <f>SUM(I51:K51)</f>
         <v>79</v>
       </c>
-      <c r="O50" s="9">
-        <f>N50/K50</f>
+      <c r="P50" s="9">
+        <f>O50/L50</f>
         <v>0.66386554621848737</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="11">
         <v>15</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="11">
         <v>75</v>
@@ -4062,43 +4155,43 @@
       <c r="E51">
         <v>100</v>
       </c>
-      <c r="F51" s="11">
-        <v>20</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51">
+      <c r="G51" s="11">
+        <v>20</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51">
         <v>36</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>43</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>0</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>-2.09</v>
       </c>
-      <c r="M51" s="22">
+      <c r="N51" s="22">
         <v>-0.129</v>
       </c>
-      <c r="N51" s="13"/>
-      <c r="O51" s="14"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="13"/>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="16">
         <v>15</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="16">
         <v>75</v>
@@ -4106,43 +4199,44 @@
       <c r="E52" s="17">
         <v>100</v>
       </c>
-      <c r="F52" s="16">
-        <v>20</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="17">
-        <v>20</v>
+      <c r="F52" s="17"/>
+      <c r="G52" s="16">
+        <v>20</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="I52" s="17">
         <v>20</v>
       </c>
       <c r="J52" s="17">
+        <v>20</v>
+      </c>
+      <c r="K52" s="17">
         <v>0</v>
       </c>
-      <c r="K52" s="17">
+      <c r="L52" s="17">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="L52" s="17">
+      <c r="M52" s="17">
         <v>-1.26</v>
       </c>
-      <c r="M52" s="23">
+      <c r="N52" s="23">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="N52" s="19"/>
-      <c r="O52" s="20"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="19"/>
+      <c r="P52" s="20"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="5">
         <v>15</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" s="5">
         <v>60</v>
@@ -4150,47 +4244,48 @@
       <c r="E53" s="6">
         <v>75</v>
       </c>
-      <c r="F53" s="5">
-        <v>20</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="6">
+      <c r="F53" s="6"/>
+      <c r="G53" s="5">
+        <v>20</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6">
         <v>89</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <v>69</v>
       </c>
-      <c r="J53" s="6">
+      <c r="K53" s="6">
         <v>5</v>
       </c>
-      <c r="K53" s="6">
+      <c r="L53" s="6">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="L53" s="6">
+      <c r="M53" s="6">
         <v>0.64</v>
       </c>
-      <c r="M53" s="21">
+      <c r="N53" s="21">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="N53" s="8">
-        <f>SUM(H54:J54)</f>
+      <c r="O53" s="8">
+        <f>SUM(I54:K54)</f>
         <v>110</v>
       </c>
-      <c r="O53" s="9">
-        <f>N53/K53</f>
+      <c r="P53" s="9">
+        <f>O53/L53</f>
         <v>0.67484662576687116</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" s="11">
         <v>15</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="11">
         <v>60</v>
@@ -4198,43 +4293,43 @@
       <c r="E54">
         <v>75</v>
       </c>
-      <c r="F54" s="11">
-        <v>20</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="G54" s="11">
+        <v>20</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="11">
         <v>60</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>45</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>5</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M54" s="22">
+      <c r="N54" s="22">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="N54" s="13"/>
-      <c r="O54" s="14"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="13"/>
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" s="16">
         <v>15</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" s="16">
         <v>60</v>
@@ -4242,43 +4337,44 @@
       <c r="E55" s="17">
         <v>75</v>
       </c>
-      <c r="F55" s="16">
-        <v>20</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="17">
+      <c r="F55" s="17"/>
+      <c r="G55" s="16">
+        <v>20</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="17">
         <v>29</v>
       </c>
-      <c r="I55" s="17">
+      <c r="J55" s="17">
         <v>24</v>
       </c>
-      <c r="J55" s="17">
+      <c r="K55" s="17">
         <v>0</v>
       </c>
-      <c r="K55" s="17">
+      <c r="L55" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="L55" s="17">
+      <c r="M55" s="17">
         <v>-0.41</v>
       </c>
-      <c r="M55" s="23">
+      <c r="N55" s="23">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N55" s="19"/>
-      <c r="O55" s="20"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="19"/>
+      <c r="P55" s="20"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="5">
         <v>15</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" s="5">
         <v>50</v>
@@ -4286,46 +4382,47 @@
       <c r="E56" s="6">
         <v>60</v>
       </c>
-      <c r="F56" s="5">
-        <v>20</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6">
+      <c r="F56" s="6"/>
+      <c r="G56" s="5">
+        <v>20</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6">
         <v>73</v>
       </c>
-      <c r="I56" s="6">
+      <c r="J56" s="6">
         <v>59</v>
       </c>
-      <c r="J56" s="6">
+      <c r="K56" s="6">
         <v>1</v>
       </c>
-      <c r="K56" s="6">
+      <c r="L56" s="6">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="L56" s="6">
+      <c r="M56" s="6">
         <v>1.89</v>
       </c>
-      <c r="M56" s="21">
+      <c r="N56" s="21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N56" s="8">
+      <c r="O56" s="8">
         <v>95</v>
       </c>
-      <c r="O56" s="9">
-        <f>N56/K56</f>
+      <c r="P56" s="9">
+        <f>O56/L56</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="11">
         <v>15</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" s="11">
         <v>50</v>
@@ -4333,43 +4430,43 @@
       <c r="E57">
         <v>60</v>
       </c>
-      <c r="F57" s="11">
-        <v>20</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57">
+      <c r="G57" s="11">
+        <v>20</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57">
         <v>54</v>
       </c>
-      <c r="I57" s="11">
+      <c r="J57" s="11">
         <v>41</v>
       </c>
-      <c r="J57" s="11">
+      <c r="K57" s="11">
         <v>0</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="L57" s="11">
+      <c r="M57" s="11">
         <v>0.7</v>
       </c>
-      <c r="M57" s="22">
+      <c r="N57" s="22">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="N57" s="13"/>
-      <c r="O57" s="14"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="13"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="16">
         <v>15</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" s="16">
         <v>50</v>
@@ -4377,179 +4474,182 @@
       <c r="E58" s="17">
         <v>60</v>
       </c>
-      <c r="F58" s="16">
-        <v>20</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="17">
+      <c r="F58" s="17"/>
+      <c r="G58" s="16">
+        <v>20</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="17">
+        <v>19</v>
+      </c>
+      <c r="J58" s="16">
         <v>18</v>
       </c>
-      <c r="J58" s="16">
+      <c r="K58" s="16">
         <v>1</v>
       </c>
-      <c r="K58" s="17">
+      <c r="L58" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="L58" s="16">
+      <c r="M58" s="16">
         <v>2.14</v>
       </c>
-      <c r="M58" s="23">
+      <c r="N58" s="23">
         <v>-1.9E-2</v>
       </c>
-      <c r="N58" s="19"/>
-      <c r="O58" s="20"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="19"/>
+      <c r="P58" s="20"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" s="5">
         <v>15</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" s="6">
         <v>50</v>
       </c>
-      <c r="F59" s="5">
-        <v>20</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="6">
+      <c r="F59" s="6"/>
+      <c r="G59" s="5">
+        <v>20</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6">
         <v>102</v>
       </c>
-      <c r="I59" s="6">
+      <c r="J59" s="6">
         <v>61</v>
       </c>
-      <c r="J59" s="6">
+      <c r="K59" s="6">
         <v>0</v>
       </c>
-      <c r="K59" s="6">
+      <c r="L59" s="6">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="L59" s="6">
+      <c r="M59" s="6">
         <v>2.33</v>
       </c>
-      <c r="M59" s="21">
+      <c r="N59" s="21">
         <v>0.19500000000000001</v>
       </c>
-      <c r="N59" s="8">
-        <f>SUM(H60:J60)</f>
+      <c r="O59" s="8">
+        <f>SUM(I60:K60)</f>
         <v>116</v>
       </c>
-      <c r="O59" s="9">
-        <f>N59/K59</f>
+      <c r="P59" s="9">
+        <f>O59/L59</f>
         <v>0.71165644171779141</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" s="11">
         <v>15</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>50</v>
       </c>
-      <c r="F60" s="11">
-        <v>20</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60">
+      <c r="G60" s="11">
+        <v>20</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60">
         <v>71</v>
       </c>
-      <c r="I60" s="11">
+      <c r="J60" s="11">
         <v>45</v>
       </c>
-      <c r="J60" s="11">
+      <c r="K60" s="11">
         <v>0</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="L60" s="11">
+      <c r="M60" s="11">
         <v>2.11</v>
       </c>
-      <c r="M60" s="22">
+      <c r="N60" s="22">
         <v>0.16800000000000001</v>
       </c>
-      <c r="N60" s="13"/>
-      <c r="O60" s="14"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="13"/>
+      <c r="P60" s="14"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="16">
         <v>15</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61" s="17">
         <v>50</v>
       </c>
-      <c r="F61" s="16">
-        <v>20</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="17">
+      <c r="F61" s="17"/>
+      <c r="G61" s="16">
+        <v>20</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="17">
         <v>31</v>
       </c>
-      <c r="I61" s="16">
+      <c r="J61" s="16">
         <v>16</v>
       </c>
-      <c r="J61" s="16">
+      <c r="K61" s="16">
         <v>0</v>
       </c>
-      <c r="K61" s="17">
+      <c r="L61" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="L61" s="16">
+      <c r="M61" s="16">
         <v>2.87</v>
       </c>
-      <c r="M61" s="23">
+      <c r="N61" s="23">
         <v>0.25900000000000001</v>
       </c>
-      <c r="N61" s="19"/>
-      <c r="O61" s="20"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O61" s="19"/>
+      <c r="P61" s="20"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="5">
         <v>15</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="5">
         <v>75</v>
@@ -4557,47 +4657,48 @@
       <c r="E62" s="6">
         <v>100</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="6"/>
+      <c r="G62" s="5">
         <v>10</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6">
+      <c r="H62" s="5"/>
+      <c r="I62" s="6">
         <v>36</v>
       </c>
-      <c r="I62" s="6">
+      <c r="J62" s="6">
         <v>39</v>
       </c>
-      <c r="J62" s="6">
+      <c r="K62" s="6">
         <v>0</v>
       </c>
-      <c r="K62" s="6">
+      <c r="L62" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="L62" s="6">
+      <c r="M62" s="6">
         <v>-1.31</v>
       </c>
-      <c r="M62" s="21">
+      <c r="N62" s="21">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="N62" s="8">
-        <f>SUM(H63:J63)</f>
+      <c r="O62" s="8">
+        <f>SUM(I63:K63)</f>
         <v>53</v>
       </c>
-      <c r="O62" s="9">
-        <f>N62/K62</f>
+      <c r="P62" s="9">
+        <f>O62/L62</f>
         <v>0.70666666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63" s="11">
         <v>15</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="11">
         <v>75</v>
@@ -4605,43 +4706,43 @@
       <c r="E63">
         <v>100</v>
       </c>
-      <c r="F63" s="11">
+      <c r="G63" s="11">
         <v>10</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63">
+      <c r="H63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63">
         <v>24</v>
       </c>
-      <c r="I63" s="11">
+      <c r="J63" s="11">
         <v>29</v>
       </c>
-      <c r="J63" s="11">
+      <c r="K63" s="11">
         <v>0</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="L63" s="11">
+      <c r="M63" s="11">
         <v>-1.63</v>
       </c>
-      <c r="M63" s="22">
+      <c r="N63" s="22">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="N63" s="13"/>
-      <c r="O63" s="14"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="13"/>
+      <c r="P63" s="14"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64" s="16">
         <v>15</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="16">
         <v>75</v>
@@ -4649,43 +4750,44 @@
       <c r="E64" s="17">
         <v>100</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="17"/>
+      <c r="G64" s="16">
         <v>10</v>
       </c>
-      <c r="G64" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="17">
+      <c r="H64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="17">
         <v>12</v>
       </c>
-      <c r="I64" s="16">
+      <c r="J64" s="16">
         <v>10</v>
       </c>
-      <c r="J64" s="16">
+      <c r="K64" s="16">
         <v>0</v>
       </c>
-      <c r="K64" s="17">
+      <c r="L64" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L64" s="16">
+      <c r="M64" s="16">
         <v>-0.52</v>
       </c>
-      <c r="M64" s="23">
+      <c r="N64" s="23">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N64" s="19"/>
-      <c r="O64" s="20"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O64" s="19"/>
+      <c r="P64" s="20"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="5">
         <v>15</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" s="5">
         <v>60</v>
@@ -4693,47 +4795,48 @@
       <c r="E65" s="6">
         <v>75</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="6"/>
+      <c r="G65" s="5">
         <v>10</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="6">
+      <c r="H65" s="5"/>
+      <c r="I65" s="6">
         <v>59</v>
       </c>
-      <c r="I65" s="6">
+      <c r="J65" s="6">
         <v>41</v>
       </c>
-      <c r="J65" s="6">
+      <c r="K65" s="6">
         <v>1</v>
       </c>
-      <c r="K65" s="6">
+      <c r="L65" s="6">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="L65" s="6">
+      <c r="M65" s="6">
         <v>2.1</v>
       </c>
-      <c r="M65" s="21">
+      <c r="N65" s="21">
         <v>0.125</v>
       </c>
-      <c r="N65" s="8">
-        <f>SUM(H66:J66)</f>
+      <c r="O65" s="8">
+        <f>SUM(I66:K66)</f>
         <v>68</v>
       </c>
-      <c r="O65" s="9">
-        <f>N65/K65</f>
+      <c r="P65" s="9">
+        <f>O65/L65</f>
         <v>0.67326732673267331</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66" s="11">
         <v>15</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" s="11">
         <v>60</v>
@@ -4741,43 +4844,43 @@
       <c r="E66">
         <v>75</v>
       </c>
-      <c r="F66" s="11">
+      <c r="G66" s="11">
         <v>10</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66">
+      <c r="H66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66">
         <v>43</v>
       </c>
-      <c r="I66" s="11">
+      <c r="J66" s="11">
         <v>24</v>
       </c>
-      <c r="J66" s="11">
+      <c r="K66" s="11">
         <v>1</v>
       </c>
-      <c r="K66">
-        <f t="shared" ref="K66:K103" si="8">SUM(H66:J66)</f>
+      <c r="L66">
+        <f t="shared" ref="L66:L103" si="8">SUM(I66:K66)</f>
         <v>68</v>
       </c>
-      <c r="L66" s="11">
+      <c r="M66" s="11">
         <v>4.1100000000000003</v>
       </c>
-      <c r="M66" s="22">
+      <c r="N66" s="22">
         <v>0.219</v>
       </c>
-      <c r="N66" s="13"/>
-      <c r="O66" s="14"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O66" s="13"/>
+      <c r="P66" s="14"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67" s="16">
         <v>15</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" s="16">
         <v>60</v>
@@ -4785,43 +4888,44 @@
       <c r="E67" s="17">
         <v>75</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="17"/>
+      <c r="G67" s="16">
         <v>10</v>
       </c>
-      <c r="G67" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="17">
+      <c r="H67" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="17">
         <v>16</v>
       </c>
-      <c r="I67" s="16">
+      <c r="J67" s="16">
         <v>17</v>
       </c>
-      <c r="J67" s="16">
+      <c r="K67" s="16">
         <v>0</v>
       </c>
-      <c r="K67" s="17">
+      <c r="L67" s="17">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="L67" s="16">
+      <c r="M67" s="16">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="M67" s="23">
+      <c r="N67" s="23">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="N67" s="19"/>
-      <c r="O67" s="20"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O67" s="19"/>
+      <c r="P67" s="20"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68" s="5">
         <v>15</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" s="5">
         <v>50</v>
@@ -4829,47 +4933,48 @@
       <c r="E68" s="6">
         <v>60</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="6"/>
+      <c r="G68" s="5">
         <v>10</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6">
+      <c r="H68" s="5"/>
+      <c r="I68" s="6">
         <v>59</v>
       </c>
-      <c r="I68" s="6">
+      <c r="J68" s="6">
         <v>41</v>
       </c>
-      <c r="J68" s="6">
+      <c r="K68" s="6">
         <v>1</v>
       </c>
-      <c r="K68" s="6">
+      <c r="L68" s="6">
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
-      <c r="L68" s="6">
+      <c r="M68" s="6">
         <v>2.1</v>
       </c>
-      <c r="M68" s="21">
+      <c r="N68" s="21">
         <v>0.125</v>
       </c>
-      <c r="N68" s="8">
-        <f>SUM(H69:J69)</f>
+      <c r="O68" s="8">
+        <f>SUM(I69:K69)</f>
         <v>61</v>
       </c>
-      <c r="O68" s="9">
-        <f>N68/K68</f>
+      <c r="P68" s="9">
+        <f>O68/L68</f>
         <v>0.60396039603960394</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B69" s="11">
         <v>15</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" s="11">
         <v>50</v>
@@ -4877,43 +4982,43 @@
       <c r="E69">
         <v>60</v>
       </c>
-      <c r="F69" s="11">
+      <c r="G69" s="11">
         <v>10</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69">
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69">
         <v>39</v>
       </c>
-      <c r="I69" s="11">
+      <c r="J69" s="11">
         <v>22</v>
       </c>
-      <c r="J69" s="11">
+      <c r="K69" s="11">
         <v>0</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <f t="shared" si="8"/>
         <v>61</v>
       </c>
-      <c r="L69" s="11">
+      <c r="M69" s="11">
         <v>1.44</v>
       </c>
-      <c r="M69" s="22">
+      <c r="N69" s="22">
         <v>0.221</v>
       </c>
-      <c r="N69" s="13"/>
-      <c r="O69" s="14"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O69" s="13"/>
+      <c r="P69" s="14"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="16">
         <v>15</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="16">
         <v>50</v>
@@ -4921,175 +5026,178 @@
       <c r="E70" s="17">
         <v>60</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="17"/>
+      <c r="G70" s="16">
         <v>10</v>
       </c>
-      <c r="G70" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="17">
+      <c r="H70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="17">
         <v>14</v>
       </c>
-      <c r="I70" s="16">
+      <c r="J70" s="16">
         <v>12</v>
       </c>
-      <c r="J70" s="16">
+      <c r="K70" s="16">
         <v>0</v>
       </c>
-      <c r="K70" s="17">
+      <c r="L70" s="17">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="L70" s="16">
+      <c r="M70" s="16">
         <v>4.21</v>
       </c>
-      <c r="M70" s="23">
+      <c r="N70" s="23">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="N70" s="19"/>
-      <c r="O70" s="20"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O70" s="19"/>
+      <c r="P70" s="20"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71" s="5">
         <v>15</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E71" s="6">
         <v>50</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="6"/>
+      <c r="G71" s="5">
         <v>10</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="6">
+      <c r="H71" s="5"/>
+      <c r="I71" s="6">
         <v>74</v>
       </c>
-      <c r="I71" s="6">
+      <c r="J71" s="6">
         <v>34</v>
       </c>
-      <c r="J71" s="6">
+      <c r="K71" s="6">
         <v>0</v>
       </c>
-      <c r="K71" s="6">
+      <c r="L71" s="6">
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
-      <c r="L71" s="6">
+      <c r="M71" s="6">
         <v>5.25</v>
       </c>
-      <c r="M71" s="21">
+      <c r="N71" s="21">
         <v>0.308</v>
       </c>
-      <c r="N71" s="8">
+      <c r="O71" s="8">
         <v>78</v>
       </c>
-      <c r="O71" s="9">
-        <f>N71/K71</f>
+      <c r="P71" s="9">
+        <f>O71/L71</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="Q71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72" s="11">
         <v>15</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>50</v>
       </c>
-      <c r="F72" s="11">
+      <c r="G72" s="11">
         <v>10</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72">
+      <c r="H72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72">
         <v>49</v>
       </c>
-      <c r="I72" s="11">
+      <c r="J72" s="11">
         <v>29</v>
       </c>
-      <c r="J72" s="11">
+      <c r="K72" s="11">
         <v>0</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="L72" s="11">
+      <c r="M72" s="11">
         <v>3.15</v>
       </c>
-      <c r="M72" s="22">
+      <c r="N72" s="22">
         <v>0.19900000000000001</v>
       </c>
-      <c r="N72" s="13"/>
-      <c r="O72" s="14"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O72" s="13"/>
+      <c r="P72" s="14"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73" s="16">
         <v>15</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E73" s="17">
         <v>50</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="17"/>
+      <c r="G73" s="16">
         <v>10</v>
       </c>
-      <c r="G73" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="17">
+      <c r="H73" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="17">
         <v>25</v>
       </c>
-      <c r="I73" s="17">
+      <c r="J73" s="17">
         <v>5</v>
       </c>
-      <c r="J73" s="17">
+      <c r="K73" s="17">
         <v>0</v>
       </c>
-      <c r="K73" s="17">
+      <c r="L73" s="17">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="L73" s="17">
+      <c r="M73" s="17">
         <v>10.73</v>
       </c>
-      <c r="M73" s="23">
+      <c r="N73" s="23">
         <v>0.59099999999999997</v>
       </c>
-      <c r="N73" s="19"/>
-      <c r="O73" s="20"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O73" s="19"/>
+      <c r="P73" s="20"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B74" s="5">
         <v>8</v>
@@ -5103,43 +5211,44 @@
       <c r="E74" s="6">
         <v>100</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="6">
+      <c r="F74" s="6"/>
+      <c r="G74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6">
         <v>162</v>
       </c>
-      <c r="I74" s="6">
+      <c r="J74" s="6">
         <v>130</v>
       </c>
-      <c r="J74" s="6">
+      <c r="K74" s="6">
         <v>1</v>
       </c>
-      <c r="K74" s="6">
+      <c r="L74" s="6">
         <f t="shared" si="8"/>
         <v>293</v>
       </c>
-      <c r="L74" s="6">
+      <c r="M74" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M74" s="21">
+      <c r="N74" s="21">
         <v>6.2E-2</v>
       </c>
-      <c r="N74" s="8">
+      <c r="O74" s="8">
         <v>132</v>
       </c>
-      <c r="O74" s="9">
-        <f>N74/K74</f>
+      <c r="P74" s="9">
+        <f>O74/L74</f>
         <v>0.45051194539249145</v>
       </c>
-      <c r="Q74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B75" s="11">
         <v>8</v>
@@ -5153,37 +5262,37 @@
       <c r="E75">
         <v>100</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G75" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="11">
+        <v>20</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="11">
         <v>69</v>
       </c>
-      <c r="I75" s="11">
+      <c r="J75" s="11">
         <v>63</v>
       </c>
-      <c r="J75" s="11">
+      <c r="K75" s="11">
         <v>0</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
-      <c r="L75" s="11">
+      <c r="M75" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M75" s="22">
+      <c r="N75" s="22">
         <v>1E-3</v>
       </c>
-      <c r="N75" s="13"/>
-      <c r="O75" s="14"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O75" s="13"/>
+      <c r="P75" s="14"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B76" s="16">
         <v>8</v>
@@ -5197,37 +5306,38 @@
       <c r="E76" s="17">
         <v>100</v>
       </c>
-      <c r="F76" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F76" s="17"/>
       <c r="G76" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="17">
         <v>93</v>
       </c>
-      <c r="I76" s="17">
+      <c r="J76" s="17">
         <v>67</v>
       </c>
-      <c r="J76" s="17">
+      <c r="K76" s="17">
         <v>1</v>
       </c>
-      <c r="K76" s="17">
+      <c r="L76" s="17">
         <f t="shared" si="8"/>
         <v>161</v>
       </c>
-      <c r="L76" s="17">
+      <c r="M76" s="17">
         <v>1.53</v>
       </c>
-      <c r="M76" s="23">
+      <c r="N76" s="23">
         <v>0.112</v>
       </c>
-      <c r="N76" s="19"/>
-      <c r="O76" s="20"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O76" s="19"/>
+      <c r="P76" s="20"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B77" s="5">
         <v>8</v>
@@ -5241,40 +5351,41 @@
       <c r="E77" s="6">
         <v>70</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="6">
+      <c r="F77" s="6"/>
+      <c r="G77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6">
         <v>249</v>
       </c>
-      <c r="I77" s="6">
+      <c r="J77" s="6">
         <v>188</v>
       </c>
-      <c r="J77" s="6">
+      <c r="K77" s="6">
         <v>12</v>
       </c>
-      <c r="K77" s="6">
+      <c r="L77" s="6">
         <f t="shared" si="8"/>
         <v>449</v>
       </c>
-      <c r="L77" s="6">
+      <c r="M77" s="6">
         <v>0.86</v>
       </c>
-      <c r="M77" s="21">
+      <c r="N77" s="21">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="N77" s="8">
+      <c r="O77" s="8">
         <v>235</v>
       </c>
-      <c r="O77" s="9">
-        <f>N77/K77</f>
+      <c r="P77" s="9">
+        <f>O77/L77</f>
         <v>0.52338530066815148</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B78" s="11">
         <v>8</v>
@@ -5288,37 +5399,37 @@
       <c r="E78">
         <v>70</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G78" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="11">
+        <v>20</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="11">
         <v>116</v>
       </c>
-      <c r="I78" s="11">
+      <c r="J78" s="11">
         <v>113</v>
       </c>
-      <c r="J78" s="11">
+      <c r="K78" s="11">
         <v>6</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <f t="shared" si="8"/>
         <v>235</v>
       </c>
-      <c r="L78" s="11">
+      <c r="M78" s="11">
         <v>-0.87</v>
       </c>
-      <c r="M78" s="22">
+      <c r="N78" s="22">
         <v>-3.1E-2</v>
       </c>
-      <c r="N78" s="13"/>
-      <c r="O78" s="14"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O78" s="13"/>
+      <c r="P78" s="14"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B79" s="16">
         <v>8</v>
@@ -5332,37 +5443,38 @@
       <c r="E79" s="17">
         <v>70</v>
       </c>
-      <c r="F79" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F79" s="17"/>
       <c r="G79" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="17">
         <v>133</v>
       </c>
-      <c r="I79" s="17">
+      <c r="J79" s="17">
         <v>75</v>
       </c>
-      <c r="J79" s="17">
+      <c r="K79" s="17">
         <v>6</v>
       </c>
-      <c r="K79" s="17">
+      <c r="L79" s="17">
         <f t="shared" si="8"/>
         <v>214</v>
       </c>
-      <c r="L79" s="17">
+      <c r="M79" s="17">
         <v>2.75</v>
       </c>
-      <c r="M79" s="23">
+      <c r="N79" s="23">
         <v>0.221</v>
       </c>
-      <c r="N79" s="19"/>
-      <c r="O79" s="20"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O79" s="19"/>
+      <c r="P79" s="20"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B80" s="5">
         <v>8</v>
@@ -5371,45 +5483,46 @@
         <v>15</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80" s="6">
         <v>50</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="6">
+      <c r="F80" s="6"/>
+      <c r="G80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6">
         <v>241</v>
       </c>
-      <c r="I80" s="6">
+      <c r="J80" s="6">
         <v>182</v>
       </c>
-      <c r="J80" s="6">
+      <c r="K80" s="6">
         <v>5</v>
       </c>
-      <c r="K80" s="6">
+      <c r="L80" s="6">
         <f t="shared" si="8"/>
         <v>428</v>
       </c>
-      <c r="L80" s="6">
+      <c r="M80" s="6">
         <v>1.37</v>
       </c>
-      <c r="M80" s="21">
+      <c r="N80" s="21">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N80" s="8">
+      <c r="O80" s="8">
         <v>244</v>
       </c>
-      <c r="O80" s="9">
-        <f>N80/K80</f>
+      <c r="P80" s="9">
+        <f>O80/L80</f>
         <v>0.57009345794392519</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B81" s="11">
         <v>8</v>
@@ -5418,42 +5531,42 @@
         <v>15</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>50</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G81" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" s="11">
+        <v>20</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="11">
         <v>133</v>
       </c>
-      <c r="I81" s="11">
+      <c r="J81" s="11">
         <v>108</v>
       </c>
-      <c r="J81" s="11">
+      <c r="K81" s="11">
         <v>3</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <f t="shared" si="8"/>
         <v>244</v>
       </c>
-      <c r="L81" s="11">
+      <c r="M81" s="11">
         <v>1.26</v>
       </c>
-      <c r="M81" s="22">
+      <c r="N81" s="22">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N81" s="13"/>
-      <c r="O81" s="14"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O81" s="13"/>
+      <c r="P81" s="14"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B82" s="16">
         <v>8</v>
@@ -5462,183 +5575,186 @@
         <v>15</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E82" s="17">
         <v>50</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F82" s="17"/>
       <c r="G82" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="17">
         <v>108</v>
       </c>
-      <c r="I82" s="17">
+      <c r="J82" s="17">
         <v>74</v>
       </c>
-      <c r="J82" s="17">
+      <c r="K82" s="17">
         <v>2</v>
       </c>
-      <c r="K82" s="17">
+      <c r="L82" s="17">
         <f t="shared" si="8"/>
         <v>184</v>
       </c>
-      <c r="L82" s="17">
+      <c r="M82" s="17">
         <v>1.51</v>
       </c>
-      <c r="M82" s="23">
+      <c r="N82" s="23">
         <v>0.13800000000000001</v>
       </c>
-      <c r="N82" s="19"/>
-      <c r="O82" s="20"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O82" s="19"/>
+      <c r="P82" s="20"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B83" s="5">
         <v>8</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E83" s="6">
         <v>60</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="6">
+      <c r="F83" s="6"/>
+      <c r="G83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6">
         <v>441</v>
       </c>
-      <c r="I83" s="6">
+      <c r="J83" s="6">
         <v>306</v>
       </c>
-      <c r="J83" s="6">
+      <c r="K83" s="6">
         <v>13</v>
       </c>
-      <c r="K83" s="6">
+      <c r="L83" s="6">
         <f t="shared" si="8"/>
         <v>760</v>
       </c>
-      <c r="L83" s="6">
+      <c r="M83" s="6">
         <v>1.58</v>
       </c>
-      <c r="M83" s="21">
+      <c r="N83" s="21">
         <v>0.129</v>
       </c>
-      <c r="N83" s="8">
+      <c r="O83" s="8">
         <v>460</v>
       </c>
-      <c r="O83" s="9">
-        <f>N83/K83</f>
+      <c r="P83" s="9">
+        <f>O83/L83</f>
         <v>0.60526315789473684</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B84" s="11">
         <v>8</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>60</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G84" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84">
+        <v>20</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84">
         <v>251</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>200</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>9</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <f t="shared" si="8"/>
         <v>460</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>1.29</v>
       </c>
-      <c r="M84" s="22">
+      <c r="N84" s="22">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N84" s="13"/>
-      <c r="O84" s="14"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="13"/>
+      <c r="P84" s="14"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B85" s="16">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E85" s="17">
         <v>60</v>
       </c>
-      <c r="F85" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F85" s="17"/>
       <c r="G85" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="17">
         <v>191</v>
       </c>
-      <c r="I85" s="17">
+      <c r="J85" s="17">
         <v>107</v>
       </c>
-      <c r="J85" s="17">
+      <c r="K85" s="17">
         <v>5</v>
       </c>
-      <c r="K85" s="17">
+      <c r="L85" s="17">
         <f t="shared" si="8"/>
         <v>303</v>
       </c>
-      <c r="L85" s="17">
+      <c r="M85" s="17">
         <v>2.02</v>
       </c>
-      <c r="M85" s="23">
+      <c r="N85" s="23">
         <v>0.22500000000000001</v>
       </c>
-      <c r="N85" s="19"/>
-      <c r="O85" s="20"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O85" s="19"/>
+      <c r="P85" s="20"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B86" s="5">
         <v>15</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86" s="5">
         <v>70</v>
@@ -5646,46 +5762,47 @@
       <c r="E86" s="6">
         <v>100</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="6">
+      <c r="F86" s="6"/>
+      <c r="G86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6">
         <v>10</v>
       </c>
-      <c r="I86" s="6">
+      <c r="J86" s="6">
         <v>13</v>
       </c>
-      <c r="J86" s="6">
+      <c r="K86" s="6">
         <v>0</v>
       </c>
-      <c r="K86" s="6">
+      <c r="L86" s="6">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="L86" s="6">
+      <c r="M86" s="6">
         <v>-2.15</v>
       </c>
-      <c r="M86" s="21">
+      <c r="N86" s="21">
         <v>-0.17399999999999999</v>
       </c>
-      <c r="N86" s="8">
+      <c r="O86" s="8">
         <v>14</v>
       </c>
-      <c r="O86" s="9">
-        <f>N86/K86</f>
+      <c r="P86" s="9">
+        <f>O86/L86</f>
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B87" s="11">
         <v>15</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87" s="11">
         <v>70</v>
@@ -5693,43 +5810,43 @@
       <c r="E87">
         <v>100</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G87" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87">
+        <v>20</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87">
         <v>7</v>
       </c>
-      <c r="I87" s="11">
+      <c r="J87" s="11">
         <v>7</v>
       </c>
-      <c r="J87" s="11">
+      <c r="K87" s="11">
         <v>0</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="L87" s="11">
+      <c r="M87" s="11">
         <v>-0.93</v>
       </c>
-      <c r="M87" s="22">
+      <c r="N87" s="22">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="N87" s="13"/>
-      <c r="O87" s="14"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O87" s="13"/>
+      <c r="P87" s="14"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B88" s="16">
         <v>15</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" s="16">
         <v>70</v>
@@ -5737,43 +5854,44 @@
       <c r="E88" s="17">
         <v>100</v>
       </c>
-      <c r="F88" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F88" s="17"/>
       <c r="G88" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="17">
         <v>3</v>
       </c>
-      <c r="I88" s="17">
+      <c r="J88" s="17">
         <v>6</v>
       </c>
-      <c r="J88" s="17">
+      <c r="K88" s="17">
         <v>0</v>
       </c>
-      <c r="K88" s="17">
+      <c r="L88" s="17">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="L88" s="17">
+      <c r="M88" s="17">
         <v>-4.0599999999999996</v>
       </c>
-      <c r="M88" s="23">
+      <c r="N88" s="23">
         <v>-0.36399999999999999</v>
       </c>
-      <c r="N88" s="19"/>
-      <c r="O88" s="20"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="19"/>
+      <c r="P88" s="20"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B89" s="5">
         <v>15</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" s="5">
         <v>60</v>
@@ -5781,46 +5899,47 @@
       <c r="E89" s="6">
         <v>70</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="6">
+      <c r="F89" s="6"/>
+      <c r="G89" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6">
         <v>16</v>
       </c>
-      <c r="I89" s="6">
+      <c r="J89" s="6">
         <v>17</v>
       </c>
-      <c r="J89" s="6">
+      <c r="K89" s="6">
         <v>0</v>
       </c>
-      <c r="K89" s="6">
+      <c r="L89" s="6">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="L89" s="6">
+      <c r="M89" s="6">
         <v>1.02</v>
       </c>
-      <c r="M89" s="21">
+      <c r="N89" s="21">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="N89" s="8">
+      <c r="O89" s="8">
         <v>21</v>
       </c>
-      <c r="O89" s="9">
-        <f>N89/K89</f>
+      <c r="P89" s="9">
+        <f>O89/L89</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B90" s="11">
         <v>15</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D90" s="11">
         <v>60</v>
@@ -5828,43 +5947,43 @@
       <c r="E90">
         <v>70</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G90" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90">
+        <v>20</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90">
         <v>10</v>
       </c>
-      <c r="I90" s="11">
+      <c r="J90" s="11">
         <v>11</v>
       </c>
-      <c r="J90" s="11">
+      <c r="K90" s="11">
         <v>0</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="L90" s="11">
+      <c r="M90" s="11">
         <v>2.14</v>
       </c>
-      <c r="M90" s="22">
+      <c r="N90" s="22">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="N90" s="13"/>
-      <c r="O90" s="14"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="13"/>
+      <c r="P90" s="14"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B91" s="16">
         <v>15</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" s="16">
         <v>60</v>
@@ -5872,43 +5991,44 @@
       <c r="E91" s="17">
         <v>70</v>
       </c>
-      <c r="F91" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F91" s="17"/>
       <c r="G91" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H91" s="17">
-        <v>6</v>
+      <c r="H91" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="I91" s="17">
         <v>6</v>
       </c>
       <c r="J91" s="17">
+        <v>6</v>
+      </c>
+      <c r="K91" s="17">
         <v>0</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="L91" s="17">
+      <c r="M91" s="17">
         <v>-0.96</v>
       </c>
-      <c r="M91" s="23">
+      <c r="N91" s="23">
         <v>-4.7E-2</v>
       </c>
-      <c r="N91" s="19"/>
-      <c r="O91" s="20"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O91" s="19"/>
+      <c r="P91" s="20"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B92" s="5">
         <v>15</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92" s="5">
         <v>50</v>
@@ -5916,46 +6036,47 @@
       <c r="E92" s="6">
         <v>60</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="6">
+      <c r="F92" s="6"/>
+      <c r="G92" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6">
         <v>22</v>
       </c>
-      <c r="I92" s="6">
+      <c r="J92" s="6">
         <v>14</v>
       </c>
-      <c r="J92" s="6">
+      <c r="K92" s="6">
         <v>1</v>
       </c>
-      <c r="K92" s="6">
+      <c r="L92" s="6">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="L92" s="6">
+      <c r="M92" s="6">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M92" s="21">
+      <c r="N92" s="21">
         <v>0.16700000000000001</v>
       </c>
-      <c r="N92" s="8">
+      <c r="O92" s="8">
         <v>29</v>
       </c>
-      <c r="O92" s="9">
-        <f>N92/K92</f>
+      <c r="P92" s="9">
+        <f>O92/L92</f>
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B93" s="11">
         <v>15</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D93" s="11">
         <v>50</v>
@@ -5963,43 +6084,43 @@
       <c r="E93">
         <v>60</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G93" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93">
+        <v>20</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93">
         <v>17</v>
       </c>
-      <c r="I93" s="11">
+      <c r="J93" s="11">
         <v>11</v>
       </c>
-      <c r="J93" s="11">
+      <c r="K93" s="11">
         <v>1</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="L93" s="11">
+      <c r="M93" s="11">
         <v>3.83</v>
       </c>
-      <c r="M93" s="22">
+      <c r="N93" s="22">
         <v>0.16</v>
       </c>
-      <c r="N93" s="13"/>
-      <c r="O93" s="14"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O93" s="13"/>
+      <c r="P93" s="14"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B94" s="16">
         <v>15</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D94" s="16">
         <v>50</v>
@@ -6007,43 +6128,44 @@
       <c r="E94" s="17">
         <v>60</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F94" s="17"/>
       <c r="G94" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H94" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="17">
         <v>5</v>
       </c>
-      <c r="I94" s="17">
+      <c r="J94" s="17">
         <v>3</v>
       </c>
-      <c r="J94" s="17">
+      <c r="K94" s="17">
         <v>0</v>
       </c>
-      <c r="K94" s="17">
+      <c r="L94" s="17">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="L94" s="17">
+      <c r="M94" s="17">
         <v>-2.38</v>
       </c>
-      <c r="M94" s="23">
+      <c r="N94" s="23">
         <v>0.193</v>
       </c>
-      <c r="N94" s="19"/>
-      <c r="O94" s="20"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="19"/>
+      <c r="P94" s="20"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B95" s="5">
         <v>15</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" s="5">
         <v>32</v>
@@ -6051,46 +6173,47 @@
       <c r="E95" s="6">
         <v>50</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="6">
+      <c r="F95" s="6"/>
+      <c r="G95" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6">
         <v>36</v>
       </c>
-      <c r="I95" s="6">
-        <v>20</v>
-      </c>
       <c r="J95" s="6">
+        <v>20</v>
+      </c>
+      <c r="K95" s="6">
         <v>2</v>
       </c>
-      <c r="K95" s="6">
+      <c r="L95" s="6">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="L95" s="6">
+      <c r="M95" s="6">
         <v>2.66</v>
       </c>
-      <c r="M95" s="21">
+      <c r="N95" s="21">
         <v>0.22600000000000001</v>
       </c>
-      <c r="N95" s="8">
+      <c r="O95" s="8">
         <v>43</v>
       </c>
-      <c r="O95" s="9">
-        <f>N95/K95</f>
+      <c r="P95" s="9">
+        <f>O95/L95</f>
         <v>0.74137931034482762</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B96" s="11">
         <v>15</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D96" s="11">
         <v>32</v>
@@ -6098,43 +6221,43 @@
       <c r="E96">
         <v>50</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G96" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96">
+        <v>20</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96">
         <v>29</v>
       </c>
-      <c r="I96" s="11">
+      <c r="J96" s="11">
         <v>12</v>
       </c>
-      <c r="J96" s="11">
+      <c r="K96" s="11">
         <v>2</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="L96" s="11">
+      <c r="M96" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M96" s="22">
+      <c r="N96" s="22">
         <v>0.34200000000000003</v>
       </c>
-      <c r="N96" s="13"/>
-      <c r="O96" s="14"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="13"/>
+      <c r="P96" s="14"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B97" s="16">
         <v>15</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97" s="16">
         <v>32</v>
@@ -6142,177 +6265,180 @@
       <c r="E97" s="17">
         <v>50</v>
       </c>
-      <c r="F97" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F97" s="17"/>
       <c r="G97" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="17">
+      <c r="H97" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="17">
         <v>7</v>
       </c>
-      <c r="I97" s="17">
+      <c r="J97" s="17">
         <v>8</v>
       </c>
-      <c r="J97" s="17">
+      <c r="K97" s="17">
         <v>0</v>
       </c>
-      <c r="K97" s="17">
-        <v>15</v>
-      </c>
       <c r="L97" s="17">
+        <v>15</v>
+      </c>
+      <c r="M97" s="17">
         <v>-2.33</v>
       </c>
-      <c r="M97" s="23">
+      <c r="N97" s="23">
         <v>-0.107</v>
       </c>
-      <c r="N97" s="19"/>
-      <c r="O97" s="20"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="19"/>
+      <c r="P97" s="20"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B98" s="5">
         <v>15</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E98" s="6">
         <v>32</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="6">
+      <c r="F98" s="6"/>
+      <c r="G98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6">
         <v>10</v>
       </c>
-      <c r="I98" s="6">
+      <c r="J98" s="6">
         <v>12</v>
       </c>
-      <c r="J98" s="6">
+      <c r="K98" s="6">
         <v>0</v>
       </c>
-      <c r="K98" s="6">
-        <f t="shared" ref="K98:K100" si="9">SUM(H98:J98)</f>
+      <c r="L98" s="6">
+        <f t="shared" ref="L98:L100" si="9">SUM(I98:K98)</f>
         <v>22</v>
       </c>
-      <c r="L98" s="6">
+      <c r="M98" s="6">
         <v>-2.7</v>
       </c>
-      <c r="M98" s="21">
+      <c r="N98" s="21">
         <v>-0.129</v>
       </c>
-      <c r="N98" s="8">
+      <c r="O98" s="8">
         <v>18</v>
       </c>
-      <c r="O98" s="9">
-        <f>N98/K98</f>
+      <c r="P98" s="9">
+        <f>O98/L98</f>
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B99" s="11">
         <v>15</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E99">
         <v>32</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G99" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
         <v>0</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>-0.62</v>
       </c>
-      <c r="M99" s="22">
+      <c r="N99" s="22">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="N99" s="13"/>
-      <c r="O99" s="14"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="13"/>
+      <c r="P99" s="14"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100" s="16">
         <v>15</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E100" s="17">
         <v>32</v>
       </c>
-      <c r="F100" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="F100" s="17"/>
       <c r="G100" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H100" s="17">
+      <c r="H100" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="17">
         <v>9</v>
       </c>
-      <c r="I100" s="17">
+      <c r="J100" s="17">
         <v>10</v>
       </c>
-      <c r="J100" s="17">
+      <c r="K100" s="17">
         <v>0</v>
       </c>
-      <c r="K100" s="17">
+      <c r="L100" s="17">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="L100" s="17">
+      <c r="M100" s="17">
         <v>-1.97</v>
       </c>
-      <c r="M100" s="23">
+      <c r="N100" s="23">
         <v>-9.4E-2</v>
       </c>
-      <c r="N100" s="19"/>
-      <c r="O100" s="20"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O100" s="19"/>
+      <c r="P100" s="20"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B101" s="11">
         <v>8</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D101" s="11">
         <v>30</v>
@@ -6320,46 +6446,46 @@
       <c r="E101">
         <v>60</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101">
+      <c r="G101" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101">
         <v>398</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>260</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>12</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <f t="shared" si="8"/>
         <v>670</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>1.58</v>
       </c>
-      <c r="M101" s="2">
+      <c r="N101" s="2">
         <v>0.156</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <f>224+167+8</f>
         <v>399</v>
       </c>
-      <c r="O101" s="2">
-        <f>N101/K101</f>
+      <c r="P101" s="2">
+        <f>O101/L101</f>
         <v>0.59552238805970148</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B102" s="11">
         <v>15</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D102" s="11">
         <v>32</v>
@@ -6367,71 +6493,71 @@
       <c r="E102">
         <v>45</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102">
+      <c r="G102" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102">
         <v>29</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>10</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>1</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>4.1500000000000004</v>
       </c>
-      <c r="M102" s="2">
+      <c r="N102" s="2">
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>32</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103">
+      <c r="G103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103">
         <v>122</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>137</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>2</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <f t="shared" si="8"/>
         <v>261</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>-1.54</v>
       </c>
-      <c r="M103" s="2">
+      <c r="N103" s="2">
         <v>-9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105" s="5">
         <v>8</v>
@@ -6440,45 +6566,46 @@
         <v>10</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E105" s="6">
         <v>75</v>
       </c>
-      <c r="F105" s="5">
-        <v>20</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="6">
+      <c r="F105" s="6"/>
+      <c r="G105" s="5">
+        <v>20</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="6">
         <v>620</v>
       </c>
-      <c r="I105" s="6">
+      <c r="J105" s="6">
         <v>505</v>
       </c>
-      <c r="J105" s="6">
-        <v>15</v>
-      </c>
       <c r="K105" s="6">
-        <f t="shared" ref="K105:K119" si="10">SUM(H105:J105)</f>
+        <v>15</v>
+      </c>
+      <c r="L105" s="6">
+        <f t="shared" ref="L105:L119" si="10">SUM(I105:K105)</f>
         <v>1140</v>
       </c>
-      <c r="L105" s="6">
+      <c r="M105" s="6">
         <v>0.5</v>
       </c>
-      <c r="M105" s="7">
+      <c r="N105" s="7">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N105" s="8">
+      <c r="O105" s="8">
         <v>554</v>
       </c>
-      <c r="O105" s="9">
-        <f>N105/K105</f>
+      <c r="P105" s="9">
+        <f>O105/L105</f>
         <v>0.48596491228070177</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B106" s="11">
         <v>8</v>
@@ -6487,42 +6614,42 @@
         <v>10</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>75</v>
       </c>
-      <c r="F106" s="11">
-        <v>20</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="11">
+      <c r="G106" s="11">
+        <v>20</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="11">
         <v>300</v>
       </c>
-      <c r="I106" s="11">
+      <c r="J106" s="11">
         <v>250</v>
       </c>
-      <c r="J106" s="11">
+      <c r="K106" s="11">
         <v>4</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <f t="shared" si="10"/>
         <v>554</v>
       </c>
-      <c r="L106" s="11">
+      <c r="M106" s="11">
         <v>0.31</v>
       </c>
-      <c r="M106" s="12">
+      <c r="N106" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N106" s="13"/>
-      <c r="O106" s="14"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="13"/>
+      <c r="P106" s="14"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107" s="16">
         <v>8</v>
@@ -6531,42 +6658,43 @@
         <v>10</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E107" s="17">
         <v>75</v>
       </c>
-      <c r="F107" s="16">
-        <v>20</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" s="16">
+      <c r="F107" s="17"/>
+      <c r="G107" s="16">
+        <v>20</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="16">
         <v>320</v>
       </c>
-      <c r="I107" s="16">
+      <c r="J107" s="16">
         <v>255</v>
       </c>
-      <c r="J107" s="16">
+      <c r="K107" s="16">
         <v>11</v>
       </c>
-      <c r="K107" s="17">
+      <c r="L107" s="17">
         <f t="shared" si="10"/>
         <v>586</v>
       </c>
-      <c r="L107" s="16">
+      <c r="M107" s="16">
         <v>0.67</v>
       </c>
-      <c r="M107" s="18">
+      <c r="N107" s="18">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N107" s="19"/>
-      <c r="O107" s="20"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O107" s="19"/>
+      <c r="P107" s="20"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B108" s="5">
         <v>8</v>
@@ -6575,45 +6703,46 @@
         <v>10</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E108" s="6">
         <v>50</v>
       </c>
-      <c r="F108" s="5">
-        <v>20</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="6">
+      <c r="F108" s="6"/>
+      <c r="G108" s="5">
+        <v>20</v>
+      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="6">
         <v>158</v>
       </c>
-      <c r="I108" s="6">
+      <c r="J108" s="6">
         <v>134</v>
       </c>
-      <c r="J108" s="6">
+      <c r="K108" s="6">
         <v>2</v>
       </c>
-      <c r="K108" s="6">
+      <c r="L108" s="6">
         <f t="shared" si="10"/>
         <v>294</v>
       </c>
-      <c r="L108" s="6">
+      <c r="M108" s="6">
         <v>0.25</v>
       </c>
-      <c r="M108" s="7">
+      <c r="N108" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="N108" s="8">
+      <c r="O108" s="8">
         <v>140</v>
       </c>
-      <c r="O108" s="9">
-        <f>N108/K108</f>
+      <c r="P108" s="9">
+        <f>O108/L108</f>
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109" s="11">
         <v>8</v>
@@ -6622,42 +6751,42 @@
         <v>10</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>50</v>
       </c>
-      <c r="F109" s="11">
-        <v>20</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109">
+      <c r="G109" s="11">
+        <v>20</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109">
         <v>81</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>59</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>0</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>0.51</v>
       </c>
-      <c r="M109" s="12">
+      <c r="N109" s="12">
         <v>0.105</v>
       </c>
-      <c r="N109" s="13"/>
-      <c r="O109" s="14"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O109" s="13"/>
+      <c r="P109" s="14"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B110" s="16">
         <v>8</v>
@@ -6666,447 +6795,454 @@
         <v>10</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E110" s="17">
         <v>50</v>
       </c>
-      <c r="F110" s="16">
-        <v>20</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H110" s="16">
+      <c r="F110" s="17"/>
+      <c r="G110" s="16">
+        <v>20</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="16">
         <v>77</v>
       </c>
-      <c r="I110" s="16">
+      <c r="J110" s="16">
         <v>75</v>
       </c>
-      <c r="J110" s="16">
+      <c r="K110" s="16">
         <v>2</v>
       </c>
-      <c r="K110" s="17">
+      <c r="L110" s="17">
         <f t="shared" si="10"/>
         <v>154</v>
       </c>
-      <c r="L110" s="16">
+      <c r="M110" s="16">
         <v>-1.02</v>
       </c>
-      <c r="M110" s="18">
+      <c r="N110" s="18">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="N110" s="19"/>
-      <c r="O110" s="20"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O110" s="19"/>
+      <c r="P110" s="20"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B111" s="5">
         <v>15</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E111" s="6">
         <v>50</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="6"/>
+      <c r="G111" s="5">
         <v>10</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="6">
+      <c r="H111" s="5"/>
+      <c r="I111" s="6">
         <v>53</v>
       </c>
-      <c r="I111" s="6">
+      <c r="J111" s="6">
         <v>34</v>
       </c>
-      <c r="J111" s="6">
+      <c r="K111" s="6">
         <v>0</v>
       </c>
-      <c r="K111" s="6">
+      <c r="L111" s="6">
         <f t="shared" si="10"/>
         <v>87</v>
       </c>
-      <c r="L111" s="6">
+      <c r="M111" s="6">
         <v>2.27</v>
       </c>
-      <c r="M111" s="21">
+      <c r="N111" s="21">
         <v>0.16300000000000001</v>
       </c>
-      <c r="N111" s="8">
-        <f>SUM(H112:J112)</f>
+      <c r="O111" s="8">
+        <f>SUM(I112:K112)</f>
         <v>183</v>
       </c>
-      <c r="O111" s="9">
-        <f>N111/K111</f>
+      <c r="P111" s="9">
+        <f>O111/L111</f>
         <v>2.103448275862069</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B112" s="11">
         <v>15</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>50</v>
       </c>
-      <c r="F112" s="11">
+      <c r="G112" s="11">
         <v>10</v>
       </c>
-      <c r="G112" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112">
+      <c r="H112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112">
         <v>117</v>
       </c>
-      <c r="I112" s="11">
+      <c r="J112" s="11">
         <v>65</v>
       </c>
-      <c r="J112" s="11">
+      <c r="K112" s="11">
         <v>1</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <f t="shared" si="10"/>
         <v>183</v>
       </c>
-      <c r="L112" s="11">
+      <c r="M112" s="11">
         <v>3.31</v>
       </c>
-      <c r="M112" s="22">
+      <c r="N112" s="22">
         <v>0.22600000000000001</v>
       </c>
-      <c r="N112" s="13"/>
-      <c r="O112" s="14"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O112" s="13"/>
+      <c r="P112" s="14"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B113" s="16">
         <v>15</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E113" s="17">
         <v>50</v>
       </c>
-      <c r="F113" s="16">
+      <c r="F113" s="17"/>
+      <c r="G113" s="16">
         <v>10</v>
       </c>
-      <c r="G113" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="17">
+      <c r="H113" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="17">
         <v>51</v>
       </c>
-      <c r="I113" s="16">
+      <c r="J113" s="16">
         <v>23</v>
       </c>
-      <c r="J113" s="16">
+      <c r="K113" s="16">
         <v>0</v>
       </c>
-      <c r="K113" s="17">
+      <c r="L113" s="17">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="L113" s="16">
+      <c r="M113" s="16">
         <v>6</v>
       </c>
-      <c r="M113" s="23">
+      <c r="N113" s="23">
         <v>0.316</v>
       </c>
-      <c r="N113" s="19"/>
-      <c r="O113" s="20"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O113" s="19"/>
+      <c r="P113" s="20"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B114" s="5">
         <v>15</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E114" s="6">
         <v>60</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="6"/>
+      <c r="G114" s="5">
         <v>10</v>
       </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="6">
+      <c r="H114" s="5"/>
+      <c r="I114" s="6">
         <v>127</v>
       </c>
-      <c r="I114" s="6">
+      <c r="J114" s="6">
         <v>67</v>
       </c>
-      <c r="J114" s="6">
+      <c r="K114" s="6">
         <v>0</v>
       </c>
-      <c r="K114" s="6">
+      <c r="L114" s="6">
         <f t="shared" si="10"/>
         <v>194</v>
       </c>
-      <c r="L114" s="6">
+      <c r="M114" s="6">
         <v>3.97</v>
       </c>
-      <c r="M114" s="21">
+      <c r="N114" s="21">
         <v>0.25</v>
       </c>
-      <c r="N114" s="8">
+      <c r="O114" s="8">
         <v>138</v>
       </c>
-      <c r="O114" s="9">
-        <f>N114/K114</f>
+      <c r="P114" s="9">
+        <f>O114/L114</f>
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B115" s="11">
         <v>15</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E115">
         <v>60</v>
       </c>
-      <c r="F115" s="11">
+      <c r="G115" s="11">
         <v>10</v>
       </c>
-      <c r="G115" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115">
+      <c r="H115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115">
         <v>88</v>
       </c>
-      <c r="I115" s="11">
+      <c r="J115" s="11">
         <v>50</v>
       </c>
-      <c r="J115" s="11">
+      <c r="K115" s="11">
         <v>0</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <f t="shared" si="10"/>
         <v>138</v>
       </c>
-      <c r="L115" s="11">
+      <c r="M115" s="11">
         <v>2.46</v>
       </c>
-      <c r="M115" s="22">
+      <c r="N115" s="22">
         <v>0.217</v>
       </c>
-      <c r="N115" s="13"/>
-      <c r="O115" s="14"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O115" s="13"/>
+      <c r="P115" s="14"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B116" s="16">
         <v>15</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E116" s="17">
         <v>60</v>
       </c>
-      <c r="F116" s="16">
+      <c r="F116" s="17"/>
+      <c r="G116" s="16">
         <v>10</v>
       </c>
-      <c r="G116" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H116" s="17">
+      <c r="H116" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="17">
         <v>39</v>
       </c>
-      <c r="I116" s="17">
+      <c r="J116" s="17">
         <v>17</v>
       </c>
-      <c r="J116" s="17">
+      <c r="K116" s="17">
         <v>0</v>
       </c>
-      <c r="K116" s="17">
+      <c r="L116" s="17">
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="L116" s="17">
+      <c r="M116" s="17">
         <v>7.71</v>
       </c>
-      <c r="M116" s="23">
+      <c r="N116" s="23">
         <v>0.33</v>
       </c>
-      <c r="N116" s="19"/>
-      <c r="O116" s="20"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O116" s="19"/>
+      <c r="P116" s="20"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B117" s="5">
         <v>15</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E117" s="6">
         <v>50</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="6"/>
+      <c r="G117" s="5">
         <v>10</v>
       </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="6">
+      <c r="H117" s="5"/>
+      <c r="I117" s="6">
         <v>74</v>
       </c>
-      <c r="I117" s="6">
+      <c r="J117" s="6">
         <v>34</v>
       </c>
-      <c r="J117" s="6">
+      <c r="K117" s="6">
         <v>0</v>
       </c>
-      <c r="K117" s="6">
+      <c r="L117" s="6">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
-      <c r="L117" s="6">
+      <c r="M117" s="6">
         <v>5.25</v>
       </c>
-      <c r="M117" s="21">
+      <c r="N117" s="21">
         <v>0.308</v>
       </c>
-      <c r="N117" s="8">
+      <c r="O117" s="8">
         <v>78</v>
       </c>
-      <c r="O117" s="9">
-        <f>N117/K117</f>
+      <c r="P117" s="9">
+        <f>O117/L117</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="Q117" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B118" s="11">
         <v>15</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>50</v>
       </c>
-      <c r="F118" s="11">
+      <c r="G118" s="11">
         <v>10</v>
       </c>
-      <c r="G118" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118">
+      <c r="H118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118">
         <v>49</v>
       </c>
-      <c r="I118" s="11">
+      <c r="J118" s="11">
         <v>29</v>
       </c>
-      <c r="J118" s="11">
+      <c r="K118" s="11">
         <v>0</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="L118" s="11">
+      <c r="M118" s="11">
         <v>3.15</v>
       </c>
-      <c r="M118" s="22">
+      <c r="N118" s="22">
         <v>0.19900000000000001</v>
       </c>
-      <c r="N118" s="13"/>
-      <c r="O118" s="14"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O118" s="13"/>
+      <c r="P118" s="14"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B119" s="16">
         <v>15</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E119" s="17">
         <v>50</v>
       </c>
-      <c r="F119" s="16">
+      <c r="F119" s="17"/>
+      <c r="G119" s="16">
         <v>10</v>
       </c>
-      <c r="G119" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H119" s="17">
+      <c r="H119" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="17">
         <v>25</v>
       </c>
-      <c r="I119" s="17">
+      <c r="J119" s="17">
         <v>5</v>
       </c>
-      <c r="J119" s="17">
+      <c r="K119" s="17">
         <v>0</v>
       </c>
-      <c r="K119" s="17">
+      <c r="L119" s="17">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="L119" s="17">
+      <c r="M119" s="17">
         <v>10.73</v>
       </c>
-      <c r="M119" s="23">
+      <c r="N119" s="23">
         <v>0.59099999999999997</v>
       </c>
-      <c r="N119" s="19"/>
-      <c r="O119" s="20"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
@@ -7121,7 +7257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="N1:N1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7150,8 +7286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DDF12B-BF75-4B96-8514-449138EF37C1}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7164,27 +7300,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" t="s">
         <v>243</v>
-      </c>
-      <c r="C1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D2" s="24">
         <v>0.90900000000000003</v>
@@ -7192,13 +7328,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D3" s="24">
         <v>-0.10199999999999999</v>
@@ -7206,13 +7342,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="24">
         <v>0.27300000000000002</v>
@@ -7220,13 +7356,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D5" s="24">
         <v>9.0999999999999998E-2</v>
@@ -7234,13 +7370,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D6" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -7248,13 +7384,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D7" s="24">
         <v>0.193</v>
@@ -7262,13 +7398,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D8" s="24">
         <v>-0.28399999999999997</v>
@@ -7276,13 +7412,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D9" s="24">
         <v>-0.46500000000000002</v>
@@ -7290,13 +7426,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D10" s="24">
         <v>0.157</v>
@@ -7304,13 +7440,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D11" s="24">
         <v>0.01</v>
@@ -7318,13 +7454,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D12" s="24">
         <v>0.14499999999999999</v>
@@ -7332,13 +7468,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D13" s="24">
         <v>0.90900000000000003</v>
@@ -7346,13 +7482,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D14" s="24">
         <v>-0.20499999999999999</v>
@@ -7360,13 +7496,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D15" s="24">
         <v>0.90900000000000003</v>
@@ -7374,13 +7510,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D16" s="24">
         <v>0.224</v>
@@ -7388,13 +7524,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D17" s="24">
         <v>0.52700000000000002</v>
@@ -7402,13 +7538,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D18" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -7416,13 +7552,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D19" s="24">
         <v>0.16500000000000001</v>
@@ -7430,13 +7566,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D20" s="24">
         <v>0.245</v>
@@ -7444,13 +7580,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24">
         <v>-0.27300000000000002</v>
@@ -7458,13 +7594,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24">
         <v>0.439</v>
@@ -7472,13 +7608,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D23" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -7486,13 +7622,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="24">
         <v>-0.52300000000000002</v>
@@ -7500,13 +7636,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D25" s="24">
         <v>0.27500000000000002</v>
@@ -7514,13 +7650,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D26" s="24">
         <v>0.27300000000000002</v>
@@ -7528,13 +7664,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D27" s="24">
         <v>0.51100000000000001</v>
@@ -7542,13 +7678,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D28" s="24">
         <v>0.18099999999999999</v>
@@ -7556,13 +7692,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D29" s="24">
         <v>-4.5999999999999999E-2</v>
@@ -7570,13 +7706,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D30" s="24">
         <v>-9.6000000000000002E-2</v>
@@ -7584,13 +7720,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D31" s="24">
         <v>0.222</v>
@@ -7598,13 +7734,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D32" s="24">
         <v>-7.0000000000000001E-3</v>
@@ -7612,13 +7748,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D33" s="24">
         <v>0.14499999999999999</v>
@@ -7626,13 +7762,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D34" s="24">
         <v>0.17499999999999999</v>
@@ -7640,13 +7776,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D35" s="24">
         <v>-0.11899999999999999</v>
@@ -7654,13 +7790,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D36" s="24">
         <v>0.14499999999999999</v>
@@ -7668,13 +7804,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D37" s="24">
         <v>0.20799999999999999</v>
@@ -7682,13 +7818,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D38" s="24">
         <v>0.27300000000000002</v>
@@ -7696,13 +7832,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D39" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -7710,13 +7846,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D40" s="24">
         <v>0.253</v>
@@ -7724,13 +7860,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D41" s="24">
         <v>0.56200000000000006</v>
@@ -7738,13 +7874,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D42" s="24">
         <v>0.27300000000000002</v>
@@ -7752,13 +7888,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D43" s="24">
         <v>8.6999999999999994E-2</v>
@@ -7766,13 +7902,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D44" s="24">
         <v>-0.23599999999999999</v>
@@ -7780,13 +7916,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D45" s="24">
         <v>9.0999999999999998E-2</v>
@@ -7794,13 +7930,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D46" s="24">
         <v>5.0000000000000001E-3</v>
@@ -7808,13 +7944,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D47" s="24">
         <v>1.0999999999999999E-2</v>
@@ -7822,13 +7958,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D48" s="24">
         <v>-0.23599999999999999</v>
@@ -7836,13 +7972,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D49" s="24">
         <v>0.30599999999999999</v>
@@ -7850,13 +7986,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D50" s="24">
         <v>-9.4E-2</v>
@@ -7864,13 +8000,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D51" s="24">
         <v>0.27300000000000002</v>
@@ -7878,13 +8014,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D52" s="24">
         <v>9.0999999999999998E-2</v>
@@ -7892,13 +8028,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D53" s="24">
         <v>0.36399999999999999</v>
@@ -7906,13 +8042,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D54" s="24">
         <v>-0.113</v>
@@ -7920,13 +8056,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D55" s="24">
         <v>0.17499999999999999</v>
@@ -7934,13 +8070,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D56" s="24">
         <v>0.28299999999999997</v>
@@ -7948,13 +8084,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D57" s="24">
         <v>-0.11</v>
@@ -7962,13 +8098,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D58" s="24">
         <v>0.23499999999999999</v>
@@ -7976,13 +8112,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D59" s="24">
         <v>0.312</v>
@@ -7990,13 +8126,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D60" s="24">
         <v>0.22700000000000001</v>
@@ -8004,13 +8140,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D61" s="24">
         <v>-0.123</v>
@@ -8018,13 +8154,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D62" s="24">
         <v>2.5999999999999999E-2</v>
@@ -8032,13 +8168,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D63" s="24">
         <v>-2.1999999999999999E-2</v>
@@ -8046,13 +8182,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D64" s="24">
         <v>0.183</v>
@@ -8060,13 +8196,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D65" s="24">
         <v>7.9000000000000001E-2</v>
@@ -8074,13 +8210,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D66" s="24">
         <v>-0.23599999999999999</v>
@@ -8088,13 +8224,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D67" s="24">
         <v>0.28899999999999998</v>
@@ -8102,13 +8238,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D68" s="24">
         <v>-9.6000000000000002E-2</v>
@@ -8116,13 +8252,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D69" s="24">
         <v>0.13200000000000001</v>
@@ -8130,13 +8266,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D70" s="24">
         <v>2.4E-2</v>
@@ -8144,13 +8280,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D71" s="24">
         <v>0.121</v>
@@ -8158,13 +8294,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D72" s="24">
         <v>-9.8000000000000004E-2</v>
@@ -8172,13 +8308,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D73" s="24">
         <v>0.13400000000000001</v>
@@ -8186,13 +8322,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D74" s="24">
         <v>0.48499999999999999</v>
@@ -8200,13 +8336,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D75" s="24">
         <v>0.14000000000000001</v>
@@ -8214,13 +8350,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D76" s="24">
         <v>0.32200000000000001</v>
@@ -8228,13 +8364,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D77" s="24">
         <v>0.123</v>
@@ -8242,13 +8378,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D78" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -8256,13 +8392,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D79" s="24">
         <v>-2.5999999999999999E-2</v>
@@ -8270,13 +8406,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D80" s="24">
         <v>0.13800000000000001</v>
@@ -8284,13 +8420,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D81" s="24">
         <v>-5.0000000000000001E-3</v>
@@ -8298,13 +8434,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D82" s="24">
         <v>0.38800000000000001</v>
@@ -8312,13 +8448,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D83" s="24">
         <v>-7.5999999999999998E-2</v>
@@ -8326,13 +8462,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D84" s="24">
         <v>0.14499999999999999</v>
@@ -8340,13 +8476,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D85" s="24">
         <v>-1</v>
@@ -8354,13 +8490,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D86" s="24">
         <v>0.27300000000000002</v>
@@ -8368,13 +8504,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D87" s="24">
         <v>-2.4E-2</v>
@@ -8382,13 +8518,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D88" s="24">
         <v>0.23499999999999999</v>
@@ -8396,13 +8532,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D89" s="24">
         <v>-0.32700000000000001</v>
@@ -8410,13 +8546,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D90" s="24">
         <v>-0.182</v>
@@ -8424,13 +8560,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D91" s="24">
         <v>5.7000000000000002E-2</v>
@@ -8438,13 +8574,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D92" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -8452,13 +8588,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D93" s="24">
         <v>5.3999999999999999E-2</v>
@@ -8466,13 +8602,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D94" s="24">
         <v>-0.19400000000000001</v>
@@ -8480,13 +8616,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D95" s="24">
         <v>-0.19600000000000001</v>
@@ -8494,13 +8630,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C96" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D96" s="24">
         <v>-0.38</v>
@@ -8508,13 +8644,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D97" s="24">
         <v>0.34499999999999997</v>
@@ -8522,13 +8658,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B98" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D98" s="24">
         <v>-0.40300000000000002</v>
@@ -8536,13 +8672,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D99" s="24">
         <v>0.90900000000000003</v>
@@ -8550,13 +8686,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D100" s="24">
         <v>0.17499999999999999</v>
@@ -8564,13 +8700,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D101" s="24">
         <v>-0.10199999999999999</v>
@@ -8578,13 +8714,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D102" s="24">
         <v>0.14000000000000001</v>
@@ -8592,13 +8728,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D103" s="24">
         <v>0.432</v>
@@ -8606,13 +8742,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C104" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D104" s="24">
         <v>0.27300000000000002</v>
@@ -8620,13 +8756,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C105" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D105" s="24">
         <v>1.0999999999999999E-2</v>
@@ -8634,13 +8770,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="24">
         <v>0.28299999999999997</v>
@@ -8648,13 +8784,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C107" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D107" s="24">
         <v>-9.0999999999999998E-2</v>
@@ -8662,13 +8798,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B108" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D108" s="24">
         <v>2.3E-2</v>
@@ -8676,13 +8812,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B109" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D109" s="24">
         <v>0</v>
@@ -8690,13 +8826,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C110" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D110" s="24">
         <v>-0.17</v>
@@ -8704,13 +8840,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B111" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C111" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D111" s="24">
         <v>0.90900000000000003</v>
@@ -8718,13 +8854,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C112" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D112" s="24">
         <v>0.16900000000000001</v>
@@ -8732,13 +8868,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C113" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D113" s="24">
         <v>0.90900000000000003</v>
@@ -8746,13 +8882,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B114" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C114" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D114" s="24">
         <v>-0.186</v>
@@ -8760,13 +8896,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>344</v>
+      </c>
+      <c r="B115" t="s">
+        <v>345</v>
+      </c>
+      <c r="C115" s="25" t="s">
         <v>346</v>
-      </c>
-      <c r="B115" t="s">
-        <v>347</v>
-      </c>
-      <c r="C115" s="25" t="s">
-        <v>348</v>
       </c>
       <c r="D115" s="24">
         <v>-0.214</v>
@@ -8774,13 +8910,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>348</v>
+      </c>
+      <c r="B116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" t="s">
         <v>350</v>
-      </c>
-      <c r="B116" t="s">
-        <v>351</v>
-      </c>
-      <c r="C116" t="s">
-        <v>352</v>
       </c>
       <c r="D116" s="24">
         <v>0.245</v>
@@ -8788,13 +8924,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C117" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D117" s="24">
         <v>0.30599999999999999</v>
@@ -8802,13 +8938,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>353</v>
+      </c>
+      <c r="B118" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" s="25" t="s">
         <v>355</v>
-      </c>
-      <c r="B118" t="s">
-        <v>356</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>357</v>
       </c>
       <c r="D118" s="24">
         <v>0.193</v>
@@ -8816,13 +8952,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119" t="s">
+        <v>357</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>358</v>
-      </c>
-      <c r="B119" t="s">
-        <v>359</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>360</v>
       </c>
       <c r="D119" s="24">
         <v>0.214</v>
@@ -8830,13 +8966,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" t="s">
+        <v>360</v>
+      </c>
+      <c r="C120" s="25" t="s">
         <v>361</v>
-      </c>
-      <c r="B120" t="s">
-        <v>362</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>363</v>
       </c>
       <c r="D120" s="24">
         <v>0</v>
@@ -8844,13 +8980,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D121" s="24">
         <v>0</v>
@@ -8858,13 +8994,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B122" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D122" s="24">
         <v>0</v>
@@ -8872,13 +9008,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B123" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D123" s="24">
         <v>0</v>
@@ -8886,13 +9022,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>368</v>
+      </c>
+      <c r="B124" t="s">
+        <v>369</v>
+      </c>
+      <c r="C124" s="25" t="s">
         <v>370</v>
-      </c>
-      <c r="B124" t="s">
-        <v>371</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>372</v>
       </c>
       <c r="D124" s="24">
         <v>0.33600000000000002</v>
@@ -8900,13 +9036,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>371</v>
+      </c>
+      <c r="B125" t="s">
+        <v>372</v>
+      </c>
+      <c r="C125" s="25" t="s">
         <v>373</v>
-      </c>
-      <c r="B125" t="s">
-        <v>374</v>
-      </c>
-      <c r="C125" s="25" t="s">
-        <v>375</v>
       </c>
       <c r="D125" s="24">
         <v>-0.125</v>
@@ -8914,13 +9050,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B126" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D126" s="24">
         <v>0.90900000000000003</v>
@@ -8928,13 +9064,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="25" t="s">
         <v>378</v>
-      </c>
-      <c r="B127" t="s">
-        <v>379</v>
-      </c>
-      <c r="C127" s="25" t="s">
-        <v>380</v>
       </c>
       <c r="D127" s="24">
         <v>-0.182</v>
@@ -8942,13 +9078,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B128" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D128" s="24">
         <v>-9.0999999999999998E-2</v>
@@ -8956,13 +9092,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>381</v>
+      </c>
+      <c r="B129" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" s="25" t="s">
         <v>383</v>
-      </c>
-      <c r="B129" t="s">
-        <v>384</v>
-      </c>
-      <c r="C129" s="25" t="s">
-        <v>385</v>
       </c>
       <c r="D129" s="24">
         <v>-0.442</v>
@@ -8970,13 +9106,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B130" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D130" s="24">
         <v>0.16899999999999998</v>

--- a/cfb_weather_backtest.xlsx
+++ b/cfb_weather_backtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckin\Dropbox\MS Docs\Work\Sublime_Misc\football_weather_repo\football_weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D6BE69-EF86-4E62-B1D7-72FF12711342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699EF812-3D98-4C39-BF88-7CCF162ECB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45300" yWindow="0" windowWidth="31605" windowHeight="20985" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="382">
   <si>
     <t>Sport</t>
   </si>
@@ -111,18 +111,9 @@
     <t>CLV %</t>
   </si>
   <si>
-    <t>Bad Stadiums</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>NCAAF</t>
   </si>
   <si>
-    <t>KSU, OKST, TCU,PITT,GSU,NCST,MINN,TOLEDO,USC,UMICH,ARMY,HOU,TROY,NEWMX</t>
-  </si>
-  <si>
     <t>Positive</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Seems like market overrates the impact that cold will have on the total. Games between -5 and 32 degrees only 47% win rate to under</t>
   </si>
   <si>
     <t>NFL</t>
@@ -1351,7 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1386,6 +1374,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1738,53 +1741,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F9FFD-20B7-4014-BC22-21054032984A}">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="27" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="2"/>
     <col min="15" max="15" width="8.7109375" style="3"/>
     <col min="16" max="16" width="8.7109375" style="2"/>
-    <col min="17" max="17" width="87.42578125" customWidth="1"/>
-    <col min="18" max="18" width="122.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>385</v>
+      <c r="F1" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>381</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1813,31 +1814,25 @@
       <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5">
+        <v>14</v>
+      </c>
+      <c r="B2" s="28">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="28">
+        <v>15</v>
+      </c>
+      <c r="D2" s="28">
         <v>75</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="29">
         <v>100</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5">
+      <c r="F2" s="29"/>
+      <c r="G2" s="28">
         <v>20</v>
       </c>
       <c r="H2" s="5"/>
@@ -1867,31 +1862,28 @@
         <f>O2/L2</f>
         <v>0.4994011976047904</v>
       </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11">
+        <v>14</v>
+      </c>
+      <c r="B3" s="30">
         <v>8</v>
       </c>
-      <c r="C3" s="11">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="30">
+        <v>15</v>
+      </c>
+      <c r="D3" s="30">
         <v>75</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="27">
         <v>100</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="30">
         <v>20</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3" s="11">
         <v>215</v>
@@ -1915,28 +1907,28 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="31">
+        <v>8</v>
+      </c>
+      <c r="C4" s="31">
+        <v>15</v>
+      </c>
+      <c r="D4" s="31">
+        <v>75</v>
+      </c>
+      <c r="E4" s="32">
+        <v>100</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="31">
+        <v>20</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="16">
-        <v>8</v>
-      </c>
-      <c r="C4" s="16">
-        <v>15</v>
-      </c>
-      <c r="D4" s="16">
-        <v>75</v>
-      </c>
-      <c r="E4" s="17">
-        <v>100</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16">
-        <v>20</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I4" s="17">
         <v>205</v>
@@ -1960,24 +1952,24 @@
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="28">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="28">
+        <v>15</v>
+      </c>
+      <c r="D5" s="28">
         <v>60</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="29">
         <v>75</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5">
+      <c r="F5" s="29"/>
+      <c r="G5" s="28">
         <v>20</v>
       </c>
       <c r="H5" s="5"/>
@@ -2008,27 +2000,27 @@
         <v>0.51826086956521744</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11">
+        <v>14</v>
+      </c>
+      <c r="B6" s="30">
         <v>8</v>
       </c>
-      <c r="C6" s="11">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="30">
+        <v>15</v>
+      </c>
+      <c r="D6" s="30">
         <v>60</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="27">
         <v>75</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="30">
         <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" s="11">
         <v>320</v>
@@ -2052,28 +2044,28 @@
       <c r="O6" s="13"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="31">
+        <v>8</v>
+      </c>
+      <c r="C7" s="31">
+        <v>15</v>
+      </c>
+      <c r="D7" s="31">
+        <v>60</v>
+      </c>
+      <c r="E7" s="32">
+        <v>75</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="31">
+        <v>20</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="16">
-        <v>8</v>
-      </c>
-      <c r="C7" s="16">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16">
-        <v>60</v>
-      </c>
-      <c r="E7" s="17">
-        <v>75</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16">
-        <v>20</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I7" s="17">
         <v>311</v>
@@ -2097,24 +2089,24 @@
       <c r="O7" s="19"/>
       <c r="P7" s="20"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5">
+        <v>14</v>
+      </c>
+      <c r="B8" s="28">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="28">
+        <v>15</v>
+      </c>
+      <c r="D8" s="28">
         <v>50</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="29">
         <v>60</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5">
+      <c r="F8" s="29"/>
+      <c r="G8" s="28">
         <v>20</v>
       </c>
       <c r="H8" s="5"/>
@@ -2145,27 +2137,27 @@
         <v>0.48324022346368717</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="11">
+        <v>14</v>
+      </c>
+      <c r="B9" s="30">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
-        <v>15</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="30">
+        <v>15</v>
+      </c>
+      <c r="D9" s="30">
         <v>50</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="27">
         <v>60</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="30">
         <v>20</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" s="11">
         <v>200</v>
@@ -2189,28 +2181,28 @@
       <c r="O9" s="13"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="31">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31">
+        <v>50</v>
+      </c>
+      <c r="E10" s="32">
+        <v>60</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="31">
+        <v>20</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="16">
-        <v>8</v>
-      </c>
-      <c r="C10" s="16">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16">
-        <v>50</v>
-      </c>
-      <c r="E10" s="17">
-        <v>60</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16">
-        <v>20</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I10" s="17">
         <v>199</v>
@@ -2234,24 +2226,24 @@
       <c r="O10" s="19"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5">
+        <v>14</v>
+      </c>
+      <c r="B11" s="28">
         <v>8</v>
       </c>
-      <c r="C11" s="5">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="C11" s="28">
+        <v>15</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="29">
         <v>50</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5">
+      <c r="F11" s="29"/>
+      <c r="G11" s="28">
         <v>20</v>
       </c>
       <c r="H11" s="5"/>
@@ -2282,27 +2274,27 @@
         <v>0.50485436893203883</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="30">
+        <v>15</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="27">
+        <v>50</v>
+      </c>
+      <c r="G12" s="30">
         <v>20</v>
       </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="G12" s="11">
-        <v>20</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I12" s="11">
         <v>204</v>
@@ -2326,28 +2318,28 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="31">
+        <v>8</v>
+      </c>
+      <c r="C13" s="31">
+        <v>15</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="32">
+        <v>50</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31">
+        <v>20</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="16">
-        <v>8</v>
-      </c>
-      <c r="C13" s="16">
-        <v>15</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="17">
-        <v>50</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16">
-        <v>20</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I13" s="17">
         <v>184</v>
@@ -2371,26 +2363,26 @@
       <c r="O13" s="19"/>
       <c r="P13" s="20"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5">
+        <v>14</v>
+      </c>
+      <c r="B14" s="28">
         <v>8</v>
       </c>
-      <c r="C14" s="5">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="28">
+        <v>15</v>
+      </c>
+      <c r="D14" s="28">
         <v>75</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="29">
         <v>100</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="29">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="28">
         <v>20</v>
       </c>
       <c r="H14" s="5"/>
@@ -2422,30 +2414,30 @@
         <v>0.4894894894894895</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30">
         <v>8</v>
       </c>
-      <c r="C15" s="11">
-        <v>15</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="30">
+        <v>15</v>
+      </c>
+      <c r="D15" s="30">
         <v>75</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="27">
         <v>100</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="27">
         <v>10</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="30">
         <v>20</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I15" s="11">
         <v>74</v>
@@ -2469,30 +2461,30 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>8</v>
+      </c>
+      <c r="C16" s="31">
+        <v>15</v>
+      </c>
+      <c r="D16" s="31">
+        <v>75</v>
+      </c>
+      <c r="E16" s="32">
+        <v>100</v>
+      </c>
+      <c r="F16" s="32">
+        <v>10</v>
+      </c>
+      <c r="G16" s="31">
+        <v>20</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" s="16">
-        <v>8</v>
-      </c>
-      <c r="C16" s="16">
-        <v>15</v>
-      </c>
-      <c r="D16" s="16">
-        <v>75</v>
-      </c>
-      <c r="E16" s="17">
-        <v>100</v>
-      </c>
-      <c r="F16" s="17">
-        <v>10</v>
-      </c>
-      <c r="G16" s="16">
-        <v>20</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I16" s="17">
         <v>91</v>
@@ -2518,24 +2510,24 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="28">
         <v>8</v>
       </c>
-      <c r="C17" s="5">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="28">
+        <v>15</v>
+      </c>
+      <c r="D17" s="28">
         <v>60</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="29">
         <v>75</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="29">
         <v>10</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="28">
         <v>20</v>
       </c>
       <c r="H17" s="5"/>
@@ -2569,28 +2561,28 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="30">
         <v>8</v>
       </c>
-      <c r="C18" s="11">
-        <v>15</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="30">
+        <v>15</v>
+      </c>
+      <c r="D18" s="30">
         <v>60</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="27">
         <v>75</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="27">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="30">
         <v>20</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I18" s="11">
         <v>119</v>
@@ -2616,28 +2608,28 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="31">
+        <v>8</v>
+      </c>
+      <c r="C19" s="31">
+        <v>15</v>
+      </c>
+      <c r="D19" s="31">
+        <v>60</v>
+      </c>
+      <c r="E19" s="32">
+        <v>75</v>
+      </c>
+      <c r="F19" s="32">
+        <v>10</v>
+      </c>
+      <c r="G19" s="31">
+        <v>20</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="16">
-        <v>8</v>
-      </c>
-      <c r="C19" s="16">
-        <v>15</v>
-      </c>
-      <c r="D19" s="16">
-        <v>60</v>
-      </c>
-      <c r="E19" s="17">
-        <v>75</v>
-      </c>
-      <c r="F19" s="17">
-        <v>10</v>
-      </c>
-      <c r="G19" s="16">
-        <v>20</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I19" s="17">
         <v>111</v>
@@ -2663,24 +2655,24 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5">
+        <v>14</v>
+      </c>
+      <c r="B20" s="28">
         <v>8</v>
       </c>
-      <c r="C20" s="5">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="28">
+        <v>15</v>
+      </c>
+      <c r="D20" s="28">
         <v>50</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="29">
         <v>60</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="29">
         <v>10</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="28">
         <v>20</v>
       </c>
       <c r="H20" s="5"/>
@@ -2714,28 +2706,28 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="11">
+        <v>14</v>
+      </c>
+      <c r="B21" s="30">
         <v>8</v>
       </c>
-      <c r="C21" s="11">
-        <v>15</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="30">
+        <v>15</v>
+      </c>
+      <c r="D21" s="30">
         <v>50</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="27">
         <v>60</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="27">
         <v>10</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="30">
         <v>20</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I21" s="11">
         <v>75</v>
@@ -2761,28 +2753,28 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="31">
+        <v>8</v>
+      </c>
+      <c r="C22" s="31">
+        <v>15</v>
+      </c>
+      <c r="D22" s="31">
+        <v>50</v>
+      </c>
+      <c r="E22" s="32">
+        <v>60</v>
+      </c>
+      <c r="F22" s="32">
+        <v>10</v>
+      </c>
+      <c r="G22" s="31">
+        <v>20</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B22" s="16">
-        <v>8</v>
-      </c>
-      <c r="C22" s="16">
-        <v>15</v>
-      </c>
-      <c r="D22" s="16">
-        <v>50</v>
-      </c>
-      <c r="E22" s="17">
-        <v>60</v>
-      </c>
-      <c r="F22" s="17">
-        <v>10</v>
-      </c>
-      <c r="G22" s="16">
-        <v>20</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I22" s="17">
         <v>76</v>
@@ -2808,24 +2800,24 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="5">
+        <v>14</v>
+      </c>
+      <c r="B23" s="28">
         <v>8</v>
       </c>
-      <c r="C23" s="5">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="C23" s="28">
+        <v>15</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="29">
         <v>50</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="29">
         <v>10</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="28">
         <v>20</v>
       </c>
       <c r="H23" s="5"/>
@@ -2858,28 +2850,28 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="11">
+        <v>14</v>
+      </c>
+      <c r="B24" s="30">
         <v>8</v>
       </c>
-      <c r="C24" s="11">
-        <v>15</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="30">
+        <v>15</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="27">
+        <v>50</v>
+      </c>
+      <c r="F24" s="27">
+        <v>10</v>
+      </c>
+      <c r="G24" s="30">
         <v>20</v>
       </c>
-      <c r="E24">
-        <v>50</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24" s="11">
-        <v>20</v>
-      </c>
       <c r="H24" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I24">
         <v>79</v>
@@ -2905,28 +2897,28 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="31">
+        <v>8</v>
+      </c>
+      <c r="C25" s="31">
+        <v>15</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="32">
+        <v>50</v>
+      </c>
+      <c r="F25" s="32">
+        <v>10</v>
+      </c>
+      <c r="G25" s="31">
+        <v>20</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B25" s="16">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16">
-        <v>15</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="17">
-        <v>50</v>
-      </c>
-      <c r="F25" s="17">
-        <v>10</v>
-      </c>
-      <c r="G25" s="16">
-        <v>20</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I25" s="17">
         <v>65</v>
@@ -2952,22 +2944,22 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="5">
+        <v>14</v>
+      </c>
+      <c r="B26" s="28">
         <v>8</v>
       </c>
-      <c r="C26" s="5">
-        <v>15</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" s="28">
+        <v>15</v>
+      </c>
+      <c r="D26" s="28">
         <v>75</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="29">
         <v>100</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5">
+      <c r="F26" s="29"/>
+      <c r="G26" s="28">
         <v>10</v>
       </c>
       <c r="H26" s="5"/>
@@ -3001,25 +2993,25 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="11">
+        <v>14</v>
+      </c>
+      <c r="B27" s="30">
         <v>8</v>
       </c>
-      <c r="C27" s="11">
-        <v>15</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="30">
+        <v>15</v>
+      </c>
+      <c r="D27" s="30">
         <v>75</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="27">
         <v>100</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="30">
         <v>10</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I27" s="11">
         <v>147</v>
@@ -3046,26 +3038,26 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="31">
+        <v>8</v>
+      </c>
+      <c r="C28" s="31">
+        <v>15</v>
+      </c>
+      <c r="D28" s="31">
+        <v>75</v>
+      </c>
+      <c r="E28" s="32">
+        <v>100</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="31">
+        <v>10</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B28" s="16">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16">
-        <v>15</v>
-      </c>
-      <c r="D28" s="16">
-        <v>75</v>
-      </c>
-      <c r="E28" s="17">
-        <v>100</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="16">
-        <v>10</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I28" s="17">
         <v>117</v>
@@ -3092,22 +3084,22 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="5">
+        <v>14</v>
+      </c>
+      <c r="B29" s="28">
         <v>8</v>
       </c>
-      <c r="C29" s="5">
-        <v>15</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C29" s="28">
+        <v>15</v>
+      </c>
+      <c r="D29" s="28">
         <v>60</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="29">
         <v>75</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5">
+      <c r="F29" s="29"/>
+      <c r="G29" s="28">
         <v>10</v>
       </c>
       <c r="H29" s="5"/>
@@ -3142,25 +3134,25 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="11">
+        <v>14</v>
+      </c>
+      <c r="B30" s="30">
         <v>8</v>
       </c>
-      <c r="C30" s="11">
-        <v>15</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="C30" s="30">
+        <v>15</v>
+      </c>
+      <c r="D30" s="30">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="27">
         <v>75</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="30">
         <v>10</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I30" s="11">
         <v>217</v>
@@ -3186,26 +3178,26 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="31">
+        <v>8</v>
+      </c>
+      <c r="C31" s="31">
+        <v>15</v>
+      </c>
+      <c r="D31" s="31">
+        <v>60</v>
+      </c>
+      <c r="E31" s="32">
+        <v>75</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="31">
+        <v>10</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B31" s="16">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16">
-        <v>15</v>
-      </c>
-      <c r="D31" s="16">
-        <v>60</v>
-      </c>
-      <c r="E31" s="17">
-        <v>75</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="16">
-        <v>10</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I31" s="17">
         <v>202</v>
@@ -3232,22 +3224,22 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="5">
+        <v>14</v>
+      </c>
+      <c r="B32" s="28">
         <v>8</v>
       </c>
-      <c r="C32" s="5">
-        <v>15</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C32" s="28">
+        <v>15</v>
+      </c>
+      <c r="D32" s="28">
         <v>50</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="29">
         <v>60</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5">
+      <c r="F32" s="29"/>
+      <c r="G32" s="28">
         <v>10</v>
       </c>
       <c r="H32" s="5"/>
@@ -3281,25 +3273,25 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="11">
+        <v>14</v>
+      </c>
+      <c r="B33" s="30">
         <v>8</v>
       </c>
-      <c r="C33" s="11">
-        <v>15</v>
-      </c>
-      <c r="D33" s="11">
+      <c r="C33" s="30">
+        <v>15</v>
+      </c>
+      <c r="D33" s="30">
         <v>50</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="27">
         <v>60</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="30">
         <v>10</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I33" s="11">
         <v>134</v>
@@ -3326,26 +3318,26 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="31">
+        <v>8</v>
+      </c>
+      <c r="C34" s="31">
+        <v>15</v>
+      </c>
+      <c r="D34" s="31">
+        <v>50</v>
+      </c>
+      <c r="E34" s="32">
+        <v>60</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="31">
+        <v>10</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B34" s="16">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16">
-        <v>15</v>
-      </c>
-      <c r="D34" s="16">
-        <v>50</v>
-      </c>
-      <c r="E34" s="17">
-        <v>60</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="16">
-        <v>10</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I34" s="17">
         <v>131</v>
@@ -3372,22 +3364,22 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="5">
+        <v>14</v>
+      </c>
+      <c r="B35" s="28">
         <v>8</v>
       </c>
-      <c r="C35" s="5">
-        <v>15</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="C35" s="28">
+        <v>15</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="29">
         <v>50</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="5">
+      <c r="F35" s="29"/>
+      <c r="G35" s="28">
         <v>10</v>
       </c>
       <c r="H35" s="5"/>
@@ -3421,25 +3413,25 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="11">
+        <v>14</v>
+      </c>
+      <c r="B36" s="30">
         <v>8</v>
       </c>
-      <c r="C36" s="11">
-        <v>15</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36">
+      <c r="C36" s="30">
+        <v>15</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="27">
         <v>50</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="30">
         <v>10</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I36">
         <v>125</v>
@@ -3465,26 +3457,26 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="31">
+        <v>8</v>
+      </c>
+      <c r="C37" s="31">
+        <v>15</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="32">
+        <v>50</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="31">
+        <v>10</v>
+      </c>
+      <c r="H37" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B37" s="16">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16">
-        <v>15</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="17">
-        <v>50</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="16">
-        <v>10</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I37" s="17">
         <f t="shared" ref="I37:N37" si="6">I13-I25</f>
@@ -3515,24 +3507,24 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="5">
-        <v>15</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="5">
+        <v>14</v>
+      </c>
+      <c r="B38" s="28">
+        <v>15</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="28">
         <v>75</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="29">
         <v>100</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="29">
         <v>10</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="28">
         <v>20</v>
       </c>
       <c r="H38" s="5"/>
@@ -3566,28 +3558,28 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="11">
-        <v>15</v>
-      </c>
-      <c r="C39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="30">
+        <v>15</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="30">
+        <v>75</v>
+      </c>
+      <c r="E39" s="27">
+        <v>100</v>
+      </c>
+      <c r="F39" s="27">
+        <v>10</v>
+      </c>
+      <c r="G39" s="30">
         <v>20</v>
       </c>
-      <c r="D39" s="11">
-        <v>75</v>
-      </c>
-      <c r="E39">
-        <v>100</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39" s="11">
-        <v>20</v>
-      </c>
       <c r="H39" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I39" s="11">
         <v>14</v>
@@ -3613,28 +3605,28 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="31">
+        <v>15</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="31">
+        <v>75</v>
+      </c>
+      <c r="E40" s="32">
+        <v>100</v>
+      </c>
+      <c r="F40" s="32">
+        <v>10</v>
+      </c>
+      <c r="G40" s="31">
+        <v>20</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B40" s="16">
-        <v>15</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="16">
-        <v>75</v>
-      </c>
-      <c r="E40" s="17">
-        <v>100</v>
-      </c>
-      <c r="F40" s="17">
-        <v>10</v>
-      </c>
-      <c r="G40" s="16">
-        <v>20</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I40" s="17">
         <v>8</v>
@@ -3660,24 +3652,24 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="5">
-        <v>15</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="5">
+        <v>14</v>
+      </c>
+      <c r="B41" s="28">
+        <v>15</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="28">
         <v>60</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="29">
         <v>75</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="29">
         <v>10</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="28">
         <v>20</v>
       </c>
       <c r="H41" s="5"/>
@@ -3711,28 +3703,28 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="11">
-        <v>15</v>
-      </c>
-      <c r="C42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="30">
+        <v>15</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="30">
+        <v>60</v>
+      </c>
+      <c r="E42" s="27">
+        <v>75</v>
+      </c>
+      <c r="F42" s="27">
+        <v>10</v>
+      </c>
+      <c r="G42" s="30">
         <v>20</v>
       </c>
-      <c r="D42" s="11">
-        <v>60</v>
-      </c>
-      <c r="E42">
-        <v>75</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42" s="11">
-        <v>20</v>
-      </c>
       <c r="H42" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I42" s="11">
         <v>20</v>
@@ -3758,28 +3750,28 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="31">
+        <v>15</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="31">
+        <v>60</v>
+      </c>
+      <c r="E43" s="32">
+        <v>75</v>
+      </c>
+      <c r="F43" s="32">
+        <v>10</v>
+      </c>
+      <c r="G43" s="31">
+        <v>20</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B43" s="16">
-        <v>15</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="16">
-        <v>60</v>
-      </c>
-      <c r="E43" s="17">
-        <v>75</v>
-      </c>
-      <c r="F43" s="17">
-        <v>10</v>
-      </c>
-      <c r="G43" s="16">
-        <v>20</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I43" s="17">
         <v>13</v>
@@ -3805,24 +3797,24 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="5">
-        <v>15</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="5">
+        <v>14</v>
+      </c>
+      <c r="B44" s="28">
+        <v>15</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="28">
         <v>50</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="29">
         <v>60</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="29">
         <v>10</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="28">
         <v>20</v>
       </c>
       <c r="H44" s="5"/>
@@ -3856,28 +3848,28 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="11">
-        <v>15</v>
-      </c>
-      <c r="C45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="30">
+        <v>15</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="30">
+        <v>50</v>
+      </c>
+      <c r="E45" s="27">
+        <v>60</v>
+      </c>
+      <c r="F45" s="27">
+        <v>10</v>
+      </c>
+      <c r="G45" s="30">
         <v>20</v>
       </c>
-      <c r="D45" s="11">
-        <v>50</v>
-      </c>
-      <c r="E45">
-        <v>60</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45" s="11">
-        <v>20</v>
-      </c>
       <c r="H45" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I45" s="11">
         <v>16</v>
@@ -3903,28 +3895,28 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="31">
+        <v>15</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="31">
+        <v>50</v>
+      </c>
+      <c r="E46" s="32">
+        <v>60</v>
+      </c>
+      <c r="F46" s="32">
+        <v>10</v>
+      </c>
+      <c r="G46" s="31">
+        <v>20</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B46" s="16">
-        <v>15</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="16">
-        <v>50</v>
-      </c>
-      <c r="E46" s="17">
-        <v>60</v>
-      </c>
-      <c r="F46" s="17">
-        <v>10</v>
-      </c>
-      <c r="G46" s="16">
-        <v>20</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I46" s="17">
         <v>5</v>
@@ -3950,24 +3942,24 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="5">
-        <v>15</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="6">
+        <v>14</v>
+      </c>
+      <c r="B47" s="28">
+        <v>15</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="29">
         <v>50</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="29">
         <v>10</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="28">
         <v>20</v>
       </c>
       <c r="H47" s="5"/>
@@ -4001,28 +3993,28 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="11">
-        <v>15</v>
-      </c>
-      <c r="C48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="30">
+        <v>15</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="27">
+        <v>50</v>
+      </c>
+      <c r="F48" s="27">
+        <v>10</v>
+      </c>
+      <c r="G48" s="30">
         <v>20</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48">
-        <v>50</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
-      <c r="G48" s="11">
-        <v>20</v>
-      </c>
       <c r="H48" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I48">
         <v>25</v>
@@ -4048,28 +4040,28 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="31">
+        <v>15</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="32">
+        <v>50</v>
+      </c>
+      <c r="F49" s="32">
+        <v>10</v>
+      </c>
+      <c r="G49" s="31">
+        <v>20</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B49" s="16">
-        <v>15</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="17">
-        <v>50</v>
-      </c>
-      <c r="F49" s="17">
-        <v>10</v>
-      </c>
-      <c r="G49" s="16">
-        <v>20</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I49" s="17">
         <v>9</v>
@@ -4092,22 +4084,22 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="5">
-        <v>15</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="5">
+        <v>14</v>
+      </c>
+      <c r="B50" s="28">
+        <v>15</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="28">
         <v>75</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="29">
         <v>100</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="5">
+      <c r="F50" s="29"/>
+      <c r="G50" s="28">
         <v>20</v>
       </c>
       <c r="H50" s="5"/>
@@ -4141,25 +4133,25 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="11">
-        <v>15</v>
-      </c>
-      <c r="C51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="30">
+        <v>15</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="30">
+        <v>75</v>
+      </c>
+      <c r="E51" s="27">
+        <v>100</v>
+      </c>
+      <c r="G51" s="30">
         <v>20</v>
       </c>
-      <c r="D51" s="11">
-        <v>75</v>
-      </c>
-      <c r="E51">
-        <v>100</v>
-      </c>
-      <c r="G51" s="11">
-        <v>20</v>
-      </c>
       <c r="H51" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I51">
         <v>36</v>
@@ -4185,26 +4177,26 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="31">
+        <v>15</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="31">
+        <v>75</v>
+      </c>
+      <c r="E52" s="32">
+        <v>100</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="31">
+        <v>20</v>
+      </c>
+      <c r="H52" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B52" s="16">
-        <v>15</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="16">
-        <v>75</v>
-      </c>
-      <c r="E52" s="17">
-        <v>100</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="16">
-        <v>20</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I52" s="17">
         <v>20</v>
@@ -4230,22 +4222,22 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="5">
-        <v>15</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="5">
+        <v>14</v>
+      </c>
+      <c r="B53" s="28">
+        <v>15</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="28">
         <v>60</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="29">
         <v>75</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="5">
+      <c r="F53" s="29"/>
+      <c r="G53" s="28">
         <v>20</v>
       </c>
       <c r="H53" s="5"/>
@@ -4279,25 +4271,25 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="11">
-        <v>15</v>
-      </c>
-      <c r="C54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="30">
+        <v>15</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="30">
+        <v>60</v>
+      </c>
+      <c r="E54" s="27">
+        <v>75</v>
+      </c>
+      <c r="G54" s="30">
         <v>20</v>
       </c>
-      <c r="D54" s="11">
-        <v>60</v>
-      </c>
-      <c r="E54">
-        <v>75</v>
-      </c>
-      <c r="G54" s="11">
-        <v>20</v>
-      </c>
       <c r="H54" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I54" s="11">
         <v>60</v>
@@ -4323,26 +4315,26 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="31">
+        <v>15</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="31">
+        <v>60</v>
+      </c>
+      <c r="E55" s="32">
+        <v>75</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="31">
+        <v>20</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B55" s="16">
-        <v>15</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="16">
-        <v>60</v>
-      </c>
-      <c r="E55" s="17">
-        <v>75</v>
-      </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="16">
-        <v>20</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I55" s="17">
         <v>29</v>
@@ -4368,22 +4360,22 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="5">
-        <v>15</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="5">
+        <v>14</v>
+      </c>
+      <c r="B56" s="28">
+        <v>15</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="28">
         <v>50</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="29">
         <v>60</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="5">
+      <c r="F56" s="29"/>
+      <c r="G56" s="28">
         <v>20</v>
       </c>
       <c r="H56" s="5"/>
@@ -4416,25 +4408,25 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="11">
-        <v>15</v>
-      </c>
-      <c r="C57" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="30">
+        <v>15</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="30">
+        <v>50</v>
+      </c>
+      <c r="E57" s="27">
+        <v>60</v>
+      </c>
+      <c r="G57" s="30">
         <v>20</v>
       </c>
-      <c r="D57" s="11">
-        <v>50</v>
-      </c>
-      <c r="E57">
-        <v>60</v>
-      </c>
-      <c r="G57" s="11">
-        <v>20</v>
-      </c>
       <c r="H57" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I57">
         <v>54</v>
@@ -4460,26 +4452,26 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="31">
+        <v>15</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="31">
+        <v>50</v>
+      </c>
+      <c r="E58" s="32">
+        <v>60</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="31">
+        <v>20</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B58" s="16">
-        <v>15</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="16">
-        <v>50</v>
-      </c>
-      <c r="E58" s="17">
-        <v>60</v>
-      </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="16">
-        <v>20</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I58" s="17">
         <v>19</v>
@@ -4505,22 +4497,22 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="5">
-        <v>15</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="6">
+        <v>14</v>
+      </c>
+      <c r="B59" s="28">
+        <v>15</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="29">
         <v>50</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="5">
+      <c r="F59" s="29"/>
+      <c r="G59" s="28">
         <v>20</v>
       </c>
       <c r="H59" s="5"/>
@@ -4554,25 +4546,25 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="11">
-        <v>15</v>
-      </c>
-      <c r="C60" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="30">
+        <v>15</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="27">
+        <v>50</v>
+      </c>
+      <c r="G60" s="30">
         <v>20</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60">
-        <v>50</v>
-      </c>
-      <c r="G60" s="11">
-        <v>20</v>
-      </c>
       <c r="H60" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I60">
         <v>71</v>
@@ -4598,26 +4590,26 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="31">
+        <v>15</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="32">
+        <v>50</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="31">
+        <v>20</v>
+      </c>
+      <c r="H61" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B61" s="16">
-        <v>15</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="17">
-        <v>50</v>
-      </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="16">
-        <v>20</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I61" s="17">
         <v>31</v>
@@ -4643,22 +4635,22 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="5">
-        <v>15</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="5">
+        <v>14</v>
+      </c>
+      <c r="B62" s="28">
+        <v>15</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="28">
         <v>75</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="29">
         <v>100</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="5">
+      <c r="F62" s="29"/>
+      <c r="G62" s="28">
         <v>10</v>
       </c>
       <c r="H62" s="5"/>
@@ -4692,25 +4684,25 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="11">
-        <v>15</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="11">
+        <v>14</v>
+      </c>
+      <c r="B63" s="30">
+        <v>15</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="30">
         <v>75</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="27">
         <v>100</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="30">
         <v>10</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I63">
         <v>24</v>
@@ -4736,26 +4728,26 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="31">
+        <v>15</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="31">
+        <v>75</v>
+      </c>
+      <c r="E64" s="32">
+        <v>100</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="31">
+        <v>10</v>
+      </c>
+      <c r="H64" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B64" s="16">
-        <v>15</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="16">
-        <v>75</v>
-      </c>
-      <c r="E64" s="17">
-        <v>100</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="16">
-        <v>10</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I64" s="17">
         <v>12</v>
@@ -4779,24 +4771,24 @@
       <c r="O64" s="19"/>
       <c r="P64" s="20"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="5">
-        <v>15</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="5">
+        <v>14</v>
+      </c>
+      <c r="B65" s="28">
+        <v>15</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="28">
         <v>60</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="29">
         <v>75</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="5">
+      <c r="F65" s="29"/>
+      <c r="G65" s="28">
         <v>10</v>
       </c>
       <c r="H65" s="5"/>
@@ -4828,27 +4820,27 @@
         <v>0.67326732673267331</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="11">
-        <v>15</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="11">
+        <v>14</v>
+      </c>
+      <c r="B66" s="30">
+        <v>15</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="30">
         <v>60</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="27">
         <v>75</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="30">
         <v>10</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I66">
         <v>43</v>
@@ -4872,28 +4864,28 @@
       <c r="O66" s="13"/>
       <c r="P66" s="14"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="31">
+        <v>15</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="31">
+        <v>60</v>
+      </c>
+      <c r="E67" s="32">
+        <v>75</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="31">
+        <v>10</v>
+      </c>
+      <c r="H67" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B67" s="16">
-        <v>15</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="16">
-        <v>60</v>
-      </c>
-      <c r="E67" s="17">
-        <v>75</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="16">
-        <v>10</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I67" s="17">
         <v>16</v>
@@ -4917,24 +4909,24 @@
       <c r="O67" s="19"/>
       <c r="P67" s="20"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="5">
-        <v>15</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="5">
+        <v>14</v>
+      </c>
+      <c r="B68" s="28">
+        <v>15</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="28">
         <v>50</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="29">
         <v>60</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="5">
+      <c r="F68" s="29"/>
+      <c r="G68" s="28">
         <v>10</v>
       </c>
       <c r="H68" s="5"/>
@@ -4966,27 +4958,27 @@
         <v>0.60396039603960394</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="11">
-        <v>15</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="11">
+        <v>14</v>
+      </c>
+      <c r="B69" s="30">
+        <v>15</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="30">
         <v>50</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="27">
         <v>60</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="30">
         <v>10</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I69">
         <v>39</v>
@@ -5010,28 +5002,28 @@
       <c r="O69" s="13"/>
       <c r="P69" s="14"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="31">
+        <v>15</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="31">
+        <v>50</v>
+      </c>
+      <c r="E70" s="32">
+        <v>60</v>
+      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="31">
+        <v>10</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B70" s="16">
-        <v>15</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="16">
-        <v>50</v>
-      </c>
-      <c r="E70" s="17">
-        <v>60</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="16">
-        <v>10</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I70" s="17">
         <v>14</v>
@@ -5055,24 +5047,24 @@
       <c r="O70" s="19"/>
       <c r="P70" s="20"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="5">
-        <v>15</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="6">
+        <v>14</v>
+      </c>
+      <c r="B71" s="28">
+        <v>15</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="29">
         <v>50</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="5">
+      <c r="F71" s="29"/>
+      <c r="G71" s="28">
         <v>10</v>
       </c>
       <c r="H71" s="5"/>
@@ -5102,31 +5094,28 @@
         <f>O71/L71</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="R71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="11">
-        <v>15</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72">
+        <v>14</v>
+      </c>
+      <c r="B72" s="30">
+        <v>15</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="27">
         <v>50</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="30">
         <v>10</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I72">
         <v>49</v>
@@ -5150,28 +5139,28 @@
       <c r="O72" s="13"/>
       <c r="P72" s="14"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="31">
+        <v>15</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="32">
+        <v>50</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="31">
+        <v>10</v>
+      </c>
+      <c r="H73" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B73" s="16">
-        <v>15</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="17">
-        <v>50</v>
-      </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="16">
-        <v>10</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I73" s="17">
         <v>25</v>
@@ -5195,25 +5184,25 @@
       <c r="O73" s="19"/>
       <c r="P73" s="20"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="5">
+        <v>18</v>
+      </c>
+      <c r="B74" s="28">
         <v>8</v>
       </c>
-      <c r="C74" s="5">
-        <v>15</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="C74" s="28">
+        <v>15</v>
+      </c>
+      <c r="D74" s="28">
         <v>70</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="29">
         <v>100</v>
       </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="5" t="s">
-        <v>20</v>
+      <c r="F74" s="29"/>
+      <c r="G74" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="6">
@@ -5242,31 +5231,28 @@
         <f>O74/L74</f>
         <v>0.45051194539249145</v>
       </c>
-      <c r="R74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="11">
+        <v>18</v>
+      </c>
+      <c r="B75" s="30">
         <v>8</v>
       </c>
-      <c r="C75" s="11">
-        <v>15</v>
-      </c>
-      <c r="D75" s="11">
+      <c r="C75" s="30">
+        <v>15</v>
+      </c>
+      <c r="D75" s="30">
         <v>70</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="27">
         <v>100</v>
       </c>
-      <c r="G75" s="11" t="s">
-        <v>20</v>
+      <c r="G75" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I75" s="11">
         <v>69</v>
@@ -5290,28 +5276,28 @@
       <c r="O75" s="13"/>
       <c r="P75" s="14"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="16">
+        <v>18</v>
+      </c>
+      <c r="B76" s="31">
         <v>8</v>
       </c>
-      <c r="C76" s="16">
-        <v>15</v>
-      </c>
-      <c r="D76" s="16">
+      <c r="C76" s="31">
+        <v>15</v>
+      </c>
+      <c r="D76" s="31">
         <v>70</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="32">
         <v>100</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="16" t="s">
-        <v>20</v>
+      <c r="F76" s="32"/>
+      <c r="G76" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I76" s="17">
         <v>93</v>
@@ -5335,25 +5321,25 @@
       <c r="O76" s="19"/>
       <c r="P76" s="20"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="5">
+        <v>18</v>
+      </c>
+      <c r="B77" s="28">
         <v>8</v>
       </c>
-      <c r="C77" s="5">
-        <v>15</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C77" s="28">
+        <v>15</v>
+      </c>
+      <c r="D77" s="28">
         <v>50</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="29">
         <v>70</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="5" t="s">
-        <v>20</v>
+      <c r="F77" s="29"/>
+      <c r="G77" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="6">
@@ -5383,27 +5369,27 @@
         <v>0.52338530066815148</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="11">
+        <v>18</v>
+      </c>
+      <c r="B78" s="30">
         <v>8</v>
       </c>
-      <c r="C78" s="11">
-        <v>15</v>
-      </c>
-      <c r="D78" s="11">
+      <c r="C78" s="30">
+        <v>15</v>
+      </c>
+      <c r="D78" s="30">
         <v>50</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="27">
         <v>70</v>
       </c>
-      <c r="G78" s="11" t="s">
-        <v>20</v>
+      <c r="G78" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I78" s="11">
         <v>116</v>
@@ -5427,28 +5413,28 @@
       <c r="O78" s="13"/>
       <c r="P78" s="14"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="16">
+        <v>18</v>
+      </c>
+      <c r="B79" s="31">
         <v>8</v>
       </c>
-      <c r="C79" s="16">
-        <v>15</v>
-      </c>
-      <c r="D79" s="16">
+      <c r="C79" s="31">
+        <v>15</v>
+      </c>
+      <c r="D79" s="31">
         <v>50</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="32">
         <v>70</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="16" t="s">
-        <v>20</v>
+      <c r="F79" s="32"/>
+      <c r="G79" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I79" s="17">
         <v>133</v>
@@ -5472,25 +5458,25 @@
       <c r="O79" s="19"/>
       <c r="P79" s="20"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="5">
+        <v>18</v>
+      </c>
+      <c r="B80" s="28">
         <v>8</v>
       </c>
-      <c r="C80" s="5">
-        <v>15</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="6">
+      <c r="C80" s="28">
+        <v>15</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="29">
         <v>50</v>
       </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="5" t="s">
-        <v>20</v>
+      <c r="F80" s="29"/>
+      <c r="G80" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="6">
@@ -5522,25 +5508,25 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="11">
+        <v>18</v>
+      </c>
+      <c r="B81" s="30">
         <v>8</v>
       </c>
-      <c r="C81" s="11">
-        <v>15</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81">
+      <c r="C81" s="30">
+        <v>15</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="27">
         <v>50</v>
       </c>
-      <c r="G81" s="11" t="s">
-        <v>20</v>
+      <c r="G81" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I81" s="11">
         <v>133</v>
@@ -5566,26 +5552,26 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="16">
+        <v>18</v>
+      </c>
+      <c r="B82" s="31">
         <v>8</v>
       </c>
-      <c r="C82" s="16">
-        <v>15</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="17">
+      <c r="C82" s="31">
+        <v>15</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="32">
         <v>50</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="16" t="s">
-        <v>20</v>
+      <c r="F82" s="32"/>
+      <c r="G82" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I82" s="17">
         <v>108</v>
@@ -5611,23 +5597,23 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="5">
+        <v>18</v>
+      </c>
+      <c r="B83" s="28">
         <v>8</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" s="6">
+      <c r="C83" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="29">
         <v>60</v>
       </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="5" t="s">
-        <v>20</v>
+      <c r="F83" s="29"/>
+      <c r="G83" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="6">
@@ -5659,25 +5645,25 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="11">
+        <v>18</v>
+      </c>
+      <c r="B84" s="30">
         <v>8</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84">
+      <c r="C84" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="27">
         <v>60</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>20</v>
+      <c r="G84" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I84">
         <v>251</v>
@@ -5703,26 +5689,26 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="16">
+        <v>18</v>
+      </c>
+      <c r="B85" s="31">
         <v>8</v>
       </c>
-      <c r="C85" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="17">
+      <c r="C85" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="32">
         <v>60</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="16" t="s">
-        <v>20</v>
+      <c r="F85" s="32"/>
+      <c r="G85" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I85" s="17">
         <v>191</v>
@@ -5748,23 +5734,23 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B86" s="5">
-        <v>15</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="5">
+        <v>18</v>
+      </c>
+      <c r="B86" s="28">
+        <v>15</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="28">
         <v>70</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="29">
         <v>100</v>
       </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="5" t="s">
-        <v>20</v>
+      <c r="F86" s="29"/>
+      <c r="G86" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="6">
@@ -5796,25 +5782,25 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="11">
-        <v>15</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="11">
+        <v>18</v>
+      </c>
+      <c r="B87" s="30">
+        <v>15</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="30">
         <v>70</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="27">
         <v>100</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>20</v>
+      <c r="G87" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I87">
         <v>7</v>
@@ -5840,26 +5826,26 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="16">
-        <v>15</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="16">
+        <v>18</v>
+      </c>
+      <c r="B88" s="31">
+        <v>15</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="31">
         <v>70</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="32">
         <v>100</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="16" t="s">
-        <v>20</v>
+      <c r="F88" s="32"/>
+      <c r="G88" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I88" s="17">
         <v>3</v>
@@ -5885,23 +5871,23 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="5">
-        <v>15</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="5">
+        <v>18</v>
+      </c>
+      <c r="B89" s="28">
+        <v>15</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="28">
         <v>60</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="29">
         <v>70</v>
       </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="5" t="s">
-        <v>20</v>
+      <c r="F89" s="29"/>
+      <c r="G89" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="6">
@@ -5933,25 +5919,25 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="11">
-        <v>15</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="11">
+        <v>18</v>
+      </c>
+      <c r="B90" s="30">
+        <v>15</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="30">
         <v>60</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="27">
         <v>70</v>
       </c>
-      <c r="G90" s="11" t="s">
-        <v>20</v>
+      <c r="G90" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I90">
         <v>10</v>
@@ -5977,26 +5963,26 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="16">
-        <v>15</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="16">
+        <v>18</v>
+      </c>
+      <c r="B91" s="31">
+        <v>15</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="31">
         <v>60</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="32">
         <v>70</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="16" t="s">
-        <v>20</v>
+      <c r="F91" s="32"/>
+      <c r="G91" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I91" s="17">
         <v>6</v>
@@ -6022,23 +6008,23 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="5">
-        <v>15</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="5">
+        <v>18</v>
+      </c>
+      <c r="B92" s="28">
+        <v>15</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="28">
         <v>50</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="29">
         <v>60</v>
       </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="5" t="s">
-        <v>20</v>
+      <c r="F92" s="29"/>
+      <c r="G92" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="6">
@@ -6070,25 +6056,25 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="11">
-        <v>15</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="11">
+        <v>18</v>
+      </c>
+      <c r="B93" s="30">
+        <v>15</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="30">
         <v>50</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="27">
         <v>60</v>
       </c>
-      <c r="G93" s="11" t="s">
-        <v>20</v>
+      <c r="G93" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I93">
         <v>17</v>
@@ -6114,26 +6100,26 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="16">
-        <v>15</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="16">
+        <v>18</v>
+      </c>
+      <c r="B94" s="31">
+        <v>15</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="31">
         <v>50</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="32">
         <v>60</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="16" t="s">
-        <v>20</v>
+      <c r="F94" s="32"/>
+      <c r="G94" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I94" s="17">
         <v>5</v>
@@ -6159,23 +6145,23 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="5">
-        <v>15</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="5">
+        <v>18</v>
+      </c>
+      <c r="B95" s="28">
+        <v>15</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="28">
         <v>32</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="29">
         <v>50</v>
       </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="5" t="s">
-        <v>20</v>
+      <c r="F95" s="29"/>
+      <c r="G95" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="6">
@@ -6207,25 +6193,25 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="11">
-        <v>15</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="11">
+        <v>18</v>
+      </c>
+      <c r="B96" s="30">
+        <v>15</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="30">
         <v>32</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="27">
         <v>50</v>
       </c>
-      <c r="G96" s="11" t="s">
-        <v>20</v>
+      <c r="G96" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I96">
         <v>29</v>
@@ -6251,26 +6237,26 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="16">
-        <v>15</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="16">
+        <v>18</v>
+      </c>
+      <c r="B97" s="31">
+        <v>15</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="31">
         <v>32</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97" s="32">
         <v>50</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="16" t="s">
-        <v>20</v>
+      <c r="F97" s="32"/>
+      <c r="G97" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I97" s="17">
         <v>7</v>
@@ -6295,23 +6281,23 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="5">
-        <v>15</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="6">
+        <v>18</v>
+      </c>
+      <c r="B98" s="28">
+        <v>15</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="29">
         <v>32</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="5" t="s">
-        <v>20</v>
+      <c r="F98" s="29"/>
+      <c r="G98" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="6">
@@ -6343,25 +6329,25 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="11">
-        <v>15</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99">
+        <v>18</v>
+      </c>
+      <c r="B99" s="30">
+        <v>15</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="27">
         <v>32</v>
       </c>
-      <c r="G99" s="11" t="s">
-        <v>20</v>
+      <c r="G99" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -6387,26 +6373,26 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="16">
-        <v>15</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="17">
+        <v>18</v>
+      </c>
+      <c r="B100" s="31">
+        <v>15</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="32">
         <v>32</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="16" t="s">
-        <v>20</v>
+      <c r="F100" s="32"/>
+      <c r="G100" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I100" s="17">
         <v>9</v>
@@ -6432,22 +6418,22 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="11">
+        <v>18</v>
+      </c>
+      <c r="B101" s="30">
         <v>8</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="11">
+      <c r="C101" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="30">
         <v>30</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="27">
         <v>60</v>
       </c>
-      <c r="G101" s="11" t="s">
-        <v>20</v>
+      <c r="G101" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="I101">
         <v>398</v>
@@ -6479,22 +6465,22 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="11">
-        <v>15</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="11">
+        <v>18</v>
+      </c>
+      <c r="B102" s="30">
+        <v>15</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="30">
         <v>32</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="27">
         <v>45</v>
       </c>
-      <c r="G102" s="11" t="s">
-        <v>20</v>
+      <c r="G102" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="I102">
         <v>29</v>
@@ -6518,22 +6504,22 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103">
+        <v>18</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="27">
         <v>32</v>
       </c>
-      <c r="G103" s="11" t="s">
-        <v>20</v>
+      <c r="G103" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="I103">
         <v>122</v>
@@ -6557,22 +6543,22 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" s="5">
+        <v>14</v>
+      </c>
+      <c r="B105" s="28">
         <v>8</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="28">
         <v>10</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" s="6">
+      <c r="D105" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="29">
         <v>75</v>
       </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="5">
+      <c r="F105" s="29"/>
+      <c r="G105" s="28">
         <v>20</v>
       </c>
       <c r="H105" s="5"/>
@@ -6605,25 +6591,25 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106" s="11">
+        <v>14</v>
+      </c>
+      <c r="B106" s="30">
         <v>8</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="30">
         <v>10</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="27">
+        <v>75</v>
+      </c>
+      <c r="G106" s="30">
         <v>20</v>
       </c>
-      <c r="E106">
-        <v>75</v>
-      </c>
-      <c r="G106" s="11">
-        <v>20</v>
-      </c>
       <c r="H106" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I106" s="11">
         <v>300</v>
@@ -6649,26 +6635,26 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="31">
+        <v>8</v>
+      </c>
+      <c r="C107" s="31">
+        <v>10</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="32">
+        <v>75</v>
+      </c>
+      <c r="F107" s="32"/>
+      <c r="G107" s="31">
+        <v>20</v>
+      </c>
+      <c r="H107" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B107" s="16">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16">
-        <v>10</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" s="17">
-        <v>75</v>
-      </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="16">
-        <v>20</v>
-      </c>
-      <c r="H107" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I107" s="16">
         <v>320</v>
@@ -6694,22 +6680,22 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" s="5">
+        <v>14</v>
+      </c>
+      <c r="B108" s="28">
         <v>8</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="28">
         <v>10</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108" s="6">
+      <c r="D108" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="29">
         <v>50</v>
       </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="5">
+      <c r="F108" s="29"/>
+      <c r="G108" s="28">
         <v>20</v>
       </c>
       <c r="H108" s="5"/>
@@ -6742,25 +6728,25 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" s="11">
+        <v>14</v>
+      </c>
+      <c r="B109" s="30">
         <v>8</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="30">
         <v>10</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="27">
+        <v>50</v>
+      </c>
+      <c r="G109" s="30">
         <v>20</v>
       </c>
-      <c r="E109">
-        <v>50</v>
-      </c>
-      <c r="G109" s="11">
-        <v>20</v>
-      </c>
       <c r="H109" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I109">
         <v>81</v>
@@ -6786,26 +6772,26 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="31">
+        <v>8</v>
+      </c>
+      <c r="C110" s="31">
+        <v>10</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="32">
+        <v>50</v>
+      </c>
+      <c r="F110" s="32"/>
+      <c r="G110" s="31">
+        <v>20</v>
+      </c>
+      <c r="H110" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B110" s="16">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16">
-        <v>10</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E110" s="17">
-        <v>50</v>
-      </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="16">
-        <v>20</v>
-      </c>
-      <c r="H110" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I110" s="16">
         <v>77</v>
@@ -6831,22 +6817,22 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="5">
-        <v>15</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E111" s="6">
+        <v>14</v>
+      </c>
+      <c r="B111" s="28">
+        <v>15</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="29">
         <v>50</v>
       </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="5">
+      <c r="F111" s="29"/>
+      <c r="G111" s="28">
         <v>10</v>
       </c>
       <c r="H111" s="5"/>
@@ -6880,25 +6866,25 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" s="11">
-        <v>15</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E112">
+        <v>14</v>
+      </c>
+      <c r="B112" s="30">
+        <v>15</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="27">
         <v>50</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112" s="30">
         <v>10</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I112">
         <v>117</v>
@@ -6922,28 +6908,28 @@
       <c r="O112" s="13"/>
       <c r="P112" s="14"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="31">
+        <v>15</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="32">
+        <v>50</v>
+      </c>
+      <c r="F113" s="32"/>
+      <c r="G113" s="31">
+        <v>10</v>
+      </c>
+      <c r="H113" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B113" s="16">
-        <v>15</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E113" s="17">
-        <v>50</v>
-      </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="16">
-        <v>10</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I113" s="17">
         <v>51</v>
@@ -6967,24 +6953,24 @@
       <c r="O113" s="19"/>
       <c r="P113" s="20"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" s="5">
-        <v>15</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E114" s="6">
+        <v>14</v>
+      </c>
+      <c r="B114" s="28">
+        <v>15</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="29">
         <v>60</v>
       </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="5">
+      <c r="F114" s="29"/>
+      <c r="G114" s="28">
         <v>10</v>
       </c>
       <c r="H114" s="5"/>
@@ -7015,27 +7001,27 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" s="11">
-        <v>15</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115">
+        <v>14</v>
+      </c>
+      <c r="B115" s="30">
+        <v>15</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="27">
         <v>60</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115" s="30">
         <v>10</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I115">
         <v>88</v>
@@ -7059,28 +7045,28 @@
       <c r="O115" s="13"/>
       <c r="P115" s="14"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" s="31">
+        <v>15</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="32">
+        <v>60</v>
+      </c>
+      <c r="F116" s="32"/>
+      <c r="G116" s="31">
+        <v>10</v>
+      </c>
+      <c r="H116" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B116" s="16">
-        <v>15</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E116" s="17">
-        <v>60</v>
-      </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="16">
-        <v>10</v>
-      </c>
-      <c r="H116" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I116" s="17">
         <v>39</v>
@@ -7104,24 +7090,24 @@
       <c r="O116" s="19"/>
       <c r="P116" s="20"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B117" s="5">
-        <v>15</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" s="6">
+        <v>14</v>
+      </c>
+      <c r="B117" s="28">
+        <v>15</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="29">
         <v>50</v>
       </c>
-      <c r="F117" s="6"/>
-      <c r="G117" s="5">
+      <c r="F117" s="29"/>
+      <c r="G117" s="28">
         <v>10</v>
       </c>
       <c r="H117" s="5"/>
@@ -7151,31 +7137,28 @@
         <f>O117/L117</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="R117" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="11">
-        <v>15</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118">
+        <v>14</v>
+      </c>
+      <c r="B118" s="30">
+        <v>15</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="27">
         <v>50</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="30">
         <v>10</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I118">
         <v>49</v>
@@ -7199,28 +7182,28 @@
       <c r="O118" s="13"/>
       <c r="P118" s="14"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="31">
+        <v>15</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="32">
+        <v>50</v>
+      </c>
+      <c r="F119" s="32"/>
+      <c r="G119" s="31">
+        <v>10</v>
+      </c>
+      <c r="H119" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B119" s="16">
-        <v>15</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" s="17">
-        <v>50</v>
-      </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="16">
-        <v>10</v>
-      </c>
-      <c r="H119" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="I119" s="17">
         <v>25</v>
@@ -7300,27 +7283,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D2" s="24">
         <v>0.90900000000000003</v>
@@ -7328,13 +7311,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D3" s="24">
         <v>-0.10199999999999999</v>
@@ -7342,13 +7325,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D4" s="24">
         <v>0.27300000000000002</v>
@@ -7356,13 +7339,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D5" s="24">
         <v>9.0999999999999998E-2</v>
@@ -7370,13 +7353,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D6" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -7384,13 +7367,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D7" s="24">
         <v>0.193</v>
@@ -7398,13 +7381,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D8" s="24">
         <v>-0.28399999999999997</v>
@@ -7412,13 +7395,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D9" s="24">
         <v>-0.46500000000000002</v>
@@ -7426,13 +7409,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D10" s="24">
         <v>0.157</v>
@@ -7440,13 +7423,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D11" s="24">
         <v>0.01</v>
@@ -7454,13 +7437,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D12" s="24">
         <v>0.14499999999999999</v>
@@ -7468,13 +7451,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D13" s="24">
         <v>0.90900000000000003</v>
@@ -7482,13 +7465,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D14" s="24">
         <v>-0.20499999999999999</v>
@@ -7496,13 +7479,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D15" s="24">
         <v>0.90900000000000003</v>
@@ -7510,13 +7493,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D16" s="24">
         <v>0.224</v>
@@ -7524,13 +7507,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D17" s="24">
         <v>0.52700000000000002</v>
@@ -7538,13 +7521,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D18" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -7552,13 +7535,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D19" s="24">
         <v>0.16500000000000001</v>
@@ -7566,13 +7549,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D20" s="24">
         <v>0.245</v>
@@ -7580,13 +7563,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D21" s="24">
         <v>-0.27300000000000002</v>
@@ -7594,13 +7577,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D22" s="24">
         <v>0.439</v>
@@ -7608,13 +7591,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D23" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -7622,13 +7605,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D24" s="24">
         <v>-0.52300000000000002</v>
@@ -7636,13 +7619,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D25" s="24">
         <v>0.27500000000000002</v>
@@ -7650,13 +7633,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D26" s="24">
         <v>0.27300000000000002</v>
@@ -7664,13 +7647,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D27" s="24">
         <v>0.51100000000000001</v>
@@ -7678,13 +7661,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D28" s="24">
         <v>0.18099999999999999</v>
@@ -7692,13 +7675,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D29" s="24">
         <v>-4.5999999999999999E-2</v>
@@ -7706,13 +7689,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D30" s="24">
         <v>-9.6000000000000002E-2</v>
@@ -7720,13 +7703,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D31" s="24">
         <v>0.222</v>
@@ -7734,13 +7717,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D32" s="24">
         <v>-7.0000000000000001E-3</v>
@@ -7748,13 +7731,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D33" s="24">
         <v>0.14499999999999999</v>
@@ -7762,13 +7745,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D34" s="24">
         <v>0.17499999999999999</v>
@@ -7776,13 +7759,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D35" s="24">
         <v>-0.11899999999999999</v>
@@ -7790,13 +7773,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D36" s="24">
         <v>0.14499999999999999</v>
@@ -7804,13 +7787,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D37" s="24">
         <v>0.20799999999999999</v>
@@ -7818,13 +7801,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D38" s="24">
         <v>0.27300000000000002</v>
@@ -7832,13 +7815,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D39" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -7846,13 +7829,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D40" s="24">
         <v>0.253</v>
@@ -7860,13 +7843,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D41" s="24">
         <v>0.56200000000000006</v>
@@ -7874,13 +7857,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D42" s="24">
         <v>0.27300000000000002</v>
@@ -7888,13 +7871,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D43" s="24">
         <v>8.6999999999999994E-2</v>
@@ -7902,13 +7885,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D44" s="24">
         <v>-0.23599999999999999</v>
@@ -7916,13 +7899,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D45" s="24">
         <v>9.0999999999999998E-2</v>
@@ -7930,13 +7913,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D46" s="24">
         <v>5.0000000000000001E-3</v>
@@ -7944,13 +7927,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D47" s="24">
         <v>1.0999999999999999E-2</v>
@@ -7958,13 +7941,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D48" s="24">
         <v>-0.23599999999999999</v>
@@ -7972,13 +7955,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D49" s="24">
         <v>0.30599999999999999</v>
@@ -7986,13 +7969,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D50" s="24">
         <v>-9.4E-2</v>
@@ -8000,13 +7983,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D51" s="24">
         <v>0.27300000000000002</v>
@@ -8014,13 +7997,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D52" s="24">
         <v>9.0999999999999998E-2</v>
@@ -8028,13 +8011,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D53" s="24">
         <v>0.36399999999999999</v>
@@ -8042,13 +8025,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D54" s="24">
         <v>-0.113</v>
@@ -8056,13 +8039,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D55" s="24">
         <v>0.17499999999999999</v>
@@ -8070,13 +8053,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D56" s="24">
         <v>0.28299999999999997</v>
@@ -8084,13 +8067,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D57" s="24">
         <v>-0.11</v>
@@ -8098,13 +8081,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D58" s="24">
         <v>0.23499999999999999</v>
@@ -8112,13 +8095,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D59" s="24">
         <v>0.312</v>
@@ -8126,13 +8109,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D60" s="24">
         <v>0.22700000000000001</v>
@@ -8140,13 +8123,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D61" s="24">
         <v>-0.123</v>
@@ -8154,13 +8137,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D62" s="24">
         <v>2.5999999999999999E-2</v>
@@ -8168,13 +8151,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D63" s="24">
         <v>-2.1999999999999999E-2</v>
@@ -8182,13 +8165,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D64" s="24">
         <v>0.183</v>
@@ -8196,13 +8179,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D65" s="24">
         <v>7.9000000000000001E-2</v>
@@ -8210,13 +8193,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D66" s="24">
         <v>-0.23599999999999999</v>
@@ -8224,13 +8207,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D67" s="24">
         <v>0.28899999999999998</v>
@@ -8238,13 +8221,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D68" s="24">
         <v>-9.6000000000000002E-2</v>
@@ -8252,13 +8235,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D69" s="24">
         <v>0.13200000000000001</v>
@@ -8266,13 +8249,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D70" s="24">
         <v>2.4E-2</v>
@@ -8280,13 +8263,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D71" s="24">
         <v>0.121</v>
@@ -8294,13 +8277,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D72" s="24">
         <v>-9.8000000000000004E-2</v>
@@ -8308,13 +8291,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D73" s="24">
         <v>0.13400000000000001</v>
@@ -8322,13 +8305,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D74" s="24">
         <v>0.48499999999999999</v>
@@ -8336,13 +8319,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D75" s="24">
         <v>0.14000000000000001</v>
@@ -8350,13 +8333,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D76" s="24">
         <v>0.32200000000000001</v>
@@ -8364,13 +8347,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D77" s="24">
         <v>0.123</v>
@@ -8378,13 +8361,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D78" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -8392,13 +8375,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D79" s="24">
         <v>-2.5999999999999999E-2</v>
@@ -8406,13 +8389,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D80" s="24">
         <v>0.13800000000000001</v>
@@ -8420,13 +8403,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D81" s="24">
         <v>-5.0000000000000001E-3</v>
@@ -8434,13 +8417,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D82" s="24">
         <v>0.38800000000000001</v>
@@ -8448,13 +8431,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D83" s="24">
         <v>-7.5999999999999998E-2</v>
@@ -8462,13 +8445,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D84" s="24">
         <v>0.14499999999999999</v>
@@ -8476,13 +8459,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D85" s="24">
         <v>-1</v>
@@ -8490,13 +8473,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D86" s="24">
         <v>0.27300000000000002</v>
@@ -8504,13 +8487,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D87" s="24">
         <v>-2.4E-2</v>
@@ -8518,13 +8501,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D88" s="24">
         <v>0.23499999999999999</v>
@@ -8532,13 +8515,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C89" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D89" s="24">
         <v>-0.32700000000000001</v>
@@ -8546,13 +8529,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C90" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D90" s="24">
         <v>-0.182</v>
@@ -8560,13 +8543,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D91" s="24">
         <v>5.7000000000000002E-2</v>
@@ -8574,13 +8557,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D92" s="24">
         <v>-4.4999999999999998E-2</v>
@@ -8588,13 +8571,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D93" s="24">
         <v>5.3999999999999999E-2</v>
@@ -8602,13 +8585,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D94" s="24">
         <v>-0.19400000000000001</v>
@@ -8616,13 +8599,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D95" s="24">
         <v>-0.19600000000000001</v>
@@ -8630,13 +8613,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D96" s="24">
         <v>-0.38</v>
@@ -8644,13 +8627,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D97" s="24">
         <v>0.34499999999999997</v>
@@ -8658,13 +8641,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C98" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D98" s="24">
         <v>-0.40300000000000002</v>
@@ -8672,13 +8655,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D99" s="24">
         <v>0.90900000000000003</v>
@@ -8686,13 +8669,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C100" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D100" s="24">
         <v>0.17499999999999999</v>
@@ -8700,13 +8683,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C101" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D101" s="24">
         <v>-0.10199999999999999</v>
@@ -8714,13 +8697,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C102" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D102" s="24">
         <v>0.14000000000000001</v>
@@ -8728,13 +8711,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D103" s="24">
         <v>0.432</v>
@@ -8742,13 +8725,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C104" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D104" s="24">
         <v>0.27300000000000002</v>
@@ -8756,13 +8739,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B105" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C105" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D105" s="24">
         <v>1.0999999999999999E-2</v>
@@ -8770,13 +8753,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C106" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D106" s="24">
         <v>0.28299999999999997</v>
@@ -8784,13 +8767,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D107" s="24">
         <v>-9.0999999999999998E-2</v>
@@ -8798,13 +8781,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C108" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D108" s="24">
         <v>2.3E-2</v>
@@ -8812,13 +8795,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B109" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D109" s="24">
         <v>0</v>
@@ -8826,13 +8809,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B110" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D110" s="24">
         <v>-0.17</v>
@@ -8840,13 +8823,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C111" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D111" s="24">
         <v>0.90900000000000003</v>
@@ -8854,13 +8837,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B112" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D112" s="24">
         <v>0.16900000000000001</v>
@@ -8868,13 +8851,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B113" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D113" s="24">
         <v>0.90900000000000003</v>
@@ -8882,13 +8865,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B114" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D114" s="24">
         <v>-0.186</v>
@@ -8896,13 +8879,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B115" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D115" s="24">
         <v>-0.214</v>
@@ -8910,13 +8893,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D116" s="24">
         <v>0.245</v>
@@ -8924,13 +8907,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C117" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D117" s="24">
         <v>0.30599999999999999</v>
@@ -8938,13 +8921,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D118" s="24">
         <v>0.193</v>
@@ -8952,13 +8935,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B119" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D119" s="24">
         <v>0.214</v>
@@ -8966,13 +8949,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D120" s="24">
         <v>0</v>
@@ -8980,13 +8963,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B121" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D121" s="24">
         <v>0</v>
@@ -8994,13 +8977,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D122" s="24">
         <v>0</v>
@@ -9008,13 +8991,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B123" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D123" s="24">
         <v>0</v>
@@ -9022,13 +9005,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D124" s="24">
         <v>0.33600000000000002</v>
@@ -9036,13 +9019,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D125" s="24">
         <v>-0.125</v>
@@ -9050,13 +9033,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B126" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D126" s="24">
         <v>0.90900000000000003</v>
@@ -9064,13 +9047,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B127" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D127" s="24">
         <v>-0.182</v>
@@ -9078,13 +9061,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B128" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D128" s="24">
         <v>-9.0999999999999998E-2</v>
@@ -9092,13 +9075,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B129" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D129" s="24">
         <v>-0.442</v>
@@ -9106,13 +9089,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D130" s="24">
         <v>0.16899999999999998</v>

--- a/cfb_weather_backtest.xlsx
+++ b/cfb_weather_backtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckin\Dropbox\MS Docs\Work\Sublime_Misc\football_weather_repo\football_weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699EF812-3D98-4C39-BF88-7CCF162ECB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B57E9B-7EAA-4E64-91B9-0CA456E797F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45300" yWindow="0" windowWidth="31605" windowHeight="20985" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
   </bookViews>
@@ -1747,7 +1747,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,36 +1831,39 @@
       <c r="E2" s="29">
         <v>100</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="29">
+        <v>10</v>
+      </c>
       <c r="G2" s="28">
         <v>20</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6">
-        <v>420</v>
+        <v>165</v>
       </c>
       <c r="J2" s="6">
-        <v>403</v>
+        <v>162</v>
       </c>
       <c r="K2" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L65" si="0">SUM(I2:K2)</f>
-        <v>835</v>
+        <v>333</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.32</v>
+        <v>-2.08</v>
       </c>
       <c r="N2" s="7">
-        <v>-2.5000000000000001E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="O2" s="8">
-        <v>417</v>
+        <f>SUM(I3:K3)</f>
+        <v>163</v>
       </c>
       <c r="P2" s="9">
         <f>O2/L2</f>
-        <v>0.4994011976047904</v>
+        <v>0.4894894894894895</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1879,6 +1882,9 @@
       <c r="E3" s="27">
         <v>100</v>
       </c>
+      <c r="F3" s="27">
+        <v>10</v>
+      </c>
       <c r="G3" s="30">
         <v>20</v>
       </c>
@@ -1886,23 +1892,23 @@
         <v>15</v>
       </c>
       <c r="I3" s="11">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="J3" s="11">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="K3" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>417</v>
-      </c>
-      <c r="M3">
-        <v>0.78</v>
+        <v>163</v>
+      </c>
+      <c r="M3" s="11">
+        <v>-2.94</v>
       </c>
       <c r="N3" s="12">
-        <v>6.7000000000000004E-2</v>
+        <v>-0.115</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
@@ -1923,7 +1929,9 @@
       <c r="E4" s="32">
         <v>100</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="32">
+        <v>10</v>
+      </c>
       <c r="G4" s="31">
         <v>20</v>
       </c>
@@ -1931,23 +1939,23 @@
         <v>16</v>
       </c>
       <c r="I4" s="17">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="J4" s="17">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="K4" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L4" s="17">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>170</v>
       </c>
       <c r="M4" s="17">
-        <v>-1.92</v>
+        <v>-1.25</v>
       </c>
       <c r="N4" s="18">
-        <v>-4.7E-2</v>
+        <v>0.04</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
@@ -1968,36 +1976,39 @@
       <c r="E5" s="29">
         <v>75</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="29">
+        <v>10</v>
+      </c>
       <c r="G5" s="28">
         <v>20</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6">
-        <v>631</v>
+        <v>230</v>
       </c>
       <c r="J5" s="6">
-        <v>505</v>
+        <v>190</v>
       </c>
       <c r="K5" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>426</v>
       </c>
       <c r="M5" s="6">
         <v>0.55000000000000004</v>
       </c>
       <c r="N5" s="7">
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O5" s="8">
-        <v>596</v>
+        <f>SUM(I6:K6)</f>
+        <v>237</v>
       </c>
       <c r="P5" s="9">
         <f>O5/L5</f>
-        <v>0.51826086956521744</v>
+        <v>0.55633802816901412</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2016,6 +2027,9 @@
       <c r="E6" s="27">
         <v>75</v>
       </c>
+      <c r="F6" s="27">
+        <v>10</v>
+      </c>
       <c r="G6" s="30">
         <v>20</v>
       </c>
@@ -2023,23 +2037,23 @@
         <v>15</v>
       </c>
       <c r="I6" s="11">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="J6" s="11">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="K6" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="M6">
-        <v>0.78</v>
+        <v>237</v>
+      </c>
+      <c r="M6" s="11">
+        <v>-0.53</v>
       </c>
       <c r="N6" s="12">
-        <v>3.5000000000000003E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="14"/>
@@ -2060,7 +2074,9 @@
       <c r="E7" s="32">
         <v>75</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="32">
+        <v>10</v>
+      </c>
       <c r="G7" s="31">
         <v>20</v>
       </c>
@@ -2068,23 +2084,23 @@
         <v>16</v>
       </c>
       <c r="I7" s="17">
-        <v>311</v>
+        <v>111</v>
       </c>
       <c r="J7" s="17">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="K7" s="17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L7" s="17">
         <f t="shared" si="0"/>
-        <v>554</v>
+        <v>191</v>
       </c>
       <c r="M7" s="17">
-        <v>1.08</v>
+        <v>1.89</v>
       </c>
       <c r="N7" s="18">
-        <v>8.5999999999999993E-2</v>
+        <v>0.125</v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="20"/>
@@ -2105,36 +2121,39 @@
       <c r="E8" s="29">
         <v>60</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="29">
+        <v>10</v>
+      </c>
       <c r="G8" s="28">
         <v>20</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6">
-        <v>399</v>
+        <v>148</v>
       </c>
       <c r="J8" s="6">
-        <v>309</v>
+        <v>106</v>
       </c>
       <c r="K8" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="0"/>
-        <v>716</v>
+        <v>258</v>
       </c>
       <c r="M8" s="6">
-        <v>0.56000000000000005</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N8" s="7">
-        <v>7.4999999999999997E-2</v>
+        <v>0.111</v>
       </c>
       <c r="O8" s="8">
-        <v>346</v>
+        <f>SUM(I9:K9)</f>
+        <v>118</v>
       </c>
       <c r="P8" s="9">
         <f>O8/L8</f>
-        <v>0.48324022346368717</v>
+        <v>0.4573643410852713</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2153,6 +2172,9 @@
       <c r="E9" s="27">
         <v>60</v>
       </c>
+      <c r="F9" s="27">
+        <v>10</v>
+      </c>
       <c r="G9" s="30">
         <v>20</v>
       </c>
@@ -2160,23 +2182,23 @@
         <v>15</v>
       </c>
       <c r="I9" s="11">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="J9" s="11">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="K9" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>346</v>
-      </c>
-      <c r="M9">
-        <v>1.17</v>
+        <v>118</v>
+      </c>
+      <c r="M9" s="11">
+        <v>2.4900000000000002</v>
       </c>
       <c r="N9" s="12">
-        <v>0.115</v>
+        <v>0.222</v>
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="14"/>
@@ -2197,7 +2219,9 @@
       <c r="E10" s="32">
         <v>60</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="32">
+        <v>10</v>
+      </c>
       <c r="G10" s="31">
         <v>20</v>
       </c>
@@ -2205,23 +2229,23 @@
         <v>16</v>
       </c>
       <c r="I10" s="17">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="J10" s="17">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="K10" s="17">
-        <v>4</v>
-      </c>
-      <c r="L10" s="17">
+        <v>3</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>143</v>
       </c>
       <c r="M10" s="17">
-        <v>-0.02</v>
+        <v>0.04</v>
       </c>
       <c r="N10" s="18">
-        <v>3.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="20"/>
@@ -2242,36 +2266,38 @@
       <c r="E11" s="29">
         <v>50</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <v>10</v>
+      </c>
       <c r="G11" s="28">
         <v>20</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6">
-        <v>388</v>
+        <v>144</v>
       </c>
       <c r="J11" s="6">
-        <v>327</v>
+        <v>121</v>
       </c>
       <c r="K11" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="0"/>
-        <v>721</v>
+        <f>SUM(I11:K11)</f>
+        <v>267</v>
       </c>
       <c r="M11" s="6">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
       <c r="N11" s="7">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="O11" s="8">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="P11" s="9">
         <f>O11/L11</f>
-        <v>0.50485436893203883</v>
+        <v>0.47191011235955055</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2290,30 +2316,33 @@
       <c r="E12" s="27">
         <v>50</v>
       </c>
+      <c r="F12" s="27">
+        <v>10</v>
+      </c>
       <c r="G12" s="30">
         <v>20</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="11">
-        <v>204</v>
-      </c>
-      <c r="J12" s="11">
-        <v>158</v>
-      </c>
-      <c r="K12" s="11">
-        <v>2</v>
+      <c r="I12">
+        <v>79</v>
+      </c>
+      <c r="J12">
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
-        <v>364</v>
+        <f>SUM(I12:K12)</f>
+        <v>126</v>
       </c>
       <c r="M12">
-        <v>1.64</v>
+        <v>2.79</v>
       </c>
       <c r="N12" s="12">
-        <v>7.4999999999999997E-2</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
@@ -2334,7 +2363,9 @@
       <c r="E13" s="32">
         <v>50</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="32">
+        <v>10</v>
+      </c>
       <c r="G13" s="31">
         <v>20</v>
       </c>
@@ -2342,23 +2373,23 @@
         <v>16</v>
       </c>
       <c r="I13" s="17">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="J13" s="17">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="K13" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="17">
-        <f t="shared" si="0"/>
-        <v>357</v>
+        <f t="shared" ref="L13:L48" si="1">SUM(I13:K13)</f>
+        <v>141</v>
       </c>
       <c r="M13" s="17">
-        <v>-0.48</v>
+        <v>-1.62</v>
       </c>
       <c r="N13" s="18">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.113</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="20"/>
@@ -2379,39 +2410,37 @@
       <c r="E14" s="29">
         <v>100</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="29"/>
+      <c r="G14" s="28">
         <v>10</v>
-      </c>
-      <c r="G14" s="28">
-        <v>20</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="6">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="J14" s="6">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="K14" s="6">
         <v>6</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="M14" s="6">
-        <v>-2.08</v>
+        <v>-1.27</v>
       </c>
       <c r="N14" s="7">
-        <v>-3.5999999999999997E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="O14" s="8">
         <f>SUM(I15:K15)</f>
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="P14" s="9">
         <f>O14/L14</f>
-        <v>0.4894894894894895</v>
+        <v>0.51031894934333955</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2430,33 +2459,31 @@
       <c r="E15" s="27">
         <v>100</v>
       </c>
-      <c r="F15" s="27">
+      <c r="G15" s="30">
         <v>10</v>
       </c>
-      <c r="G15" s="30">
-        <v>20</v>
-      </c>
       <c r="H15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="11">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="J15" s="11">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="K15" s="11">
-        <v>3</v>
+        <f>K27-K3</f>
+        <v>2</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="M15" s="11">
-        <v>-2.94</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N15" s="12">
-        <v>-0.115</v>
+        <v>3.9E-2</v>
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
@@ -2477,33 +2504,32 @@
       <c r="E16" s="32">
         <v>100</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="32"/>
+      <c r="G16" s="31">
         <v>10</v>
-      </c>
-      <c r="G16" s="31">
-        <v>20</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="17">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="J16" s="17">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="K16" s="17">
-        <v>3</v>
+        <f>K28-K4</f>
+        <v>4</v>
       </c>
       <c r="L16" s="17">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="M16" s="17">
-        <v>-1.25</v>
+        <v>-2.89</v>
       </c>
       <c r="N16" s="18">
-        <v>0.04</v>
+        <v>-0.129</v>
       </c>
       <c r="O16" s="19"/>
       <c r="P16" s="20"/>
@@ -2524,39 +2550,38 @@
       <c r="E17" s="29">
         <v>75</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="29"/>
+      <c r="G17" s="28">
         <v>10</v>
-      </c>
-      <c r="G17" s="28">
-        <v>20</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="6">
-        <v>230</v>
+        <v>419</v>
       </c>
       <c r="J17" s="6">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="K17" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>755</v>
       </c>
       <c r="M17" s="6">
-        <v>0.55000000000000004</v>
+        <f>M29-M5</f>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>4.4999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O17" s="8">
         <f>SUM(I18:K18)</f>
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="P17" s="9">
         <f>O17/L17</f>
-        <v>0.55633802816901412</v>
+        <v>0.51258278145695368</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2575,33 +2600,30 @@
       <c r="E18" s="27">
         <v>75</v>
       </c>
-      <c r="F18" s="27">
+      <c r="G18" s="30">
         <v>10</v>
       </c>
-      <c r="G18" s="30">
-        <v>20</v>
-      </c>
       <c r="H18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="11">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="J18" s="11">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="K18" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="M18" s="11">
-        <v>-0.53</v>
+        <v>0.5</v>
       </c>
       <c r="N18" s="12">
-        <v>-0.02</v>
+        <v>7.8E-2</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="14"/>
@@ -2622,33 +2644,32 @@
       <c r="E19" s="32">
         <v>75</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="32"/>
+      <c r="G19" s="31">
         <v>10</v>
-      </c>
-      <c r="G19" s="31">
-        <v>20</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="17">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="J19" s="17">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="K19" s="17">
-        <v>3</v>
+        <f>K31-K7</f>
+        <v>5</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="M19" s="17">
-        <v>1.89</v>
+        <v>0.69</v>
       </c>
       <c r="N19" s="18">
-        <v>0.125</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="O19" s="19"/>
       <c r="P19" s="20"/>
@@ -2669,39 +2690,37 @@
       <c r="E20" s="29">
         <v>60</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="29"/>
+      <c r="G20" s="28">
         <v>10</v>
-      </c>
-      <c r="G20" s="28">
-        <v>20</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="6">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="J20" s="6">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="K20" s="6">
         <v>4</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>480</v>
       </c>
       <c r="M20" s="6">
-        <v>1.1599999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="N20" s="7">
-        <v>0.111</v>
+        <v>6.2E-2</v>
       </c>
       <c r="O20" s="8">
         <f>SUM(I21:K21)</f>
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="P20" s="9">
         <f>O20/L20</f>
-        <v>0.4573643410852713</v>
+        <v>0.49791666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -2720,33 +2739,31 @@
       <c r="E21" s="27">
         <v>60</v>
       </c>
-      <c r="F21" s="27">
+      <c r="G21" s="30">
         <v>10</v>
       </c>
-      <c r="G21" s="30">
-        <v>20</v>
-      </c>
       <c r="H21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="11">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="J21" s="11">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="K21" s="11">
-        <v>1</v>
+        <f>K33-K9</f>
+        <v>3</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="M21" s="11">
-        <v>2.4900000000000002</v>
+        <v>0.68</v>
       </c>
       <c r="N21" s="12">
-        <v>0.222</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="14"/>
@@ -2767,33 +2784,32 @@
       <c r="E22" s="32">
         <v>60</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="32"/>
+      <c r="G22" s="31">
         <v>10</v>
-      </c>
-      <c r="G22" s="31">
-        <v>20</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="17">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="J22" s="17">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="K22" s="17">
-        <v>3</v>
+        <f>K34-K10</f>
+        <v>1</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="M22" s="17">
-        <v>0.04</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="N22" s="18">
-        <v>1.7000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="20"/>
@@ -2814,38 +2830,37 @@
       <c r="E23" s="29">
         <v>50</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="29"/>
+      <c r="G23" s="28">
         <v>10</v>
-      </c>
-      <c r="G23" s="28">
-        <v>20</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="J23" s="6">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="K23" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23" s="6">
-        <f>SUM(I23:K23)</f>
-        <v>267</v>
+        <f t="shared" si="0"/>
+        <v>478</v>
       </c>
       <c r="M23" s="6">
-        <v>0.46</v>
+        <v>0.93</v>
       </c>
       <c r="N23" s="7">
-        <v>3.6999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="O23" s="8">
-        <v>126</v>
+        <f>SUM(I24:K24)</f>
+        <v>226</v>
       </c>
       <c r="P23" s="9">
         <f>O23/L23</f>
-        <v>0.47191011235955055</v>
+        <v>0.47280334728033474</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2864,33 +2879,30 @@
       <c r="E24" s="27">
         <v>50</v>
       </c>
-      <c r="F24" s="27">
+      <c r="G24" s="30">
         <v>10</v>
       </c>
-      <c r="G24" s="30">
-        <v>20</v>
-      </c>
       <c r="H24" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I24">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="J24">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <f>SUM(I24:K24)</f>
-        <v>126</v>
+        <f t="shared" si="0"/>
+        <v>226</v>
       </c>
       <c r="M24">
-        <v>2.79</v>
+        <v>0.46</v>
       </c>
       <c r="N24" s="12">
-        <v>0.20499999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="O24" s="13"/>
       <c r="P24" s="14"/>
@@ -2911,33 +2923,36 @@
       <c r="E25" s="32">
         <v>50</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="32"/>
+      <c r="G25" s="31">
         <v>10</v>
-      </c>
-      <c r="G25" s="31">
-        <v>20</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="17">
-        <v>65</v>
+        <f>I37-I13</f>
+        <v>119</v>
       </c>
       <c r="J25" s="17">
-        <v>75</v>
+        <f>J37-J13</f>
+        <v>94</v>
       </c>
       <c r="K25" s="17">
-        <v>1</v>
+        <f>K37-K13</f>
+        <v>3</v>
       </c>
       <c r="L25" s="17">
-        <f t="shared" ref="L25:L48" si="1">SUM(I25:K25)</f>
-        <v>141</v>
+        <f t="shared" si="0"/>
+        <v>216</v>
       </c>
       <c r="M25" s="17">
-        <v>-1.62</v>
+        <f>M37-M13</f>
+        <v>1.1400000000000001</v>
       </c>
       <c r="N25" s="18">
-        <v>-0.113</v>
+        <f>N37-N13</f>
+        <v>0.108</v>
       </c>
       <c r="O25" s="19"/>
       <c r="P25" s="20"/>
@@ -2960,35 +2975,34 @@
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6">
-        <v>264</v>
+        <v>420</v>
       </c>
       <c r="J26" s="6">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="K26" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="0"/>
-        <v>533</v>
+        <f>SUM(I26:K26)</f>
+        <v>835</v>
       </c>
       <c r="M26" s="6">
-        <v>-1.27</v>
+        <v>-1.32</v>
       </c>
       <c r="N26" s="7">
-        <v>-4.2999999999999997E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="O26" s="8">
-        <f>SUM(I27:K27)</f>
-        <v>272</v>
+        <v>417</v>
       </c>
       <c r="P26" s="9">
         <f>O26/L26</f>
-        <v>0.51031894934333955</v>
+        <v>0.4994011976047904</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -3008,30 +3022,29 @@
         <v>100</v>
       </c>
       <c r="G27" s="30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="11">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="J27" s="11">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" ref="K27:K28" si="2">K3-K15</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
-        <v>272</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0.28000000000000003</v>
+        <f>SUM(I27:K27)</f>
+        <v>417</v>
+      </c>
+      <c r="M27">
+        <v>0.78</v>
       </c>
       <c r="N27" s="12">
-        <v>3.9E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
@@ -3054,30 +3067,29 @@
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="17">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="J28" s="17">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="K28" s="17">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L28" s="17">
-        <f t="shared" si="0"/>
-        <v>261</v>
+        <f>SUM(I28:K28)</f>
+        <v>418</v>
       </c>
       <c r="M28" s="17">
-        <v>-2.89</v>
+        <v>-1.92</v>
       </c>
       <c r="N28" s="18">
-        <v>-0.129</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28" s="20"/>
@@ -3100,36 +3112,34 @@
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6">
-        <v>419</v>
+        <v>631</v>
       </c>
       <c r="J29" s="6">
-        <v>328</v>
+        <v>505</v>
       </c>
       <c r="K29" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="0"/>
-        <v>755</v>
+        <f>SUM(I29:K29)</f>
+        <v>1150</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" ref="M29" si="3">M5-M17</f>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N29" s="7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O29" s="8">
-        <f>SUM(I30:K30)</f>
-        <v>387</v>
+        <v>596</v>
       </c>
       <c r="P29" s="9">
         <f>O29/L29</f>
-        <v>0.51258278145695368</v>
+        <v>0.51826086956521744</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -3149,29 +3159,29 @@
         <v>75</v>
       </c>
       <c r="G30" s="30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="11">
-        <v>217</v>
+        <v>320</v>
       </c>
       <c r="J30" s="11">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="K30" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
-        <v>387</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0.5</v>
+        <f>SUM(I30:K30)</f>
+        <v>596</v>
+      </c>
+      <c r="M30">
+        <v>0.78</v>
       </c>
       <c r="N30" s="12">
-        <v>7.8E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="O30" s="13"/>
       <c r="P30" s="14"/>
@@ -3194,30 +3204,29 @@
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I31" s="17">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="J31" s="17">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="K31" s="17">
-        <f t="shared" ref="K31" si="4">K7-K19</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L31" s="17">
-        <f t="shared" si="0"/>
-        <v>368</v>
+        <f>SUM(I31:K31)</f>
+        <v>554</v>
       </c>
       <c r="M31" s="17">
-        <v>0.69</v>
+        <v>1.08</v>
       </c>
       <c r="N31" s="18">
-        <v>6.0999999999999999E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="O31" s="19"/>
       <c r="P31" s="20"/>
@@ -3240,35 +3249,34 @@
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6">
-        <v>265</v>
+        <v>399</v>
       </c>
       <c r="J32" s="6">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="K32" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f>SUM(I32:K32)</f>
+        <v>716</v>
       </c>
       <c r="M32" s="6">
-        <v>0.2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N32" s="7">
-        <v>6.2E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O32" s="8">
-        <f>SUM(I33:K33)</f>
-        <v>239</v>
+        <v>346</v>
       </c>
       <c r="P32" s="9">
         <f>O32/L32</f>
-        <v>0.49791666666666667</v>
+        <v>0.48324022346368717</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3288,30 +3296,29 @@
         <v>60</v>
       </c>
       <c r="G33" s="30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="11">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="J33" s="11">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="K33" s="11">
-        <f t="shared" ref="K33:K34" si="5">K9-K21</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
-        <v>239</v>
-      </c>
-      <c r="M33" s="11">
-        <v>0.68</v>
+        <f>SUM(I33:K33)</f>
+        <v>346</v>
+      </c>
+      <c r="M33">
+        <v>1.17</v>
       </c>
       <c r="N33" s="12">
-        <v>8.3000000000000004E-2</v>
+        <v>0.115</v>
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="14"/>
@@ -3334,30 +3341,29 @@
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="17">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="J34" s="17">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="K34" s="17">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>241</v>
+        <v>4</v>
+      </c>
+      <c r="L34" s="17">
+        <f>SUM(I34:K34)</f>
+        <v>370</v>
       </c>
       <c r="M34" s="17">
-        <v>-0.28000000000000003</v>
+        <v>-0.02</v>
       </c>
       <c r="N34" s="18">
-        <v>4.2000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="O34" s="19"/>
       <c r="P34" s="20"/>
@@ -3380,35 +3386,34 @@
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6">
-        <v>261</v>
+        <v>388</v>
       </c>
       <c r="J35" s="6">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="K35" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="0"/>
-        <v>478</v>
+        <f>SUM(I35:K35)</f>
+        <v>721</v>
       </c>
       <c r="M35" s="6">
-        <v>0.93</v>
+        <v>0.59</v>
       </c>
       <c r="N35" s="7">
-        <v>5.0999999999999997E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="O35" s="8">
-        <f>SUM(I36:K36)</f>
-        <v>226</v>
+        <v>364</v>
       </c>
       <c r="P35" s="9">
         <f>O35/L35</f>
-        <v>0.47280334728033474</v>
+        <v>0.50485436893203883</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3428,29 +3433,29 @@
         <v>50</v>
       </c>
       <c r="G36" s="30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I36">
-        <v>125</v>
-      </c>
-      <c r="J36">
-        <v>98</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
+      <c r="I36" s="11">
+        <v>204</v>
+      </c>
+      <c r="J36" s="11">
+        <v>158</v>
+      </c>
+      <c r="K36" s="11">
+        <v>2</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
-        <v>226</v>
+        <f>SUM(I36:K36)</f>
+        <v>364</v>
       </c>
       <c r="M36">
-        <v>0.46</v>
+        <v>1.64</v>
       </c>
       <c r="N36" s="12">
-        <v>6.9000000000000006E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="14"/>
@@ -3473,34 +3478,29 @@
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="17">
-        <f t="shared" ref="I37:N37" si="6">I13-I25</f>
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="J37" s="17">
-        <f t="shared" si="6"/>
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="K37" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L37" s="17">
-        <f t="shared" si="0"/>
-        <v>216</v>
+        <f>SUM(I37:K37)</f>
+        <v>357</v>
       </c>
       <c r="M37" s="17">
-        <f t="shared" si="6"/>
-        <v>1.1400000000000001</v>
+        <v>-0.48</v>
       </c>
       <c r="N37" s="18">
-        <f t="shared" si="6"/>
-        <v>0.108</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="O37" s="19"/>
       <c r="P37" s="20"/>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" ref="L50:L52" si="7">SUM(I50:K50)</f>
+        <f t="shared" ref="L50:L52" si="2">SUM(I50:K50)</f>
         <v>119</v>
       </c>
       <c r="M50" s="6">
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="M51">
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="M52" s="17">
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L103" si="8">SUM(I66:K66)</f>
+        <f t="shared" ref="L66:L103" si="3">SUM(I66:K66)</f>
         <v>68</v>
       </c>
       <c r="M66" s="11">
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="M67" s="16">
@@ -4940,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="M68" s="6">
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="M69" s="11">
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="M70" s="16">
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="M71" s="6">
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="M72" s="11">
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="M73" s="17">
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>293</v>
       </c>
       <c r="M74" s="6">
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="M75" s="11">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
       <c r="M76" s="17">
@@ -5352,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>449</v>
       </c>
       <c r="M77" s="6">
@@ -5401,7 +5401,7 @@
         <v>6</v>
       </c>
       <c r="L78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="M78" s="11">
@@ -5446,7 +5446,7 @@
         <v>6</v>
       </c>
       <c r="L79" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="M79" s="17">
@@ -5489,7 +5489,7 @@
         <v>5</v>
       </c>
       <c r="L80" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>428</v>
       </c>
       <c r="M80" s="6">
@@ -5538,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="L81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="M81" s="11">
@@ -5583,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
       <c r="M82" s="17">
@@ -5626,7 +5626,7 @@
         <v>13</v>
       </c>
       <c r="L83" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>760</v>
       </c>
       <c r="M83" s="6">
@@ -5675,7 +5675,7 @@
         <v>9</v>
       </c>
       <c r="L84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>460</v>
       </c>
       <c r="M84">
@@ -5720,7 +5720,7 @@
         <v>5</v>
       </c>
       <c r="L85" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>303</v>
       </c>
       <c r="M85" s="17">
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="M86" s="6">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M87" s="11">
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M88" s="17">
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="M89" s="6">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M90" s="11">
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="M91" s="17">
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="M92" s="6">
@@ -6086,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="M93" s="11">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M94" s="17">
@@ -6174,7 +6174,7 @@
         <v>2</v>
       </c>
       <c r="L95" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="M95" s="6">
@@ -6223,7 +6223,7 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="M96" s="11">
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="6">
-        <f t="shared" ref="L98:L100" si="9">SUM(I98:K98)</f>
+        <f t="shared" ref="L98:L100" si="4">SUM(I98:K98)</f>
         <v>22</v>
       </c>
       <c r="M98" s="6">
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="M99">
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="M100" s="17">
@@ -6445,7 +6445,7 @@
         <v>12</v>
       </c>
       <c r="L101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>670</v>
       </c>
       <c r="M101">
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="L102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="M102">
@@ -6531,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="L103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>261</v>
       </c>
       <c r="M103">
@@ -6572,7 +6572,7 @@
         <v>15</v>
       </c>
       <c r="L105" s="6">
-        <f t="shared" ref="L105:L119" si="10">SUM(I105:K105)</f>
+        <f t="shared" ref="L105:L119" si="5">SUM(I105:K105)</f>
         <v>1140</v>
       </c>
       <c r="M105" s="6">
@@ -6621,7 +6621,7 @@
         <v>4</v>
       </c>
       <c r="L106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>554</v>
       </c>
       <c r="M106" s="11">
@@ -6666,7 +6666,7 @@
         <v>11</v>
       </c>
       <c r="L107" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>586</v>
       </c>
       <c r="M107" s="16">
@@ -6709,7 +6709,7 @@
         <v>2</v>
       </c>
       <c r="L108" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>294</v>
       </c>
       <c r="M108" s="6">
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="M109">
@@ -6803,7 +6803,7 @@
         <v>2</v>
       </c>
       <c r="L110" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="M110" s="16">
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="M111" s="6">
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="L112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="M112" s="11">
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="M113" s="16">
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
       <c r="M114" s="6">
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="M115" s="11">
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="M116" s="17">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="M117" s="6">
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="M118" s="11">
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="M119" s="17">

--- a/cfb_weather_backtest.xlsx
+++ b/cfb_weather_backtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckin\Dropbox\MS Docs\Work\Sublime_Misc\football_weather_repo\football_weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B57E9B-7EAA-4E64-91B9-0CA456E797F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3903F9E-B994-47F8-B54D-AA6A741343E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45300" yWindow="0" windowWidth="31605" windowHeight="20985" xr2:uid="{219F7BC0-C6D1-4389-8714-548F944ECF42}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="383">
   <si>
     <t>Sport</t>
   </si>
@@ -1213,6 +1213,9 @@
   </si>
   <si>
     <t>Spread_h</t>
+  </si>
+  <si>
+    <t>Signal</t>
   </si>
 </sst>
 </file>
@@ -1741,13 +1744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0F9FFD-20B7-4014-BC22-21054032984A}">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1768,7 @@
     <col min="16" max="16" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1814,8 +1817,11 @@
       <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1865,8 +1871,11 @@
         <f>O2/L2</f>
         <v>0.4894894894894895</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -1912,8 +1921,11 @@
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
@@ -1959,8 +1971,11 @@
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2010,8 +2025,11 @@
         <f>O5/L5</f>
         <v>0.55633802816901412</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -2057,8 +2075,11 @@
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
@@ -2104,8 +2125,11 @@
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -2155,8 +2179,11 @@
         <f>O8/L8</f>
         <v>0.4573643410852713</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2202,8 +2229,11 @@
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
@@ -2249,8 +2279,11 @@
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2299,8 +2332,11 @@
         <f>O11/L11</f>
         <v>0.47191011235955055</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -2346,8 +2382,11 @@
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
@@ -2382,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="17">
-        <f t="shared" ref="L13:L48" si="1">SUM(I13:K13)</f>
+        <f t="shared" ref="L13" si="1">SUM(I13:K13)</f>
         <v>141</v>
       </c>
       <c r="M13" s="17">
@@ -2393,8 +2432,11 @@
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2442,8 +2484,11 @@
         <f>O14/L14</f>
         <v>0.51031894934333955</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -2472,7 +2517,7 @@
         <v>123</v>
       </c>
       <c r="K15" s="11">
-        <f>K27-K3</f>
+        <f>K39-K3</f>
         <v>2</v>
       </c>
       <c r="L15">
@@ -2487,8 +2532,11 @@
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
@@ -2518,7 +2566,7 @@
         <v>140</v>
       </c>
       <c r="K16" s="17">
-        <f>K28-K4</f>
+        <f>K40-K4</f>
         <v>4</v>
       </c>
       <c r="L16" s="17">
@@ -2533,8 +2581,11 @@
       </c>
       <c r="O16" s="19"/>
       <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2569,7 +2620,7 @@
         <v>755</v>
       </c>
       <c r="M17" s="6">
-        <f>M29-M5</f>
+        <f>M41-M5</f>
         <v>0</v>
       </c>
       <c r="N17" s="7">
@@ -2583,8 +2634,11 @@
         <f>O17/L17</f>
         <v>0.51258278145695368</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -2627,8 +2681,11 @@
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2715,7 @@
         <v>161</v>
       </c>
       <c r="K19" s="17">
-        <f>K31-K7</f>
+        <f>K43-K7</f>
         <v>5</v>
       </c>
       <c r="L19" s="17">
@@ -2673,8 +2730,11 @@
       </c>
       <c r="O19" s="19"/>
       <c r="P19" s="20"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -2722,8 +2782,11 @@
         <f>O20/L20</f>
         <v>0.49791666666666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
@@ -2752,7 +2815,7 @@
         <v>102</v>
       </c>
       <c r="K21" s="11">
-        <f>K33-K9</f>
+        <f>K45-K9</f>
         <v>3</v>
       </c>
       <c r="L21">
@@ -2767,8 +2830,11 @@
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>14</v>
       </c>
@@ -2798,7 +2864,7 @@
         <v>109</v>
       </c>
       <c r="K22" s="17">
-        <f>K34-K10</f>
+        <f>K46-K10</f>
         <v>1</v>
       </c>
       <c r="L22">
@@ -2813,8 +2879,11 @@
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="20"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -2862,8 +2931,11 @@
         <f>O23/L23</f>
         <v>0.47280334728033474</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
@@ -2906,8 +2978,11 @@
       </c>
       <c r="O24" s="13"/>
       <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>14</v>
       </c>
@@ -2931,15 +3006,15 @@
         <v>16</v>
       </c>
       <c r="I25" s="17">
-        <f>I37-I13</f>
+        <f>I49-I13</f>
         <v>119</v>
       </c>
       <c r="J25" s="17">
-        <f>J37-J13</f>
+        <f>J49-J13</f>
         <v>94</v>
       </c>
       <c r="K25" s="17">
-        <f>K37-K13</f>
+        <f>K49-K13</f>
         <v>3</v>
       </c>
       <c r="L25" s="17">
@@ -2947,25 +3022,28 @@
         <v>216</v>
       </c>
       <c r="M25" s="17">
-        <f>M37-M13</f>
+        <f>M49-M13</f>
         <v>1.1400000000000001</v>
       </c>
       <c r="N25" s="18">
-        <f>N37-N13</f>
+        <f>N49-N13</f>
         <v>0.108</v>
       </c>
       <c r="O25" s="19"/>
       <c r="P25" s="20"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="28">
-        <v>8</v>
-      </c>
-      <c r="C26" s="28">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="28">
         <v>75</v>
@@ -2973,47 +3051,53 @@
       <c r="E26" s="29">
         <v>100</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <v>10</v>
+      </c>
       <c r="G26" s="28">
         <v>20</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6">
-        <v>420</v>
+        <v>22</v>
       </c>
       <c r="J26" s="6">
-        <v>403</v>
+        <v>25</v>
       </c>
       <c r="K26" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L26" s="6">
         <f>SUM(I26:K26)</f>
-        <v>835</v>
+        <v>47</v>
       </c>
       <c r="M26" s="6">
-        <v>-1.32</v>
+        <v>-1.86</v>
       </c>
       <c r="N26" s="7">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.106</v>
       </c>
       <c r="O26" s="8">
-        <v>417</v>
+        <f>SUM(I27:K27)</f>
+        <v>29</v>
       </c>
       <c r="P26" s="9">
         <f>O26/L26</f>
-        <v>0.4994011976047904</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.61702127659574468</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="30">
-        <v>8</v>
-      </c>
-      <c r="C27" s="30">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="30">
         <v>75</v>
@@ -3021,6 +3105,9 @@
       <c r="E27" s="27">
         <v>100</v>
       </c>
+      <c r="F27" s="27">
+        <v>10</v>
+      </c>
       <c r="G27" s="30">
         <v>20</v>
       </c>
@@ -3028,36 +3115,39 @@
         <v>15</v>
       </c>
       <c r="I27" s="11">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="J27" s="11">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="K27" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <f>SUM(I27:K27)</f>
-        <v>417</v>
-      </c>
-      <c r="M27">
-        <v>0.78</v>
+        <v>29</v>
+      </c>
+      <c r="M27" s="11">
+        <v>-1.86</v>
       </c>
       <c r="N27" s="12">
-        <v>6.7000000000000004E-2</v>
+        <v>-0.106</v>
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="14"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="31">
-        <v>8</v>
-      </c>
-      <c r="C28" s="31">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="31">
         <v>75</v>
@@ -3065,7 +3155,9 @@
       <c r="E28" s="32">
         <v>100</v>
       </c>
-      <c r="F28" s="32"/>
+      <c r="F28" s="32">
+        <v>10</v>
+      </c>
       <c r="G28" s="31">
         <v>20</v>
       </c>
@@ -3073,36 +3165,39 @@
         <v>16</v>
       </c>
       <c r="I28" s="17">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="J28" s="17">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="K28" s="17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L28" s="17">
         <f>SUM(I28:K28)</f>
-        <v>418</v>
+        <v>18</v>
       </c>
       <c r="M28" s="17">
-        <v>-1.92</v>
+        <v>-2.17</v>
       </c>
       <c r="N28" s="18">
-        <v>-4.7E-2</v>
+        <v>-0.152</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28" s="20"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="28">
-        <v>8</v>
-      </c>
-      <c r="C29" s="28">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="28">
         <v>60</v>
@@ -3110,47 +3205,53 @@
       <c r="E29" s="29">
         <v>75</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <v>10</v>
+      </c>
       <c r="G29" s="28">
         <v>20</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6">
-        <v>631</v>
+        <v>33</v>
       </c>
       <c r="J29" s="6">
-        <v>505</v>
+        <v>31</v>
       </c>
       <c r="K29" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L29" s="6">
         <f>SUM(I29:K29)</f>
-        <v>1150</v>
+        <v>68</v>
       </c>
       <c r="M29" s="6">
-        <v>0.55000000000000004</v>
+        <v>-1.27</v>
       </c>
       <c r="N29" s="7">
-        <v>0.06</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="O29" s="8">
-        <v>596</v>
+        <f>SUM(I30:K30)</f>
+        <v>47</v>
       </c>
       <c r="P29" s="9">
         <f>O29/L29</f>
-        <v>0.51826086956521744</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.69117647058823528</v>
+      </c>
+      <c r="Q29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="30">
-        <v>8</v>
-      </c>
-      <c r="C30" s="30">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="30">
         <v>60</v>
@@ -3158,6 +3259,9 @@
       <c r="E30" s="27">
         <v>75</v>
       </c>
+      <c r="F30" s="27">
+        <v>10</v>
+      </c>
       <c r="G30" s="30">
         <v>20</v>
       </c>
@@ -3165,36 +3269,39 @@
         <v>15</v>
       </c>
       <c r="I30" s="11">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="J30" s="11">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="K30" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L30">
         <f>SUM(I30:K30)</f>
-        <v>596</v>
-      </c>
-      <c r="M30">
-        <v>0.78</v>
+        <v>47</v>
+      </c>
+      <c r="M30" s="11">
+        <v>-2.59</v>
       </c>
       <c r="N30" s="12">
-        <v>3.5000000000000003E-2</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="O30" s="13"/>
       <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="31">
-        <v>8</v>
-      </c>
-      <c r="C31" s="31">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="31">
         <v>60</v>
@@ -3202,7 +3309,9 @@
       <c r="E31" s="32">
         <v>75</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="32">
+        <v>10</v>
+      </c>
       <c r="G31" s="31">
         <v>20</v>
       </c>
@@ -3210,36 +3319,39 @@
         <v>16</v>
       </c>
       <c r="I31" s="17">
-        <v>311</v>
+        <v>13</v>
       </c>
       <c r="J31" s="17">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="K31" s="17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L31" s="17">
         <f>SUM(I31:K31)</f>
-        <v>554</v>
+        <v>21</v>
       </c>
       <c r="M31" s="17">
-        <v>1.08</v>
+        <v>1.67</v>
       </c>
       <c r="N31" s="18">
-        <v>8.5999999999999993E-2</v>
+        <v>0.182</v>
       </c>
       <c r="O31" s="19"/>
       <c r="P31" s="20"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="28">
-        <v>8</v>
-      </c>
-      <c r="C32" s="28">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="28">
         <v>50</v>
@@ -3247,47 +3359,53 @@
       <c r="E32" s="29">
         <v>60</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29">
+        <v>10</v>
+      </c>
       <c r="G32" s="28">
         <v>20</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6">
-        <v>399</v>
+        <v>21</v>
       </c>
       <c r="J32" s="6">
-        <v>309</v>
+        <v>25</v>
       </c>
       <c r="K32" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L32" s="6">
         <f>SUM(I32:K32)</f>
-        <v>716</v>
+        <v>47</v>
       </c>
       <c r="M32" s="6">
-        <v>0.56000000000000005</v>
+        <v>-0.65</v>
       </c>
       <c r="N32" s="7">
-        <v>7.4999999999999997E-2</v>
+        <v>-0.126</v>
       </c>
       <c r="O32" s="8">
-        <v>346</v>
+        <f>SUM(I33:K33)</f>
+        <v>35</v>
       </c>
       <c r="P32" s="9">
         <f>O32/L32</f>
-        <v>0.48324022346368717</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.74468085106382975</v>
+      </c>
+      <c r="Q32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="30">
-        <v>8</v>
-      </c>
-      <c r="C33" s="30">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="30">
         <v>50</v>
@@ -3295,6 +3413,9 @@
       <c r="E33" s="27">
         <v>60</v>
       </c>
+      <c r="F33" s="27">
+        <v>10</v>
+      </c>
       <c r="G33" s="30">
         <v>20</v>
       </c>
@@ -3302,36 +3423,39 @@
         <v>15</v>
       </c>
       <c r="I33" s="11">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="J33" s="11">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="K33" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f>SUM(I33:K33)</f>
-        <v>346</v>
-      </c>
-      <c r="M33">
-        <v>1.17</v>
+        <v>35</v>
+      </c>
+      <c r="M33" s="11">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="N33" s="12">
-        <v>0.115</v>
+        <v>-0.127</v>
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="14"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="31">
-        <v>8</v>
-      </c>
-      <c r="C34" s="31">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D34" s="31">
         <v>50</v>
@@ -3339,7 +3463,9 @@
       <c r="E34" s="32">
         <v>60</v>
       </c>
-      <c r="F34" s="32"/>
+      <c r="F34" s="32">
+        <v>10</v>
+      </c>
       <c r="G34" s="31">
         <v>20</v>
       </c>
@@ -3347,36 +3473,39 @@
         <v>16</v>
       </c>
       <c r="I34" s="17">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="J34" s="17">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="K34" s="17">
-        <v>4</v>
-      </c>
-      <c r="L34" s="17">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <f>SUM(I34:K34)</f>
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="M34" s="17">
-        <v>-0.02</v>
+        <v>-2.33</v>
       </c>
       <c r="N34" s="18">
-        <v>3.7999999999999999E-2</v>
+        <v>-0.121</v>
       </c>
       <c r="O34" s="19"/>
       <c r="P34" s="20"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="28">
-        <v>8</v>
-      </c>
-      <c r="C35" s="28">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>17</v>
@@ -3384,47 +3513,53 @@
       <c r="E35" s="29">
         <v>50</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="29">
+        <v>10</v>
+      </c>
       <c r="G35" s="28">
         <v>20</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6">
-        <v>388</v>
+        <v>34</v>
       </c>
       <c r="J35" s="6">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="K35" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L35" s="6">
         <f>SUM(I35:K35)</f>
-        <v>721</v>
+        <v>62</v>
       </c>
       <c r="M35" s="6">
-        <v>0.59</v>
+        <v>-1.94</v>
       </c>
       <c r="N35" s="7">
-        <v>3.5999999999999997E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="O35" s="8">
-        <v>364</v>
+        <f>SUM(I36:K36)</f>
+        <v>42</v>
       </c>
       <c r="P35" s="9">
         <f>O35/L35</f>
-        <v>0.50485436893203883</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="Q35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="30">
-        <v>8</v>
-      </c>
-      <c r="C36" s="30">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>17</v>
@@ -3432,43 +3567,49 @@
       <c r="E36" s="27">
         <v>50</v>
       </c>
+      <c r="F36" s="27">
+        <v>10</v>
+      </c>
       <c r="G36" s="30">
         <v>20</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="11">
-        <v>204</v>
-      </c>
-      <c r="J36" s="11">
-        <v>158</v>
-      </c>
-      <c r="K36" s="11">
-        <v>2</v>
+      <c r="I36">
+        <v>25</v>
+      </c>
+      <c r="J36">
+        <v>17</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
       </c>
       <c r="L36">
         <f>SUM(I36:K36)</f>
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>1.64</v>
+        <v>1.06</v>
       </c>
       <c r="N36" s="12">
-        <v>7.4999999999999997E-2</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="14"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="31">
-        <v>8</v>
-      </c>
-      <c r="C37" s="31">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>17</v>
@@ -3476,7 +3617,9 @@
       <c r="E37" s="32">
         <v>50</v>
       </c>
-      <c r="F37" s="32"/>
+      <c r="F37" s="32">
+        <v>10</v>
+      </c>
       <c r="G37" s="31">
         <v>20</v>
       </c>
@@ -3484,36 +3627,36 @@
         <v>16</v>
       </c>
       <c r="I37" s="17">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="J37" s="17">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="K37" s="17">
-        <v>4</v>
-      </c>
-      <c r="L37" s="17">
-        <f>SUM(I37:K37)</f>
-        <v>357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L37" s="17"/>
       <c r="M37" s="17">
-        <v>-0.48</v>
+        <v>-8.25</v>
       </c>
       <c r="N37" s="18">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.14099999999999999</v>
       </c>
       <c r="O37" s="19"/>
       <c r="P37" s="20"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="28">
-        <v>15</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C38" s="28">
+        <v>15</v>
       </c>
       <c r="D38" s="28">
         <v>75</v>
@@ -3521,50 +3664,50 @@
       <c r="E38" s="29">
         <v>100</v>
       </c>
-      <c r="F38" s="29">
-        <v>10</v>
-      </c>
+      <c r="F38" s="29"/>
       <c r="G38" s="28">
         <v>20</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="6">
-        <v>22</v>
+        <v>420</v>
       </c>
       <c r="J38" s="6">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="K38" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f t="shared" ref="L38:L49" si="2">SUM(I38:K38)</f>
+        <v>835</v>
       </c>
       <c r="M38" s="6">
-        <v>-1.86</v>
+        <v>-1.32</v>
       </c>
       <c r="N38" s="7">
-        <v>-0.106</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="O38" s="8">
-        <f>SUM(I39:K39)</f>
-        <v>29</v>
+        <v>417</v>
       </c>
       <c r="P38" s="9">
         <f>O38/L38</f>
-        <v>0.61702127659574468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.4994011976047904</v>
+      </c>
+      <c r="Q38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="30">
-        <v>15</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C39" s="30">
+        <v>15</v>
       </c>
       <c r="D39" s="30">
         <v>75</v>
@@ -3572,9 +3715,6 @@
       <c r="E39" s="27">
         <v>100</v>
       </c>
-      <c r="F39" s="27">
-        <v>10</v>
-      </c>
       <c r="G39" s="30">
         <v>20</v>
       </c>
@@ -3582,36 +3722,39 @@
         <v>15</v>
       </c>
       <c r="I39" s="11">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="J39" s="11">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="K39" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="M39" s="11">
-        <v>-1.86</v>
+        <f t="shared" si="2"/>
+        <v>417</v>
+      </c>
+      <c r="M39">
+        <v>0.78</v>
       </c>
       <c r="N39" s="12">
-        <v>-0.106</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="O39" s="13"/>
       <c r="P39" s="14"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="31">
-        <v>15</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C40" s="31">
+        <v>15</v>
       </c>
       <c r="D40" s="31">
         <v>75</v>
@@ -3619,9 +3762,7 @@
       <c r="E40" s="32">
         <v>100</v>
       </c>
-      <c r="F40" s="32">
-        <v>10</v>
-      </c>
+      <c r="F40" s="32"/>
       <c r="G40" s="31">
         <v>20</v>
       </c>
@@ -3629,36 +3770,39 @@
         <v>16</v>
       </c>
       <c r="I40" s="17">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="J40" s="17">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="K40" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L40" s="17">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>418</v>
       </c>
       <c r="M40" s="17">
-        <v>-2.17</v>
+        <v>-1.92</v>
       </c>
       <c r="N40" s="18">
-        <v>-0.152</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="O40" s="19"/>
       <c r="P40" s="20"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="28">
-        <v>15</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C41" s="28">
+        <v>15</v>
       </c>
       <c r="D41" s="28">
         <v>60</v>
@@ -3666,50 +3810,50 @@
       <c r="E41" s="29">
         <v>75</v>
       </c>
-      <c r="F41" s="29">
-        <v>10</v>
-      </c>
+      <c r="F41" s="29"/>
       <c r="G41" s="28">
         <v>20</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="6">
-        <v>33</v>
+        <v>631</v>
       </c>
       <c r="J41" s="6">
-        <v>31</v>
+        <v>505</v>
       </c>
       <c r="K41" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>1150</v>
       </c>
       <c r="M41" s="6">
-        <v>-1.27</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N41" s="7">
-        <v>-1.4999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O41" s="8">
-        <f>SUM(I42:K42)</f>
-        <v>47</v>
+        <v>596</v>
       </c>
       <c r="P41" s="9">
         <f>O41/L41</f>
-        <v>0.69117647058823528</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.51826086956521744</v>
+      </c>
+      <c r="Q41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="30">
-        <v>15</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C42" s="30">
+        <v>15</v>
       </c>
       <c r="D42" s="30">
         <v>60</v>
@@ -3717,9 +3861,6 @@
       <c r="E42" s="27">
         <v>75</v>
       </c>
-      <c r="F42" s="27">
-        <v>10</v>
-      </c>
       <c r="G42" s="30">
         <v>20</v>
       </c>
@@ -3727,36 +3868,39 @@
         <v>15</v>
       </c>
       <c r="I42" s="11">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="J42" s="11">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="K42" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="M42" s="11">
-        <v>-2.59</v>
+        <f t="shared" si="2"/>
+        <v>596</v>
+      </c>
+      <c r="M42">
+        <v>0.78</v>
       </c>
       <c r="N42" s="12">
-        <v>-0.10299999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="O42" s="13"/>
       <c r="P42" s="14"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="31">
-        <v>15</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C43" s="31">
+        <v>15</v>
       </c>
       <c r="D43" s="31">
         <v>60</v>
@@ -3764,9 +3908,7 @@
       <c r="E43" s="32">
         <v>75</v>
       </c>
-      <c r="F43" s="32">
-        <v>10</v>
-      </c>
+      <c r="F43" s="32"/>
       <c r="G43" s="31">
         <v>20</v>
       </c>
@@ -3774,36 +3916,39 @@
         <v>16</v>
       </c>
       <c r="I43" s="17">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="J43" s="17">
+        <v>235</v>
+      </c>
+      <c r="K43" s="17">
         <v>8</v>
       </c>
-      <c r="K43" s="17">
-        <v>0</v>
-      </c>
       <c r="L43" s="17">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>554</v>
       </c>
       <c r="M43" s="17">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="N43" s="18">
-        <v>0.182</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="O43" s="19"/>
       <c r="P43" s="20"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="28">
-        <v>15</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C44" s="28">
+        <v>15</v>
       </c>
       <c r="D44" s="28">
         <v>50</v>
@@ -3811,50 +3956,50 @@
       <c r="E44" s="29">
         <v>60</v>
       </c>
-      <c r="F44" s="29">
-        <v>10</v>
-      </c>
+      <c r="F44" s="29"/>
       <c r="G44" s="28">
         <v>20</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="6">
-        <v>21</v>
+        <v>399</v>
       </c>
       <c r="J44" s="6">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="K44" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>716</v>
       </c>
       <c r="M44" s="6">
-        <v>-0.65</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N44" s="7">
-        <v>-0.126</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O44" s="8">
-        <f>SUM(I45:K45)</f>
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="P44" s="9">
         <f>O44/L44</f>
-        <v>0.74468085106382975</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.48324022346368717</v>
+      </c>
+      <c r="Q44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="30">
-        <v>15</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C45" s="30">
+        <v>15</v>
       </c>
       <c r="D45" s="30">
         <v>50</v>
@@ -3862,9 +4007,6 @@
       <c r="E45" s="27">
         <v>60</v>
       </c>
-      <c r="F45" s="27">
-        <v>10</v>
-      </c>
       <c r="G45" s="30">
         <v>20</v>
       </c>
@@ -3872,36 +4014,39 @@
         <v>15</v>
       </c>
       <c r="I45" s="11">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="J45" s="11">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="K45" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="M45" s="11">
-        <v>-7.0000000000000007E-2</v>
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="M45">
+        <v>1.17</v>
       </c>
       <c r="N45" s="12">
-        <v>-0.127</v>
+        <v>0.115</v>
       </c>
       <c r="O45" s="13"/>
       <c r="P45" s="14"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="31">
-        <v>15</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C46" s="31">
+        <v>15</v>
       </c>
       <c r="D46" s="31">
         <v>50</v>
@@ -3909,9 +4054,7 @@
       <c r="E46" s="32">
         <v>60</v>
       </c>
-      <c r="F46" s="32">
-        <v>10</v>
-      </c>
+      <c r="F46" s="32"/>
       <c r="G46" s="31">
         <v>20</v>
       </c>
@@ -3919,36 +4062,39 @@
         <v>16</v>
       </c>
       <c r="I46" s="17">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="J46" s="17">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="K46" s="17">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="L46" s="17">
+        <f t="shared" si="2"/>
+        <v>370</v>
       </c>
       <c r="M46" s="17">
-        <v>-2.33</v>
+        <v>-0.02</v>
       </c>
       <c r="N46" s="18">
-        <v>-0.121</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="O46" s="19"/>
       <c r="P46" s="20"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="28">
-        <v>15</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C47" s="28">
+        <v>15</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>17</v>
@@ -3956,50 +4102,50 @@
       <c r="E47" s="29">
         <v>50</v>
       </c>
-      <c r="F47" s="29">
-        <v>10</v>
-      </c>
+      <c r="F47" s="29"/>
       <c r="G47" s="28">
         <v>20</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="6">
-        <v>34</v>
+        <v>388</v>
       </c>
       <c r="J47" s="6">
-        <v>28</v>
+        <v>327</v>
       </c>
       <c r="K47" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>721</v>
       </c>
       <c r="M47" s="6">
-        <v>-1.94</v>
+        <v>0.59</v>
       </c>
       <c r="N47" s="7">
-        <v>4.7E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="O47" s="8">
-        <f>SUM(I48:K48)</f>
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="P47" s="9">
         <f>O47/L47</f>
-        <v>0.67741935483870963</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.50485436893203883</v>
+      </c>
+      <c r="Q47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="30">
-        <v>15</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C48" s="30">
+        <v>15</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>17</v>
@@ -4007,46 +4153,46 @@
       <c r="E48" s="27">
         <v>50</v>
       </c>
-      <c r="F48" s="27">
-        <v>10</v>
-      </c>
       <c r="G48" s="30">
         <v>20</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I48">
-        <v>25</v>
-      </c>
-      <c r="J48">
-        <v>17</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
+      <c r="I48" s="11">
+        <v>204</v>
+      </c>
+      <c r="J48" s="11">
+        <v>158</v>
+      </c>
+      <c r="K48" s="11">
+        <v>2</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>364</v>
       </c>
       <c r="M48">
-        <v>1.06</v>
+        <v>1.64</v>
       </c>
       <c r="N48" s="12">
-        <v>0.13600000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="14"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="31">
-        <v>15</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C49" s="31">
+        <v>15</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>17</v>
@@ -4054,9 +4200,7 @@
       <c r="E49" s="32">
         <v>50</v>
       </c>
-      <c r="F49" s="32">
-        <v>10</v>
-      </c>
+      <c r="F49" s="32"/>
       <c r="G49" s="31">
         <v>20</v>
       </c>
@@ -4064,25 +4208,31 @@
         <v>16</v>
       </c>
       <c r="I49" s="17">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="J49" s="17">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="K49" s="17">
-        <v>0</v>
-      </c>
-      <c r="L49" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="L49" s="17">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
       <c r="M49" s="17">
-        <v>-8.25</v>
+        <v>-0.48</v>
       </c>
       <c r="N49" s="18">
-        <v>-0.14099999999999999</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="O49" s="19"/>
       <c r="P49" s="20"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>14</v>
       </c>
@@ -4113,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="6">
-        <f t="shared" ref="L50:L52" si="2">SUM(I50:K50)</f>
+        <f t="shared" ref="L50:L52" si="3">SUM(I50:K50)</f>
         <v>119</v>
       </c>
       <c r="M50" s="6">
@@ -4130,8 +4280,11 @@
         <f>O50/L50</f>
         <v>0.66386554621848737</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>14</v>
       </c>
@@ -4163,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="M51">
@@ -4174,8 +4327,11 @@
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="14"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>14</v>
       </c>
@@ -4208,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="M52" s="17">
@@ -4219,8 +4375,11 @@
       </c>
       <c r="O52" s="19"/>
       <c r="P52" s="20"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
@@ -4268,8 +4427,11 @@
         <f>O53/L53</f>
         <v>0.67484662576687116</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>14</v>
       </c>
@@ -4312,8 +4474,11 @@
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="14"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>14</v>
       </c>
@@ -4357,8 +4522,11 @@
       </c>
       <c r="O55" s="19"/>
       <c r="P55" s="20"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>14</v>
       </c>
@@ -4405,8 +4573,11 @@
         <f>O56/L56</f>
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>14</v>
       </c>
@@ -4449,8 +4620,11 @@
       </c>
       <c r="O57" s="13"/>
       <c r="P57" s="14"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>14</v>
       </c>
@@ -4494,8 +4668,11 @@
       </c>
       <c r="O58" s="19"/>
       <c r="P58" s="20"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>14</v>
       </c>
@@ -4543,8 +4720,11 @@
         <f>O59/L59</f>
         <v>0.71165644171779141</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>14</v>
       </c>
@@ -4587,8 +4767,11 @@
       </c>
       <c r="O60" s="13"/>
       <c r="P60" s="14"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>14</v>
       </c>
@@ -4632,8 +4815,11 @@
       </c>
       <c r="O61" s="19"/>
       <c r="P61" s="20"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>14</v>
       </c>
@@ -4681,8 +4867,11 @@
         <f>O62/L62</f>
         <v>0.70666666666666667</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>14</v>
       </c>
@@ -4725,8 +4914,11 @@
       </c>
       <c r="O63" s="13"/>
       <c r="P63" s="14"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>14</v>
       </c>
@@ -4770,8 +4962,11 @@
       </c>
       <c r="O64" s="19"/>
       <c r="P64" s="20"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>14</v>
       </c>
@@ -4819,8 +5014,11 @@
         <f>O65/L65</f>
         <v>0.67326732673267331</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>14</v>
       </c>
@@ -4852,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L103" si="3">SUM(I66:K66)</f>
+        <f t="shared" ref="L66:L103" si="4">SUM(I66:K66)</f>
         <v>68</v>
       </c>
       <c r="M66" s="11">
@@ -4863,8 +5061,11 @@
       </c>
       <c r="O66" s="13"/>
       <c r="P66" s="14"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>14</v>
       </c>
@@ -4897,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="M67" s="16">
@@ -4908,8 +5109,11 @@
       </c>
       <c r="O67" s="19"/>
       <c r="P67" s="20"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>14</v>
       </c>
@@ -4940,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="M68" s="6">
@@ -4957,8 +5161,11 @@
         <f>O68/L68</f>
         <v>0.60396039603960394</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>14</v>
       </c>
@@ -4990,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="M69" s="11">
@@ -5001,8 +5208,11 @@
       </c>
       <c r="O69" s="13"/>
       <c r="P69" s="14"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>14</v>
       </c>
@@ -5035,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="M70" s="16">
@@ -5046,8 +5256,11 @@
       </c>
       <c r="O70" s="19"/>
       <c r="P70" s="20"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>14</v>
       </c>
@@ -5078,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="M71" s="6">
@@ -5094,8 +5307,11 @@
         <f>O71/L71</f>
         <v>0.72222222222222221</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>14</v>
       </c>
@@ -5127,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="M72" s="11">
@@ -5138,8 +5354,11 @@
       </c>
       <c r="O72" s="13"/>
       <c r="P72" s="14"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>14</v>
       </c>
@@ -5172,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="M73" s="17">
@@ -5183,8 +5402,11 @@
       </c>
       <c r="O73" s="19"/>
       <c r="P73" s="20"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>18</v>
       </c>
@@ -5215,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="M74" s="6">
@@ -5231,8 +5453,11 @@
         <f>O74/L74</f>
         <v>0.45051194539249145</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>18</v>
       </c>
@@ -5264,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="M75" s="11">
@@ -5275,8 +5500,11 @@
       </c>
       <c r="O75" s="13"/>
       <c r="P75" s="14"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>18</v>
       </c>
@@ -5309,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
       <c r="M76" s="17">
@@ -5320,8 +5548,11 @@
       </c>
       <c r="O76" s="19"/>
       <c r="P76" s="20"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>18</v>
       </c>
@@ -5352,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>449</v>
       </c>
       <c r="M77" s="6">
@@ -5368,8 +5599,11 @@
         <f>O77/L77</f>
         <v>0.52338530066815148</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>18</v>
       </c>
@@ -5401,7 +5635,7 @@
         <v>6</v>
       </c>
       <c r="L78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
       <c r="M78" s="11">
@@ -5412,8 +5646,11 @@
       </c>
       <c r="O78" s="13"/>
       <c r="P78" s="14"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>18</v>
       </c>
@@ -5446,7 +5683,7 @@
         <v>6</v>
       </c>
       <c r="L79" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="M79" s="17">
@@ -5457,8 +5694,11 @@
       </c>
       <c r="O79" s="19"/>
       <c r="P79" s="20"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>18</v>
       </c>
@@ -5489,7 +5729,7 @@
         <v>5</v>
       </c>
       <c r="L80" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>428</v>
       </c>
       <c r="M80" s="6">
@@ -5505,8 +5745,11 @@
         <f>O80/L80</f>
         <v>0.57009345794392519</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>18</v>
       </c>
@@ -5538,7 +5781,7 @@
         <v>3</v>
       </c>
       <c r="L81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="M81" s="11">
@@ -5549,8 +5792,11 @@
       </c>
       <c r="O81" s="13"/>
       <c r="P81" s="14"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>18</v>
       </c>
@@ -5583,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="L82" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184</v>
       </c>
       <c r="M82" s="17">
@@ -5594,8 +5840,11 @@
       </c>
       <c r="O82" s="19"/>
       <c r="P82" s="20"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
@@ -5626,7 +5875,7 @@
         <v>13</v>
       </c>
       <c r="L83" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>760</v>
       </c>
       <c r="M83" s="6">
@@ -5642,8 +5891,11 @@
         <f>O83/L83</f>
         <v>0.60526315789473684</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>18</v>
       </c>
@@ -5675,7 +5927,7 @@
         <v>9</v>
       </c>
       <c r="L84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
       <c r="M84">
@@ -5686,8 +5938,11 @@
       </c>
       <c r="O84" s="13"/>
       <c r="P84" s="14"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>18</v>
       </c>
@@ -5720,7 +5975,7 @@
         <v>5</v>
       </c>
       <c r="L85" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="M85" s="17">
@@ -5731,8 +5986,11 @@
       </c>
       <c r="O85" s="19"/>
       <c r="P85" s="20"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>18</v>
       </c>
@@ -5763,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="M86" s="6">
@@ -5779,8 +6037,11 @@
         <f>O86/L86</f>
         <v>0.60869565217391308</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>18</v>
       </c>
@@ -5812,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M87" s="11">
@@ -5823,8 +6084,11 @@
       </c>
       <c r="O87" s="13"/>
       <c r="P87" s="14"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>18</v>
       </c>
@@ -5857,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M88" s="17">
@@ -5868,8 +6132,11 @@
       </c>
       <c r="O88" s="19"/>
       <c r="P88" s="20"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>18</v>
       </c>
@@ -5900,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="M89" s="6">
@@ -5916,8 +6183,11 @@
         <f>O89/L89</f>
         <v>0.63636363636363635</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>18</v>
       </c>
@@ -5949,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="M90" s="11">
@@ -5960,8 +6230,11 @@
       </c>
       <c r="O90" s="13"/>
       <c r="P90" s="14"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>18</v>
       </c>
@@ -5994,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M91" s="17">
@@ -6005,8 +6278,11 @@
       </c>
       <c r="O91" s="19"/>
       <c r="P91" s="20"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>18</v>
       </c>
@@ -6037,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M92" s="6">
@@ -6053,8 +6329,11 @@
         <f>O92/L92</f>
         <v>0.78378378378378377</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>18</v>
       </c>
@@ -6086,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="M93" s="11">
@@ -6097,8 +6376,11 @@
       </c>
       <c r="O93" s="13"/>
       <c r="P93" s="14"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>18</v>
       </c>
@@ -6131,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M94" s="17">
@@ -6142,8 +6424,11 @@
       </c>
       <c r="O94" s="19"/>
       <c r="P94" s="20"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>18</v>
       </c>
@@ -6174,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="L95" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="M95" s="6">
@@ -6190,8 +6475,11 @@
         <f>O95/L95</f>
         <v>0.74137931034482762</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>18</v>
       </c>
@@ -6223,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="M96" s="11">
@@ -6234,8 +6522,11 @@
       </c>
       <c r="O96" s="13"/>
       <c r="P96" s="14"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>18</v>
       </c>
@@ -6278,8 +6569,11 @@
       </c>
       <c r="O97" s="19"/>
       <c r="P97" s="20"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>18</v>
       </c>
@@ -6310,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="6">
-        <f t="shared" ref="L98:L100" si="4">SUM(I98:K98)</f>
+        <f t="shared" ref="L98:L100" si="5">SUM(I98:K98)</f>
         <v>22</v>
       </c>
       <c r="M98" s="6">
@@ -6326,8 +6620,11 @@
         <f>O98/L98</f>
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>18</v>
       </c>
@@ -6359,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M99">
@@ -6370,8 +6667,11 @@
       </c>
       <c r="O99" s="13"/>
       <c r="P99" s="14"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>18</v>
       </c>
@@ -6404,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="M100" s="17">
@@ -6415,8 +6715,11 @@
       </c>
       <c r="O100" s="19"/>
       <c r="P100" s="20"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -6445,7 +6748,7 @@
         <v>12</v>
       </c>
       <c r="L101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>670</v>
       </c>
       <c r="M101">
@@ -6462,8 +6765,11 @@
         <f>O101/L101</f>
         <v>0.59552238805970148</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -6492,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="L102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="M102">
@@ -6501,8 +6807,11 @@
       <c r="N102" s="2">
         <v>0.41799999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -6531,7 +6840,7 @@
         <v>2</v>
       </c>
       <c r="L103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="M103">
@@ -6540,8 +6849,16 @@
       <c r="N103" s="2">
         <v>-9.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>14</v>
       </c>
@@ -6572,7 +6889,7 @@
         <v>15</v>
       </c>
       <c r="L105" s="6">
-        <f t="shared" ref="L105:L119" si="5">SUM(I105:K105)</f>
+        <f t="shared" ref="L105:L119" si="6">SUM(I105:K105)</f>
         <v>1140</v>
       </c>
       <c r="M105" s="6">
@@ -6588,8 +6905,11 @@
         <f>O105/L105</f>
         <v>0.48596491228070177</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>14</v>
       </c>
@@ -6621,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="L106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>554</v>
       </c>
       <c r="M106" s="11">
@@ -6632,8 +6952,11 @@
       </c>
       <c r="O106" s="13"/>
       <c r="P106" s="14"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>14</v>
       </c>
@@ -6666,7 +6989,7 @@
         <v>11</v>
       </c>
       <c r="L107" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>586</v>
       </c>
       <c r="M107" s="16">
@@ -6677,8 +7000,11 @@
       </c>
       <c r="O107" s="19"/>
       <c r="P107" s="20"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>14</v>
       </c>
@@ -6709,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="L108" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>294</v>
       </c>
       <c r="M108" s="6">
@@ -6725,8 +7051,11 @@
         <f>O108/L108</f>
         <v>0.47619047619047616</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>14</v>
       </c>
@@ -6758,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="M109">
@@ -6769,8 +7098,11 @@
       </c>
       <c r="O109" s="13"/>
       <c r="P109" s="14"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>14</v>
       </c>
@@ -6803,7 +7135,7 @@
         <v>2</v>
       </c>
       <c r="L110" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="M110" s="16">
@@ -6814,8 +7146,11 @@
       </c>
       <c r="O110" s="19"/>
       <c r="P110" s="20"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>14</v>
       </c>
@@ -6846,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="M111" s="6">
@@ -6863,8 +7198,11 @@
         <f>O111/L111</f>
         <v>2.103448275862069</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>14</v>
       </c>
@@ -6896,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="L112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="M112" s="11">
@@ -6907,8 +7245,11 @@
       </c>
       <c r="O112" s="13"/>
       <c r="P112" s="14"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>14</v>
       </c>
@@ -6941,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="M113" s="16">
@@ -6952,8 +7293,11 @@
       </c>
       <c r="O113" s="19"/>
       <c r="P113" s="20"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>14</v>
       </c>
@@ -6984,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="M114" s="6">
@@ -7000,8 +7344,11 @@
         <f>O114/L114</f>
         <v>0.71134020618556704</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>14</v>
       </c>
@@ -7033,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="M115" s="11">
@@ -7044,8 +7391,11 @@
       </c>
       <c r="O115" s="13"/>
       <c r="P115" s="14"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>14</v>
       </c>
@@ -7078,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="M116" s="17">
@@ -7089,8 +7439,11 @@
       </c>
       <c r="O116" s="19"/>
       <c r="P116" s="20"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>14</v>
       </c>
@@ -7121,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="M117" s="6">
@@ -7137,8 +7490,11 @@
         <f>O117/L117</f>
         <v>0.72222222222222221</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>14</v>
       </c>
@@ -7170,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="M118" s="11">
@@ -7181,8 +7537,11 @@
       </c>
       <c r="O118" s="13"/>
       <c r="P118" s="14"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>14</v>
       </c>
@@ -7215,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="M119" s="17">
@@ -7226,6 +7585,9 @@
       </c>
       <c r="O119" s="19"/>
       <c r="P119" s="20"/>
+      <c r="Q119">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
